--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -85,9 +85,6 @@
       </rPr>
       <t>Go to Restaurants with offers” button redirect the user to "Offers &amp; Promotions" Screen</t>
     </r>
-  </si>
-  <si>
-    <t>Logged-in user</t>
   </si>
   <si>
     <t>User is redirected to "Restaurants with Offers &amp; Promotions" screen</t>
@@ -231,6 +228,78 @@
   </si>
   <si>
     <t>Author</t>
+  </si>
+  <si>
+    <t>Maryam M.</t>
+  </si>
+  <si>
+    <t>SRS031_TC009</t>
+  </si>
+  <si>
+    <t>1- Navigate to user account page
+2- Observe</t>
+  </si>
+  <si>
+    <t>1- Logged-in user
+2- Browser: Chrome 
+3- User have 0 free orders</t>
+  </si>
+  <si>
+    <t>SRS031_TC010</t>
+  </si>
+  <si>
+    <t>1- Logged-in user
+2- Browser: Chrome 
+3- User have 1 free order</t>
+  </si>
+  <si>
+    <t>Validate that User Account Page shall display how many free orders this user made in case of 0 orders</t>
+  </si>
+  <si>
+    <t>Validate that User Account Page shall display how many free orders this user made in case of 1 order</t>
+  </si>
+  <si>
+    <t>"free orders" label in the user account page display 0</t>
+  </si>
+  <si>
+    <t>"free orders" label in the user account page display 1</t>
+  </si>
+  <si>
+    <t>SRS032_TC011</t>
+  </si>
+  <si>
+    <t>Validate that the Admin can add new restaurants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Logged-in Admin with valid credentials
+2- Browser: Chrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Navigate to admin account page
+2- Click on "Add Restaurant" Button
+3- insert non-existing restaurant name (alphanumeric) in the Restaurant name text field
+4- insert restaurant phone number (numeric) in the phone number text field
+5- choose restaurant location from the dropdown list
+6- insert promotion (alphanumeric) in promotion text field
+7- insert items of Menu (Item by item) and its price
+8- Click "Submit" button
+9- Login with valid user credentials with the same location of the restaurant
+10- Search for the restaurant by inserting its name in the search box and click on "Search" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: DDdd 
+password: DDdd12@@
+restaurant name: "Alban Swisra"
+resturant phone number: "01066010987"
+location: Alexandria
+promotion: take one free
+items: 
+Burger  15
+Cheese Burger  15
+     </t>
+  </si>
+  <si>
+    <t>Restaurant is displayed in the search results</t>
   </si>
 </sst>
 </file>
@@ -537,10 +606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -642,10 +711,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.375</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1604,9 +1673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,12 +1683,12 @@
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1637,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1649,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1684,260 +1753,391 @@
         <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="I4" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="I5" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="I6" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="I7" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="I8" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="I9" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="H12" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="12"/>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="I14" s="12"/>
       <c r="P14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="I15" s="12"/>
       <c r="P15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="I16" s="12"/>
       <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +2145,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="12" t="s">
         <v>10</v>
       </c>
@@ -1953,7 +2160,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="12" t="s">
         <v>10</v>
       </c>
@@ -1961,7 +2175,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="12" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +2190,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="12" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2205,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="12" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +2220,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="12" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +2235,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="12" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2250,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="12" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2265,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="12" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2280,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="12" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2295,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="12" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2310,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="12" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2325,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="12" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2340,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="12" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2355,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="12" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2370,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="12" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2385,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="12" t="s">
         <v>10</v>
       </c>
@@ -2081,7 +2400,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="12" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2415,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="12" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2430,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="12" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2445,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="12" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2460,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="12" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2475,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="12" t="s">
         <v>10</v>
       </c>
@@ -2129,7 +2490,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="12" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2505,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="12" t="s">
         <v>10</v>
       </c>
@@ -2145,7 +2520,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="12" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2535,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="12" t="s">
         <v>10</v>
       </c>
@@ -2161,7 +2550,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="12" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2565,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="12" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2580,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="12" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2595,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="12" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2610,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="12" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +2625,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="12" t="s">
         <v>10</v>
       </c>
@@ -2209,7 +2640,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="12" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2655,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="12" t="s">
         <v>10</v>
       </c>
@@ -2225,7 +2670,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="12" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2685,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="12" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2700,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="12" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2715,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="12" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2730,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="12" t="s">
         <v>10</v>
       </c>
@@ -2265,7 +2745,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="12" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2760,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="12" t="s">
         <v>10</v>
       </c>
@@ -2281,7 +2775,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="12" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2790,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="12" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2805,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="12" t="s">
         <v>10</v>
       </c>
@@ -2305,7 +2820,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="12" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2835,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="12" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2850,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="12" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2865,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="12" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2880,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="12" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +2895,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="12" t="s">
         <v>10</v>
       </c>
@@ -2353,7 +2910,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="12" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2925,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="12" t="s">
         <v>10</v>
       </c>
@@ -2369,7 +2940,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="12" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +2955,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="12" t="s">
         <v>10</v>
       </c>
@@ -2385,7 +2970,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="12" t="s">
         <v>10</v>
       </c>
@@ -2393,7 +2985,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="12" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +3000,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="12" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +3015,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="12" t="s">
         <v>10</v>
       </c>
@@ -2417,7 +3030,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="12" t="s">
         <v>10</v>
       </c>
@@ -2425,7 +3045,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="12" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +3060,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="12" t="s">
         <v>10</v>
       </c>
@@ -2441,7 +3075,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="12" t="s">
         <v>10</v>
       </c>
@@ -2449,7 +3090,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="12" t="s">
         <v>10</v>
       </c>
@@ -2457,7 +3105,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="12" t="s">
         <v>10</v>
       </c>
@@ -2465,7 +3120,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="12" t="s">
         <v>10</v>
       </c>
@@ -2473,7 +3135,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="12" t="s">
         <v>10</v>
       </c>
@@ -2481,7 +3150,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="12" t="s">
         <v>10</v>
       </c>
@@ -2489,7 +3165,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="12" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +3180,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="12" t="s">
         <v>10</v>
       </c>
@@ -2505,7 +3195,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="12" t="s">
         <v>10</v>
       </c>
@@ -2513,7 +3210,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="12" t="s">
         <v>10</v>
       </c>
@@ -2521,7 +3225,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="12" t="s">
         <v>10</v>
       </c>
@@ -2529,7 +3240,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="12" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +3255,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="12" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +3270,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="12" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +3285,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="12" t="s">
         <v>10</v>
       </c>
@@ -2561,7 +3300,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="12" t="s">
         <v>10</v>
       </c>
@@ -2569,7 +3315,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="12" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +3330,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
       <c r="H97" s="12" t="s">
         <v>10</v>
       </c>
@@ -2585,7 +3345,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
       <c r="H98" s="12" t="s">
         <v>10</v>
       </c>
@@ -2593,7 +3360,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="12" t="s">
         <v>10</v>
       </c>
@@ -2601,7 +3375,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="12" t="s">
         <v>10</v>
       </c>
@@ -2609,7 +3390,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="12" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +3405,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="12" t="s">
         <v>10</v>
       </c>
@@ -2625,7 +3420,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="12" t="s">
         <v>10</v>
       </c>
@@ -2633,7 +3435,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
       <c r="H104" s="12" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +3450,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
       <c r="H105" s="12" t="s">
         <v>10</v>
       </c>
@@ -2649,7 +3465,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
       <c r="H106" s="12" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +3480,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
       <c r="H107" s="12" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +3495,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
       <c r="H108" s="12" t="s">
         <v>10</v>
       </c>
@@ -2673,7 +3510,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
       <c r="H109" s="12" t="s">
         <v>10</v>
       </c>
@@ -2681,7 +3525,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="12" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +3540,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="12" t="s">
         <v>10</v>
       </c>
@@ -2697,7 +3555,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="12" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +3570,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
       <c r="H113" s="12" t="s">
         <v>10</v>
       </c>
@@ -2713,7 +3585,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
       <c r="H114" s="12" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +3600,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
       <c r="H115" s="12" t="s">
         <v>10</v>
       </c>
@@ -2729,7 +3615,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="12" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +3630,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="12" t="s">
         <v>10</v>
       </c>
@@ -2745,7 +3645,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="12" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +3660,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="12" t="s">
         <v>10</v>
       </c>
@@ -2761,7 +3675,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="12" t="s">
         <v>10</v>
       </c>
@@ -2769,7 +3690,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="12" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +3705,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="12" t="s">
         <v>10</v>
       </c>
@@ -2785,7 +3720,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="12" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +3735,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
       <c r="H124" s="12" t="s">
         <v>10</v>
       </c>
@@ -2801,7 +3750,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="12" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +3765,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="12" t="s">
         <v>10</v>
       </c>
@@ -2817,7 +3780,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
       <c r="H127" s="12" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +3795,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="12" t="s">
         <v>10</v>
       </c>
@@ -2833,7 +3810,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="12" t="s">
         <v>10</v>
       </c>
@@ -2841,7 +3825,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="12" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +3840,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
       <c r="H131" s="12" t="s">
         <v>10</v>
       </c>
@@ -2857,7 +3855,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="12" t="s">
         <v>10</v>
       </c>
@@ -2865,7 +3870,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="12" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +3885,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
       <c r="H134" s="12" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +3900,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="12" t="s">
         <v>10</v>
       </c>
@@ -2889,7 +3915,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="12" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +3930,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="12" t="s">
         <v>10</v>
       </c>
@@ -2905,7 +3945,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
       <c r="H138" s="12" t="s">
         <v>10</v>
       </c>
@@ -2913,7 +3960,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
       <c r="H139" s="12" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +3975,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
       <c r="H140" s="12" t="s">
         <v>10</v>
       </c>
@@ -2929,7 +3990,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="12" t="s">
         <v>10</v>
       </c>
@@ -2937,7 +4005,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="12" t="s">
         <v>10</v>
       </c>
@@ -2945,7 +4020,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
       <c r="H143" s="12" t="s">
         <v>10</v>
       </c>
@@ -2953,7 +4035,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="12" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +4050,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
       <c r="H145" s="12" t="s">
         <v>10</v>
       </c>
@@ -2969,7 +4065,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
       <c r="H146" s="12" t="s">
         <v>10</v>
       </c>
@@ -2977,7 +4080,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
       <c r="H147" s="12" t="s">
         <v>10</v>
       </c>
@@ -2985,7 +4095,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
       <c r="H148" s="12" t="s">
         <v>10</v>
       </c>
@@ -2993,7 +4110,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
       <c r="H149" s="12" t="s">
         <v>10</v>
       </c>
@@ -3001,7 +4125,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
       <c r="H150" s="12" t="s">
         <v>10</v>
       </c>
@@ -3009,7 +4140,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
       <c r="H151" s="12" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +4155,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
       <c r="H152" s="12" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +4170,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
       <c r="H153" s="12" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +4185,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
       <c r="H154" s="12" t="s">
         <v>10</v>
       </c>
@@ -3041,7 +4200,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
       <c r="H155" s="12" t="s">
         <v>10</v>
       </c>
@@ -3049,7 +4215,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
       <c r="H156" s="12" t="s">
         <v>10</v>
       </c>
@@ -3057,7 +4230,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
       <c r="H157" s="12" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +4245,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
       <c r="H158" s="12" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +4260,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
       <c r="H159" s="12" t="s">
         <v>10</v>
       </c>
@@ -3081,7 +4275,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
       <c r="H160" s="12" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +4290,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="12" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +4305,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
       <c r="H162" s="12" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +4320,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
       <c r="H163" s="12" t="s">
         <v>10</v>
       </c>
@@ -3113,7 +4335,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
       <c r="H164" s="12" t="s">
         <v>10</v>
       </c>
@@ -3121,7 +4350,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="12" t="s">
         <v>10</v>
       </c>
@@ -3129,7 +4365,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="12" t="s">
         <v>10</v>
       </c>
@@ -3137,7 +4380,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="12" t="s">
         <v>10</v>
       </c>
@@ -3145,7 +4395,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="12" t="s">
         <v>10</v>
       </c>
@@ -3153,7 +4410,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="12" t="s">
         <v>10</v>
       </c>
@@ -3161,7 +4425,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="12" t="s">
         <v>10</v>
       </c>
@@ -3169,7 +4440,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="12" t="s">
         <v>10</v>
       </c>
@@ -3177,7 +4455,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="12" t="s">
         <v>10</v>
       </c>
@@ -3185,7 +4470,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="12" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +4485,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="12" t="s">
         <v>10</v>
       </c>
@@ -3201,7 +4500,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="12" t="s">
         <v>10</v>
       </c>
@@ -3209,7 +4515,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="12" t="s">
         <v>10</v>
       </c>
@@ -3217,7 +4530,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="12" t="s">
         <v>10</v>
       </c>
@@ -3225,7 +4545,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="12" t="s">
         <v>10</v>
       </c>
@@ -3233,7 +4560,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="12" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +4575,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="12" t="s">
         <v>10</v>
       </c>
@@ -3249,7 +4590,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="12" t="s">
         <v>10</v>
       </c>
@@ -3257,7 +4605,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="12" t="s">
         <v>10</v>
       </c>
@@ -3265,7 +4620,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="12" t="s">
         <v>10</v>
       </c>
@@ -3273,7 +4635,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="12" t="s">
         <v>10</v>
       </c>
@@ -3281,7 +4650,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="12" t="s">
         <v>10</v>
       </c>
@@ -3289,7 +4665,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="12" t="s">
         <v>10</v>
       </c>
@@ -3297,7 +4680,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="12" t="s">
         <v>10</v>
       </c>
@@ -3305,7 +4695,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="12" t="s">
         <v>10</v>
       </c>
@@ -3313,7 +4710,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="12" t="s">
         <v>10</v>
       </c>
@@ -3321,7 +4725,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="12" t="s">
         <v>10</v>
       </c>
@@ -3329,7 +4740,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="12" t="s">
         <v>10</v>
       </c>
@@ -3337,7 +4755,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="12" t="s">
         <v>10</v>
       </c>
@@ -3345,7 +4770,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="12" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +4785,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="12" t="s">
         <v>10</v>
       </c>
@@ -3361,7 +4800,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="12" t="s">
         <v>10</v>
       </c>
@@ -3369,7 +4815,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="12" t="s">
         <v>10</v>
       </c>
@@ -3377,7 +4830,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="12" t="s">
         <v>10</v>
       </c>
@@ -3385,7 +4845,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="12" t="s">
         <v>10</v>
       </c>
@@ -3393,7 +4860,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="12" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +4875,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="12" t="s">
         <v>10</v>
       </c>
@@ -3409,7 +4890,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="12" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +4905,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
       <c r="H202" s="12" t="s">
         <v>10</v>
       </c>
@@ -3425,7 +4920,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
       <c r="H203" s="12" t="s">
         <v>10</v>
       </c>
@@ -3433,7 +4935,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
       <c r="H204" s="12" t="s">
         <v>10</v>
       </c>
@@ -3441,7 +4950,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
       <c r="H205" s="12" t="s">
         <v>10</v>
       </c>
@@ -3449,7 +4965,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
       <c r="H206" s="12" t="s">
         <v>10</v>
       </c>
@@ -3457,7 +4980,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
       <c r="H207" s="12" t="s">
         <v>10</v>
       </c>
@@ -3465,7 +4995,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="12" t="s">
         <v>10</v>
       </c>
@@ -3473,7 +5010,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
       <c r="H209" s="12" t="s">
         <v>10</v>
       </c>
@@ -3481,7 +5025,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
       <c r="H210" s="12" t="s">
         <v>10</v>
       </c>
@@ -3489,7 +5040,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
       <c r="H211" s="12" t="s">
         <v>10</v>
       </c>
@@ -3497,7 +5055,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
       <c r="H212" s="12" t="s">
         <v>10</v>
       </c>
@@ -3505,7 +5070,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
       <c r="H213" s="12" t="s">
         <v>10</v>
       </c>
@@ -3513,7 +5085,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
       <c r="H214" s="12" t="s">
         <v>10</v>
       </c>
@@ -3521,7 +5100,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
       <c r="H215" s="12" t="s">
         <v>10</v>
       </c>
@@ -3529,7 +5115,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="12" t="s">
         <v>10</v>
       </c>
@@ -3537,7 +5130,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="12" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +5145,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="12" t="s">
         <v>10</v>
       </c>
@@ -3553,7 +5160,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="12" t="s">
         <v>10</v>
       </c>
@@ -3561,7 +5175,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
       <c r="H220" s="12" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +5190,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
       <c r="H221" s="12" t="s">
         <v>10</v>
       </c>
@@ -3577,7 +5205,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
       <c r="H222" s="12" t="s">
         <v>10</v>
       </c>
@@ -3585,7 +5220,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
       <c r="H223" s="12" t="s">
         <v>10</v>
       </c>
@@ -3593,7 +5235,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
       <c r="H224" s="12" t="s">
         <v>10</v>
       </c>
@@ -3601,7 +5250,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
       <c r="H225" s="12" t="s">
         <v>10</v>
       </c>
@@ -3609,7 +5265,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
       <c r="H226" s="12" t="s">
         <v>10</v>
       </c>
@@ -3617,7 +5280,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
       <c r="H227" s="12" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +5295,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
       <c r="H228" s="12" t="s">
         <v>10</v>
       </c>
@@ -3633,7 +5310,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
       <c r="H229" s="12" t="s">
         <v>10</v>
       </c>
@@ -3641,137 +5325,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="12"/>
       <c r="P230">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="12"/>
       <c r="P231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="12"/>
       <c r="P232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="12"/>
       <c r="P233">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="12"/>
       <c r="P234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="12"/>
       <c r="P235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="12"/>
       <c r="P236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="12"/>
       <c r="P237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="12"/>
       <c r="P238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="12"/>
       <c r="P239">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="12"/>
       <c r="P240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="12"/>
       <c r="P241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="12"/>
       <c r="P242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="12"/>
       <c r="P243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="12"/>
       <c r="P244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P256">
         <v>1</v>
       </c>
@@ -4034,7 +5838,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,11 +5865,11 @@
       </c>
       <c r="B3">
         <f>SUMIF(Sheet1!H:H,"Passed",Sheet1!P:P)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9">
         <f>B3/B2</f>
-        <v>0.625</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4074,11 +5878,11 @@
       </c>
       <c r="B4">
         <f>SUMIF(Sheet1!H:H,"Failed",Sheet1!P:P)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9">
         <f>B4/B2</f>
-        <v>0.375</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -1675,7 +1675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="13-25" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1673,26 +1674,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1743,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2082,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2098,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2114,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2130,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2145,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2160,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2175,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2190,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2205,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2220,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2235,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2250,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2265,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2280,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2295,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2310,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2325,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2340,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2355,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2370,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2385,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2400,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2415,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2430,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2445,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2460,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2475,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2490,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2505,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2520,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2535,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2550,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2565,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2580,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2595,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2610,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2625,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2640,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2655,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2670,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2685,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2700,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2715,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2730,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2745,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2760,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2775,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2790,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2805,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2820,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2835,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2850,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2865,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2895,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2910,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2925,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2940,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2955,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2970,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2985,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3000,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3015,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3030,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3045,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3060,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3075,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3090,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3105,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3120,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3135,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3150,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3165,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3180,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3195,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3210,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -3225,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3240,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -3255,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3270,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3285,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3300,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3315,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3330,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3345,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3360,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3375,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3390,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3405,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3420,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -3435,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3450,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3465,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3480,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -3495,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -3510,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3525,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -3540,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -3555,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -3570,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3585,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -3600,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -3615,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -3630,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -3645,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -3660,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3675,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3690,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -3705,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -3720,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -3735,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -3750,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3765,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3780,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3795,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -3810,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -3825,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -3840,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -3855,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -3870,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -3885,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -3900,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -3915,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -3930,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -3945,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -3960,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -3975,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -3990,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -4005,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -4020,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -4035,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -4050,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -4065,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -4080,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -4095,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -4110,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -4125,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -4140,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -4155,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -4170,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -4185,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -4200,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -4215,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -4230,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -4245,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -4260,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -4275,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -4290,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -4305,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -4320,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -4335,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -4350,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -4365,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -4380,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -4395,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -4410,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -4425,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -4440,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -4455,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -4470,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -4485,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -4500,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -4515,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -4530,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -4545,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -4560,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -4575,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -4590,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -4605,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -4620,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -4635,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -4650,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -4665,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -4680,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -4695,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -4710,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -4725,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -4740,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -4755,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -4770,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -4785,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -4800,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -4815,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -4830,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -4845,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -4860,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -4875,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -4890,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -4905,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -4920,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -4935,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -4950,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -4965,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -4980,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -4995,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -5010,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -5025,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -5040,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -5055,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -5070,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -5085,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -5100,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -5115,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -5130,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -5145,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -5160,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -5175,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -5190,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -5205,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -5220,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -5235,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -5250,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -5265,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -5280,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -5295,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -5310,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -5325,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -5338,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -5351,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -5364,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -5377,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -5390,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -5403,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -5416,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -5429,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -5442,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -5455,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -5468,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5481,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5494,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5507,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -5520,297 +5521,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P303">
         <v>1</v>
       </c>
@@ -5841,9 +5842,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -5915,4 +5916,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="148">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -302,12 +302,420 @@
   <si>
     <t>Restaurant is displayed in the search results</t>
   </si>
+  <si>
+    <t xml:space="preserve">SRS_001_TC_001 </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the Registartion page shall contain 
+some mandatory fields 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Registration page shall contain 
+this mandatory fields :
+1- Email
+2- UserId
+3- Password
+4- Confirmation password
+5- Gender
+6- Location</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_002</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the register button in Registeration page that 
+create  user account with valid data </t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url 
+" http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php "
+3- Click on Register here Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "hossam@gmail.com"
+2- UserID "123456"
+3- Password "Hoss@m123*"
+4- Confirmation Password "Hoss@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>1-The register button in Registeration page create the user account with valid data 
+2- the user account have been added in the database</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the UserID is uniqe
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+2- UserID "123456"
+3- Password "Ahmed@m123*"
+4- Confirmation Password "Ahmed@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Red message appears with "please write another ID"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>change the message</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed </t>
+  </si>
+  <si>
+    <t>SRS_001_TC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+is less than 4 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "123"
+</t>
+  </si>
+  <si>
+    <t>Error message tells you that UserID length shall be 
+from 4 to 8 chars</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+ is between 4 to 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "1234"
+</t>
+  </si>
+  <si>
+    <t>the system accept the userID</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+is between 4 to 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "12345678"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page 
+is more than 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "123456789"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the UserID in registeration page 
+ accept alphanumeric
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "Hossam1"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_009</t>
+  </si>
+  <si>
+    <t>Validate the email field shall contain chars@chars.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>the system accept the Email</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Error message tells you Please Enter Valid email
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS_001_TC_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password field in registeration page
+accept 8 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Ho$$am11"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter  Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>the system accept the password</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password field in registeration page
+accept 10 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Ho$$am1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password in registeration page
+is less than 8 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "AA$$"
+</t>
+  </si>
+  <si>
+    <t>error message says that Please choose a strong password
+capital , lower letters , numbers and special chars</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password in registeration page
+is more than 10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "AA$$123@@421412"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Password field  in registeration page
+shall contain capital letters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "ho$$am1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Password field  in registeration page
+shall contain special chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Hossam1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the message for a weak  Password field
+in registeration page show
+"Please Enter Valid password"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">error message says thatPlease Enter Valid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error message</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS_001_TC_019</t>
+  </si>
+  <si>
+    <t>Verify that the confirmation password shall match
+ to the password field in registration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Hossam@123*"
+2- Co. Password "Hossam@321*"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter  Password
+4- Enter  Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>Popup message shows 
+"Password Mis-Matched Confirm Password , Re-write again"</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the Login page shall contain 
+some mandatory fields 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Use chrome browser
+2- Open this url
+ " http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+  </si>
+  <si>
+    <t>Login page shall contain 
+this mandatory fields :
+1- UserID field
+2- Password field
+3- Password
+4- Login Button
+5- Register here Button</t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url 
+"  http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php "
+3- Click on Register here Button</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +808,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -415,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -434,13 +855,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +904,44 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -748,7 +1222,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1679,21 +2152,21 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.07421875" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.4609375" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +2216,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -1772,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1801,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -1859,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -1917,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -1975,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -2005,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -2035,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -2067,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2083,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2099,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2115,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2131,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2146,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2161,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2176,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2191,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2206,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2221,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2236,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2251,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2266,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2281,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2296,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2311,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2326,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2341,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2356,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2371,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2386,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2401,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2416,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2431,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2446,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2461,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2476,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2491,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2506,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2521,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2536,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2551,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2566,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2581,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2596,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2611,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2626,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2641,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2656,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2671,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2686,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2701,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2716,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2731,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2746,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2761,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2776,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2791,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2806,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2821,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2836,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2851,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2866,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2881,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2896,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2911,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2926,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2941,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2956,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2971,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2986,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3001,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3016,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3031,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3046,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3061,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3076,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3091,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3106,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3121,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3136,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3151,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3166,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3181,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3196,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3211,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -3226,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3241,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -3256,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3271,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3286,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3301,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3316,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3331,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3346,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3361,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3376,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3391,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3406,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3421,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -3436,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3451,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3466,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3481,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -3496,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -3511,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3526,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -3541,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -3556,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -3571,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3586,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -3601,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -3616,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -3631,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -3646,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -3661,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3676,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3691,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -3706,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -3721,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -3736,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -3751,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -3766,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3781,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -3796,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -3811,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -3826,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -3841,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -3856,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -3871,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -3886,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -3901,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -3916,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -3931,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -3946,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -3961,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -3976,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -3991,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -4006,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -4021,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -4036,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -4051,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -4066,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -4081,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -4096,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -4111,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -4126,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -4141,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -4156,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -4171,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -4186,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -4201,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -4216,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -4231,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -4246,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -4261,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -4276,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -4291,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -4306,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -4321,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -4336,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -4351,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -4366,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -4381,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -4396,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -4411,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -4426,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -4441,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -4456,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -4471,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -4486,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -4501,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -4516,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -4531,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -4546,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -4561,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -4576,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -4591,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -4606,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -4621,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -4636,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -4651,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -4666,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -4681,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -4696,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -4711,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -4726,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -4741,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -4756,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -4771,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -4786,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -4801,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -4816,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -4831,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -4846,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -4861,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -4876,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -4891,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -4906,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -4921,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -4936,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -4951,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -4966,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -4981,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -4996,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -5011,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -5026,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -5041,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -5056,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -5071,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -5086,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -5101,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -5116,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -5131,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -5146,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -5161,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -5176,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -5191,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -5206,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -5221,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -5236,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -5251,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -5266,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -5281,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -5296,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -5311,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -5326,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -5339,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -5352,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -5365,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -5378,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -5391,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -5404,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -5417,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -5430,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -5443,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -5456,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -5469,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5482,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5495,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5508,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -5521,297 +5994,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P303">
         <v>1</v>
       </c>
@@ -5842,9 +6315,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -5852,7 +6325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5860,7 +6333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5873,7 +6346,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5886,7 +6359,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -5899,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -5920,76 +6393,652 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.3828125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="23" style="27" customWidth="1"/>
+    <col min="3" max="3" width="52.3046875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="53.15234375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="38.23046875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="52" style="26" customWidth="1"/>
+    <col min="7" max="7" width="38.84375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.23046875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="15.765625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="1" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" ht="99.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="102" x14ac:dyDescent="0.4">
+      <c r="A16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -301,6 +301,43 @@
   </si>
   <si>
     <t>Restaurant is displayed in the search results</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T001</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T002</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T003</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T005</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T006</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T007</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T008</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T009</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-in with valid user 
+ credientials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marwa </t>
   </si>
 </sst>
 </file>
@@ -440,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1676,7 +1716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5839,7 +5879,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5920,10 +5960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5931,7 +5971,7 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
@@ -5989,7 +6029,60 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:28" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="86">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -330,21 +330,76 @@
     <t>Foodies_SRS_013_T009</t>
   </si>
   <si>
-    <t>Integration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Log-in with valid user 
  credientials </t>
   </si>
   <si>
     <t xml:space="preserve">Marwa </t>
+  </si>
+  <si>
+    <t>SRS_ID</t>
+  </si>
+  <si>
+    <t>Verify the Success of redirection to 
+"Create Account Page " in case of clicking on "Register-here" button in Login-Page</t>
+  </si>
+  <si>
+    <t>UserName : Mariam
+Password : MMmm12@@</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-  Navigate to Login page using URL in testData.
+2- Click  on "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Register Here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" Button.
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>User redirected to "Create Account "Page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +492,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,8 +586,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,7 +880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1714,9 +1805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5962,128 +6053,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="1" t="s">
+      <c r="J1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" ht="69.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>69</v>
+      <c r="E3" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"UI , Integration , Functional , Non-Functional "</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="161">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -306,21 +306,9 @@
     <t>Foodies_SRS_013_T001</t>
   </si>
   <si>
-    <t>Foodies_SRS_013_T002</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_013_T003</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_013_T004</t>
-  </si>
-  <si>
     <t>Foodies_SRS_013_T005</t>
   </si>
   <si>
-    <t>Foodies_SRS_013_T006</t>
-  </si>
-  <si>
     <t>Foodies_SRS_013_T007</t>
   </si>
   <si>
@@ -328,10 +316,6 @@
   </si>
   <si>
     <t>Foodies_SRS_013_T009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-in with valid user 
- credientials </t>
   </si>
   <si>
     <t xml:space="preserve">Marwa </t>
@@ -342,25 +326,6 @@
   <si>
     <t>Verify the Success of redirection to 
 "Create Account Page " in case of clicking on "Register-here" button in Login-Page</t>
-  </si>
-  <si>
-    <t>UserName : Mariam
-Password : MMmm12@@</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -394,12 +359,861 @@
   <si>
     <t xml:space="preserve">Integration </t>
   </si>
+  <si>
+    <t xml:space="preserve">UI </t>
+  </si>
+  <si>
+    <t>Verify the Appearance of "Pop-up message" 
+after , Registering with valid data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with valid user 
+ credientials </t>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Click  on "Register Here" Button.
+3- Enter Valid data in all fields ( use testData).
+4- Click on "Register".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Popup Message appears to the user
+</t>
+  </si>
+  <si>
+    <t>Verify that the pop-up message text is the required text to appear</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_014_T002</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_014_T003</t>
+  </si>
+  <si>
+    <t>Verify the Success of redirection to 
+"Home Page " in case of clicking on "Login" button in Login-Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with valid user 
+ credientials </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_Register.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>email : mariam@gmail.com
+UserName : Mariam
+Password : MMmm12@@
+Location : cairo
+gender : female
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>email : mariam@gmail.com
+UserName : Mariam
+Password : MMmm12@@
+Location : cairo
+gender : female
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+</t>
+  </si>
+  <si>
+    <t>User redirected to "Create Account "
+Page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_015_T004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_018_T006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Next" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Previous" button.
+</t>
+  </si>
+  <si>
+    <t>Previous button is not-clickable.</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T010</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T011</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T012</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T013</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Next" button
+6- Click on "Previous" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Next" button.
+6- Click on "Previous" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Next" button until you reach the last page.
+</t>
+  </si>
+  <si>
+    <t>Next button is not-clickable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Popup Message appears to the user
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T015</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T016</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T017</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T018</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T019</t>
+  </si>
+  <si>
+    <t>Verify that the HomePage conatins "Search-Box"</t>
+  </si>
+  <si>
+    <t>Verify that the HomePage conatins "Search-Button"</t>
+  </si>
+  <si>
+    <t>Verify that the HomePage conatins "offers and promotions button"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the HomePage conatins Navigation Bar That includes
+ "Account Button"</t>
+  </si>
+  <si>
+    <t>Verify that the HomePage conatins Navigation Bar That includes
+ "Log-out Button"</t>
+  </si>
+  <si>
+    <t>Verify that the HomePage conatins Navigation Bar That includes
+ "Home Button"</t>
+  </si>
+  <si>
+    <t>HomePage Appeared with "Search-Box"</t>
+  </si>
+  <si>
+    <t>HomePage Appeared With"Search-Button"</t>
+  </si>
+  <si>
+    <t>HomePage Appeared With
+"offers and promotions button"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>HomePage Appeared With Navigation bar
+that contains "Account Button".</t>
+  </si>
+  <si>
+    <t>HomePage Appeared With  Navigation bar
+that contains "Log-out Button"</t>
+  </si>
+  <si>
+    <t>HomePage Appeared With  Navigation bar
+that contains "Home Button"</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T020</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.166</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Click on "Menu Button".</t>
+  </si>
+  <si>
+    <t>Pop-up message text is "can we access your location to know 
+the neaRestaurant Restaurantaurants to you so you
+ can get food FASTER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Displayed nearby Restaurantaurants in home page is 
+sotred alphabtically </t>
+  </si>
+  <si>
+    <t>List of Sorted Alphatically Restaurantraunts 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that the Displayed nearby Restaurantaurants in 
+home page are only 5</t>
+  </si>
+  <si>
+    <t>List of only 5 Restaurantraunts 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that Next 5 nearby Restaurantaurants is Displayed on
+home page in case of clicking on "Next" button</t>
+  </si>
+  <si>
+    <t>Another List of only 5 Restaurantraunts 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that Next 5 nearby Restaurantaurants that Displayed in
+home page in case of clicking on "Next" button is sorted
+ Alphabtically</t>
+  </si>
+  <si>
+    <t>Another List of only 5  Alphatically Sorted Restaurantraunts Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that the "Previous Button" is dimmed in case of Displaying
+ the first 5 nearby Restaurantraunts.</t>
+  </si>
+  <si>
+    <t>Verify that Previous 5 nearby Restaurantaurants is Displayed on
+home page in case of clicking on "Previous" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List of Previous 5 Restaurantraunts 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that Previous 5 nearby Restaurantaurants that Displayed in
+home page in case of clicking on "Previous" button is sorted
+ Alphabtically</t>
+  </si>
+  <si>
+    <t>Another List of Previous 5  Alphatically Sorted Restaurantraunts Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that the "Next Button" is dimmed in case of Displaying
+ the last 5 or less nearby Restaurantraunts.</t>
+  </si>
+  <si>
+    <t>Verify the Appearance of "Pop-up message" 
+in case of no nearby Restaurantraunts to the user's location.</t>
+  </si>
+  <si>
+    <t>Pop-up message text is "There is no near Restaurantaurants from you :( "</t>
+  </si>
+  <si>
+    <t>Verify that the Menu of the desired Restaurantraunt appears in case of clicking on "Menu Button" on homePage</t>
+  </si>
+  <si>
+    <t>Menu of desired Restaurant Appeared</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,51 +1368,51 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6051,10 +6865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6065,7 +6879,7 @@
     <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="32.44140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="17" customWidth="1"/>
     <col min="8" max="8" width="27.21875" style="17" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" style="17" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="17"/>
@@ -6100,7 +6914,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -6123,74 +6937,548 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="69.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="83.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I3" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="D4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="C5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="B8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="B9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="B10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>76</v>
+    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -382,12 +382,6 @@
   </si>
   <si>
     <t>Verify that the pop-up message text is the required text to appear</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_014_T002</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_014_T003</t>
   </si>
   <si>
     <t>Verify the Success of redirection to 
@@ -571,12 +565,6 @@
 3- Click on "Login" Button.
 4- Click Ok on pop-up message to allow accesssing your location.
 </t>
-  </si>
-  <si>
-    <t>Foodies_SRS_015_T004</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_018_T006</t>
   </si>
   <si>
     <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
@@ -1200,6 +1188,82 @@
   </si>
   <si>
     <t>Menu of desired Restaurant Appeared</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T022</t>
+  </si>
+  <si>
+    <t>Verify the success of redirection to “Offers &amp; Promotions Page”
+in case of clicking on " Offers &amp; Promotions button ".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.167</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Click on "Offers &amp; Promotions” button .</t>
+  </si>
+  <si>
+    <t>User redirected to “Offers &amp; Promotions” 
+Page.</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T002</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T003</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T006</t>
   </si>
 </sst>
 </file>
@@ -2619,9 +2683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6865,11 +6929,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6949,7 +7011,7 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>76</v>
@@ -6963,7 +7025,7 @@
     </row>
     <row r="3" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>79</v>
@@ -6975,7 +7037,7 @@
         <v>81</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>82</v>
@@ -6989,7 +7051,7 @@
     </row>
     <row r="4" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>79</v>
@@ -7001,13 +7063,13 @@
         <v>81</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>73</v>
@@ -7015,25 +7077,25 @@
     </row>
     <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>73</v>
@@ -7047,19 +7109,19 @@
         <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>73</v>
@@ -7067,25 +7129,25 @@
     </row>
     <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>73</v>
@@ -7096,22 +7158,22 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>73</v>
@@ -7125,19 +7187,19 @@
         <v>79</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>73</v>
@@ -7151,19 +7213,19 @@
         <v>79</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>73</v>
@@ -7171,25 +7233,25 @@
     </row>
     <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>73</v>
@@ -7197,25 +7259,25 @@
     </row>
     <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>73</v>
@@ -7223,25 +7285,25 @@
     </row>
     <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>73</v>
@@ -7249,25 +7311,25 @@
     </row>
     <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>73</v>
@@ -7275,7 +7337,7 @@
     </row>
     <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>79</v>
@@ -7284,16 +7346,16 @@
         <v>84</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>73</v>
@@ -7301,25 +7363,25 @@
     </row>
     <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>73</v>
@@ -7327,25 +7389,25 @@
     </row>
     <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>73</v>
@@ -7353,25 +7415,25 @@
     </row>
     <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>73</v>
@@ -7379,25 +7441,25 @@
     </row>
     <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>73</v>
@@ -7405,25 +7467,25 @@
     </row>
     <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>73</v>
@@ -7431,25 +7493,25 @@
     </row>
     <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>73</v>
@@ -7457,28 +7519,51 @@
     </row>
     <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="13-25" sheetId="3" r:id="rId3"/>
+    <sheet name="1-12" sheetId="4" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId3"/>
+    <sheet name="13-25" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1265,19 +1266,440 @@
   <si>
     <t>Foodies_SRS_013_T006</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_001_TC_001 </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the Registartion page shall contain 
+some mandatory fields 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url " http://localhost:81/foodies/Fooides_FrontEnd_Register.php "
+3- Click on Register here Button</t>
+  </si>
+  <si>
+    <t>Registration page shall contain 
+this mandatory fields :
+1- Email
+2- UserId
+3- Password
+4- Confirmation password
+5- Gender
+6- Location</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_002</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the register button in Registeration page that 
+create  user account with valid data </t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url 
+" http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php "
+3- Click on Register here Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "hossam@gmail.com"
+2- UserID "123456"
+3- Password "Hoss@m123*"
+4- Confirmation Password "Hoss@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>1-The register button in Registeration page create the user account with valid data 
+2- the user account have been added in the database</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the UserID is uniqe
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+2- UserID "123456"
+3- Password "Ahmed@m123*"
+4- Confirmation Password "Ahmed@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Red message appears with "please write another ID"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>change the message</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed </t>
+  </si>
+  <si>
+    <t>SRS_001_TC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+is less than 4 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "123"
+</t>
+  </si>
+  <si>
+    <t>Error message tells you that UserID length shall be 
+from 4 to 8 chars</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+ is between 4 to 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "1234"
+</t>
+  </si>
+  <si>
+    <t>the system accept the userID</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+is between 4 to 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "12345678"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page 
+is more than 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "123456789"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the UserID in registeration page 
+ accept alphanumeric
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "Hossam1"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_009</t>
+  </si>
+  <si>
+    <t>Validate the email field shall contain chars@chars.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>the system accept the Email</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Error message tells you Please Enter Valid email
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS_001_TC_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password field in registeration page
+accept 8 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Ho$$am11"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter  Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>the system accept the password</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password field in registeration page
+accept 10 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Ho$$am1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password in registeration page
+is less than 8 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "AA$$"
+</t>
+  </si>
+  <si>
+    <t>error message says that Please choose a strong password
+capital , lower letters , numbers and special chars</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password in registeration page
+is more than 10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "AA$$123@@421412"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Password field  in registeration page
+shall contain capital letters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "ho$$am1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Password field  in registeration page
+shall contain special chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Hossam1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the message for a weak  Password field
+in registeration page show
+"Please Enter Valid password"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">error message says thatPlease Enter Valid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error message</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS_001_TC_019</t>
+  </si>
+  <si>
+    <t>Verify that the confirmation password shall match
+ to the password field in registration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Hossam@123*"
+2- Co. Password "Hossam@321*"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter  Password
+4- Enter  Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>Popup message shows 
+"Password Mis-Matched Confirm Password , Re-write again"</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the Login page shall contain 
+some mandatory fields 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Use chrome browser
+2- Open this url
+ " http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+  </si>
+  <si>
+    <t>Login page shall contain 
+this mandatory fields :
+1- UserID field
+2- Password field
+3- Password
+4- Login Button
+5- Register here Button</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_021</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_022</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_023</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_024</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_025</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1395,8 +1817,29 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,8 +1852,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1429,55 +1878,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1758,6 +2259,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2685,24 +3187,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.07421875" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.4609375" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +3254,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -2781,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2810,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2868,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -2897,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2955,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -2984,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3014,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -3044,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -3076,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3092,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3108,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3124,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3140,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3155,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3170,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3185,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3200,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3215,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3230,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3245,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3260,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3275,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3290,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3305,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3320,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3335,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3350,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3365,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3380,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3395,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3410,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3425,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3440,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3455,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3470,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3485,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3500,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3515,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3530,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -3545,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -3560,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3575,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3590,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3605,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3620,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3635,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3650,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3665,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -3680,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3695,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3710,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -3725,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -3740,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -3755,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3770,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3785,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -3800,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3815,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3830,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3845,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3860,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3875,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3890,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3905,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3920,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3935,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3950,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3965,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3980,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3995,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4010,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4025,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4040,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4055,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4070,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4085,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4100,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4115,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4130,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4145,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4160,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4175,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4190,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4205,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4220,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4235,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4250,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4265,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4280,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4295,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4310,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4325,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4340,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4355,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4370,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4385,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4400,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4415,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4430,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4445,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4460,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4475,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4490,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4505,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4520,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4535,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -4550,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -4565,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -4580,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -4595,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -4610,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -4625,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -4640,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -4655,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -4670,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -4685,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -4700,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -4715,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -4730,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -4745,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -4760,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -4775,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -4790,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -4805,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -4820,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -4835,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -4850,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -4865,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -4880,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -4895,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -4910,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -4925,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -4940,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -4955,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -4970,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -4985,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -5000,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5015,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5030,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5045,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5060,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5075,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5090,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5105,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5120,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5135,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5150,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5165,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5180,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5195,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5210,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5225,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5240,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5255,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5270,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5285,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5300,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5315,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5330,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5345,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5360,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5375,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5390,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5405,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5420,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5435,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5450,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5465,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5480,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5495,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -5510,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -5525,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -5540,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -5555,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -5570,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -5585,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -5600,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -5615,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -5630,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -5645,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -5660,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -5675,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -5690,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -5705,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -5720,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -5735,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -5750,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -5765,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -5780,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -5795,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -5810,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -5825,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -5840,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -5855,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -5870,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -5885,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -5900,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -5915,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -5930,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -5945,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -5960,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -5975,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -5990,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6005,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6020,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -6035,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -6050,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -6065,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -6080,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -6095,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -6110,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -6125,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -6140,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -6155,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -6170,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -6185,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -6200,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -6215,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -6230,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -6245,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -6260,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -6275,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -6290,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -6305,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -6320,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -6335,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -6348,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -6361,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -6374,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -6387,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -6400,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -6413,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -6426,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -6439,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -6452,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -6465,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -6478,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -6491,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -6504,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -6517,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -6530,297 +7032,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P303">
         <v>1</v>
       </c>
@@ -6845,15 +7347,805 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.07421875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="50.3828125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="51.3046875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="37.3828125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="53.765625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="56.23046875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="26.15234375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="17.15234375" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" s="19" customFormat="1" ht="59.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+    </row>
+    <row r="2" spans="1:100" s="25" customFormat="1" ht="99.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" spans="1:100" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A11" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A13" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A14" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A15" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A17" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A18" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A19" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A20" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A21" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -6861,7 +8153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -6869,7 +8161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6882,7 +8174,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -6895,7 +8187,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -6908,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -6927,27 +8219,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="32.07421875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.69140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.84375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.69140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.4609375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.69140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.4609375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.23046875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.765625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.84375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6999,7 +8293,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="83.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="85.3" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -7023,7 +8317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>162</v>
       </c>
@@ -7049,7 +8343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>163</v>
       </c>
@@ -7075,7 +8369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>164</v>
       </c>
@@ -7101,7 +8395,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -7127,7 +8421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -7153,7 +8447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -7179,7 +8473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -7205,7 +8499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -7231,7 +8525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>98</v>
       </c>
@@ -7257,7 +8551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -7283,7 +8577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
@@ -7309,7 +8603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
@@ -7335,7 +8629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
@@ -7361,7 +8655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>111</v>
       </c>
@@ -7387,7 +8681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -7413,7 +8707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>113</v>
       </c>
@@ -7439,7 +8733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>114</v>
       </c>
@@ -7465,7 +8759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>115</v>
       </c>
@@ -7491,7 +8785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>134</v>
       </c>
@@ -7517,7 +8811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>135</v>
       </c>
@@ -7543,7 +8837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>157</v>
       </c>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="25-37" sheetId="1" r:id="rId1"/>
     <sheet name="1-12" sheetId="4" r:id="rId2"/>
     <sheet name="Analysis" sheetId="2" r:id="rId3"/>
     <sheet name="13-25" sheetId="3" r:id="rId4"/>
@@ -3185,26 +3185,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.07421875" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
-    <col min="3" max="3" width="39.3046875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.4609375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.69140625" customWidth="1"/>
-    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.3046875" customWidth="1"/>
-    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3987,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4602,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4962,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5157,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5352,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -5412,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5592,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5622,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5742,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5757,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5847,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6177,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6267,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6417,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -6642,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -6687,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -6702,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -6762,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -6792,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -6807,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -6889,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -7032,297 +7032,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P303">
         <v>1</v>
       </c>
@@ -7349,25 +7349,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.07421875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="50.3828125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="51.3046875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="37.3828125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="53.765625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="56.23046875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="26.15234375" style="30" customWidth="1"/>
-    <col min="9" max="9" width="17.15234375" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="9.23046875" style="30"/>
+    <col min="1" max="1" width="24.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="9.28515625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="19" customFormat="1" ht="59.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" s="19" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="CU1" s="20"/>
       <c r="CV1" s="20"/>
     </row>
-    <row r="2" spans="1:100" s="25" customFormat="1" ht="99.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:100" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>167</v>
       </c>
@@ -7529,7 +7529,7 @@
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
     </row>
-    <row r="3" spans="1:100" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:100" s="26" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>174</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>181</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>187</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>191</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>195</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>198</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>201</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>204</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>209</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>212</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>214</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>219</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>222</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:100" ht="102" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>226</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>229</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>232</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>235</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>238</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>243</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>247</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>248</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>249</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>250</v>
       </c>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>251</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>252</v>
       </c>
@@ -8143,9 +8143,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -8161,12 +8161,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <f>SUMIF(Sheet1!H:H,"Passed",Sheet1!P:P)</f>
+        <f>SUMIF('25-37'!H:H,"Passed",'25-37'!P:P)</f>
         <v>6</v>
       </c>
       <c r="C3" s="9">
@@ -8174,12 +8174,12 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <f>SUMIF(Sheet1!H:H,"Failed",Sheet1!P:P)</f>
+        <f>SUMIF('25-37'!H:H,"Failed",'25-37'!P:P)</f>
         <v>5</v>
       </c>
       <c r="C4" s="9">
@@ -8187,12 +8187,12 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <f>SUMIF(Sheet1!H:H,"Blocked",Sheet1!P:P)</f>
+        <f>SUMIF('25-37'!H:H,"Blocked",'25-37'!P:P)</f>
         <v>0</v>
       </c>
       <c r="C5" s="9">
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -8223,25 +8223,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
+    <sheetView topLeftCell="D23" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.07421875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.69140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.84375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.69140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.4609375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.69140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.4609375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.23046875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.765625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.84375" style="17"/>
+    <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="85.3" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="86.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="171" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>162</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="171" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>163</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>164</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>98</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>111</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>113</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>114</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>115</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>134</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>135</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>157</v>
       </c>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="167">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1265,19 +1265,15 @@
   <si>
     <t>Foodies_SRS_013_T006</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,51 +1428,51 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6931,7 +6927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7028,13 +7026,13 @@
         <v>162</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>88</v>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
     <sheet name="13-25" sheetId="3" r:id="rId3"/>
+    <sheet name="1-12" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1268,12 +1269,440 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_001_TC_001 </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the Registartion page shall contain 
+some mandatory fields 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url " http://localhost:81/foodies/Fooides_FrontEnd_Register.php "
+3- Click on Register here Button</t>
+  </si>
+  <si>
+    <t>Registration page shall contain 
+this mandatory fields :
+1- Email
+2- UserId
+3- Password
+4- Confirmation password
+5- Gender
+6- Location</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_002</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the register button in Registeration page that 
+create  user account with valid data </t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url 
+" http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php "
+3- Click on Register here Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "hossam@gmail.com"
+2- UserID "123456"
+3- Password "Hoss@m123*"
+4- Confirmation Password "Hoss@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>1-The register button in Registeration page create the user account with valid data 
+2- the user account have been added in the database</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the UserID is uniqe
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+2- UserID "123456"
+3- Password "Ahmed@m123*"
+4- Confirmation Password "Ahmed@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Red message appears with "please write another ID"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>change the message</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed </t>
+  </si>
+  <si>
+    <t>SRS_001_TC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+is less than 4 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "123"
+</t>
+  </si>
+  <si>
+    <t>Error message tells you that UserID length shall be 
+from 4 to 8 chars</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+ is between 4 to 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "1234"
+</t>
+  </si>
+  <si>
+    <t>the system accept the userID</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page
+is between 4 to 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "12345678"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of UserID in registeration page 
+is more than 8 nums
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "123456789"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the UserID in registeration page 
+ accept alphanumeric
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- UserID "Hossam1"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_009</t>
+  </si>
+  <si>
+    <t>Validate the email field shall contain chars@chars.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>the system accept the Email</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Error message tells you Please Enter Valid email
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS_001_TC_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password field in registeration page
+accept 8 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Ho$$am11"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter  Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>the system accept the password</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password field in registeration page
+accept 10 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Ho$$am1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password in registeration page
+is less than 8 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "AA$$"
+</t>
+  </si>
+  <si>
+    <t>error message says that Please choose a strong password
+capital , lower letters , numbers and special chars</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the length of Password in registeration page
+is more than 10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "AA$$123@@421412"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Password field  in registeration page
+shall contain capital letters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "ho$$am1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Password field  in registeration page
+shall contain special chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Hossam1122"
+</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the message for a weak  Password field
+in registeration page show
+"Please Enter Valid password"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">error message says thatPlease Enter Valid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error message</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS_001_TC_019</t>
+  </si>
+  <si>
+    <t>Verify that the confirmation password shall match
+ to the password field in registration page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Password "Hossam@123*"
+2- Co. Password "Hossam@321*"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter Valid UserID
+3- Enter  Password
+4- Enter  Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>Popup message shows 
+"Password Mis-Matched Confirm Password , Re-write again"</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the Login page shall contain 
+some mandatory fields 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Use chrome browser
+2- Open this url
+ " http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+  </si>
+  <si>
+    <t>Login page shall contain 
+this mandatory fields :
+1- UserID field
+2- Password field
+3- Password
+4- Login Button
+5- Register here Button</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_021</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_022</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_023</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_024</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_025</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,6 +1820,27 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1406,7 +1856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1425,13 +1875,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1474,6 +1939,36 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2684,21 +3179,21 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +3243,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2806,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -2835,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -2864,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -2893,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -2922,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2951,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -2980,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3010,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -3040,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -3072,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3088,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3104,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3120,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3136,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3151,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3166,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3181,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3196,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3211,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3226,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3241,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3256,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3271,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3286,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3301,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3316,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3331,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3346,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3361,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3376,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3391,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3406,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3421,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3436,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3451,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3466,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3481,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3496,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3511,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3526,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -3541,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -3556,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3571,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3586,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3601,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3616,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3631,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3646,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3661,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -3676,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3691,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3706,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -3721,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -3736,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -3751,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3766,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3781,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -3796,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3811,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3826,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3841,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3856,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3871,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3886,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3901,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3916,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3931,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3946,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3961,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3976,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3991,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4006,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4021,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4036,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4051,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4066,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4081,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4096,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4111,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4126,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4141,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4156,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4171,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4186,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4201,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4216,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4231,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4246,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4261,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4276,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4291,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4306,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4321,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4336,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4351,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4366,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4381,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4396,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4411,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4426,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4441,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4456,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4471,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4486,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4501,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4516,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4531,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -4546,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -4561,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -4576,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -4591,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -4606,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -4621,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -4636,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -4651,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -4666,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -4681,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -4696,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -4711,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -4726,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -4741,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -4756,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -4771,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -4786,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -4801,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -4816,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -4831,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -4846,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -4861,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -4876,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -4891,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -4906,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -4921,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -4936,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -4951,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -4966,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -4981,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -4996,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5011,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5026,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5041,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5056,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5071,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5086,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5101,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5116,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5131,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5146,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5161,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5176,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5191,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5206,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5221,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5236,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5251,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5266,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5281,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5296,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5311,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5326,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5341,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5356,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5371,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5386,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5401,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5416,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5431,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5446,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5461,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5476,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5491,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -5506,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -5521,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -5536,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -5551,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -5566,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -5581,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -5596,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -5611,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -5626,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -5641,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -5656,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -5671,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -5686,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -5701,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -5716,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -5731,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -5746,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -5761,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -5776,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -5791,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -5806,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -5821,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -5836,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -5851,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -5866,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -5881,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -5896,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -5911,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -5926,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -5941,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -5956,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -5971,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -5986,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6001,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6016,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -6031,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -6046,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -6061,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -6076,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -6091,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -6106,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -6121,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -6136,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -6151,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -6166,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -6181,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -6196,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -6211,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -6226,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -6241,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -6256,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -6271,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -6286,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -6301,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -6316,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -6331,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -6344,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -6357,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -6370,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -6383,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -6396,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -6409,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -6422,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -6435,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -6448,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -6461,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -6474,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -6487,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -6500,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -6513,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -6526,297 +7021,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P303">
         <v>1</v>
       </c>
@@ -6847,9 +7342,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -6857,7 +7352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -6865,7 +7360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6878,7 +7373,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -6891,7 +7386,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -6904,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -6927,25 +7422,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6997,7 +7492,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="83.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="86.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -7021,7 +7516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="171" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>162</v>
       </c>
@@ -7047,7 +7542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="171" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>163</v>
       </c>
@@ -7073,7 +7568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>164</v>
       </c>
@@ -7099,7 +7594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -7125,7 +7620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -7151,7 +7646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -7177,7 +7672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -7203,7 +7698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -7229,7 +7724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>98</v>
       </c>
@@ -7255,7 +7750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -7281,7 +7776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
@@ -7307,7 +7802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
@@ -7333,7 +7828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
@@ -7359,7 +7854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>111</v>
       </c>
@@ -7385,7 +7880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -7411,7 +7906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>113</v>
       </c>
@@ -7437,7 +7932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>114</v>
       </c>
@@ -7463,7 +7958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>115</v>
       </c>
@@ -7489,7 +7984,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>134</v>
       </c>
@@ -7515,7 +8010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>135</v>
       </c>
@@ -7541,7 +8036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>157</v>
       </c>
@@ -7573,4 +8068,724 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1896,7 +1896,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1940,35 +1940,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3179,21 +3164,21 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.15234375" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.3828125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3228,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3272,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3301,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3330,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -3359,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3388,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -3417,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -3446,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -3475,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3505,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -3535,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -3567,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3583,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3599,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3615,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3631,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3646,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3661,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3676,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3691,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3706,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3721,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3736,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3751,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3766,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3781,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3796,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3811,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3826,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3841,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3856,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3871,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3886,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3901,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3916,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3931,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3946,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3961,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3976,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3991,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4006,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4021,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4036,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4051,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4066,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4081,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4096,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4111,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4126,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4141,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4156,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4171,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4186,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4201,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4216,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4231,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4246,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4261,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4276,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4291,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4306,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4321,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4336,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4351,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4366,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4381,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4396,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4411,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4426,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4441,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4456,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4471,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4486,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4501,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4516,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4531,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4546,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4561,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4576,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4591,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4606,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4621,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4636,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4651,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4666,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4681,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4696,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4711,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4726,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4741,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4756,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4771,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4786,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4801,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4816,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4831,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4846,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4861,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4876,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4891,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4906,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4921,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4936,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4951,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4966,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4981,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4996,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5011,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5026,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5041,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5056,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5071,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5086,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5101,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5116,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5131,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5146,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5161,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5176,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5191,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5206,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5221,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5236,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5251,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5266,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5281,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5296,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5311,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5326,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5341,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5356,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -5371,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -5386,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -5401,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -5416,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -5431,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -5446,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -5461,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -5476,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -5491,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5506,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5521,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5536,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5551,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5566,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5581,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5596,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5611,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5626,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5641,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5656,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5671,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5686,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5701,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5716,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5731,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5746,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5761,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5776,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5791,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5806,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5821,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5836,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5851,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5866,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5881,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5896,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5911,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5926,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5941,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5956,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5971,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5986,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -6001,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6016,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6031,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6046,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6061,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6076,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6091,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6106,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6121,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6136,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6151,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6166,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6181,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6196,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6211,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6226,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6241,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6256,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6271,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6286,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6301,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6316,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6331,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6346,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6361,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6376,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6391,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6406,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -6421,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -6436,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -6451,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -6466,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -6481,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6496,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6511,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -6526,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -6541,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -6556,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -6571,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -6586,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -6601,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -6616,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -6631,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -6646,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -6661,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -6676,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -6691,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -6706,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -6721,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -6736,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -6751,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -6766,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -6781,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -6796,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -6811,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -6826,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -6839,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -6852,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -6865,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -6878,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -6891,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -6904,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -6917,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -6930,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -6943,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -6956,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -6969,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -6982,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -6995,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -7008,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -7021,297 +7006,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P303">
         <v>1</v>
       </c>
@@ -7342,9 +7327,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -7352,7 +7337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -7360,7 +7345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -7373,7 +7358,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -7386,7 +7371,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7399,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -7426,21 +7411,21 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="32.15234375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.69140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.84375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.69140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.3828125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.69140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.3828125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.3046875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.69140625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.84375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7492,7 +7477,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="86.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="85.3" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -7516,7 +7501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="171" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>162</v>
       </c>
@@ -7542,7 +7527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="171" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>163</v>
       </c>
@@ -7568,7 +7553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>164</v>
       </c>
@@ -7594,7 +7579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -7620,7 +7605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -7646,7 +7631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -7672,7 +7657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -7698,7 +7683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -7724,7 +7709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>98</v>
       </c>
@@ -7750,7 +7735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -7776,7 +7761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
@@ -7802,7 +7787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
@@ -7828,7 +7813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
@@ -7854,7 +7839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>111</v>
       </c>
@@ -7880,7 +7865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -7906,7 +7891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>113</v>
       </c>
@@ -7932,7 +7917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>114</v>
       </c>
@@ -7958,7 +7943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>115</v>
       </c>
@@ -7984,7 +7969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>134</v>
       </c>
@@ -8010,7 +7995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>135</v>
       </c>
@@ -8036,7 +8021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>157</v>
       </c>
@@ -8074,716 +8059,679 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-    <col min="4" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="41.15234375" style="23" customWidth="1"/>
+    <col min="4" max="5" width="48.84375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="53.15234375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="37.15234375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.53515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" ht="104.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="13-25" sheetId="3" r:id="rId3"/>
-    <sheet name="1-12" sheetId="4" r:id="rId4"/>
+    <sheet name="1-12" sheetId="4" r:id="rId3"/>
+    <sheet name="13-25" sheetId="3" r:id="rId4"/>
+    <sheet name="51-59" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="254">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3164,21 +3165,21 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.15234375" customWidth="1"/>
-    <col min="2" max="2" width="17.3828125" customWidth="1"/>
-    <col min="3" max="3" width="39.3046875" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.3828125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.69140625" customWidth="1"/>
-    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.3046875" customWidth="1"/>
-    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3229,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3568,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3584,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3600,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3616,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3631,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3646,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3661,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3676,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3691,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3706,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3721,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3736,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3751,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3766,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3781,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3796,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3811,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3826,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3841,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3856,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3871,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3886,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3901,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3916,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3931,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3946,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3961,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3976,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3991,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4006,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4021,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4036,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4051,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4066,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4081,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4096,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4111,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4126,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4141,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4156,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4171,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4186,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4201,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4216,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4231,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4246,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4261,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4276,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4291,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4306,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4321,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4336,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4351,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4366,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4381,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4396,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4411,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4426,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4441,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4456,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4471,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4486,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4501,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4516,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4531,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4546,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4561,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4576,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4591,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4606,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4621,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4636,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4651,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4666,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4681,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4696,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4711,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4726,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4741,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4756,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4771,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4786,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4801,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4816,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4831,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4846,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4861,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4876,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4891,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4906,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4921,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4936,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4951,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4966,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4981,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4996,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5011,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5026,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5041,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5056,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5071,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5086,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5101,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5116,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5131,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5146,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5161,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5176,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5191,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5206,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5221,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5236,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5251,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5266,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5281,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5296,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5311,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5326,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5341,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -5356,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -5371,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -5386,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -5401,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -5416,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -5431,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -5446,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -5461,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -5476,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5491,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5506,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5521,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5536,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5551,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5566,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5581,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5596,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5611,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5626,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5641,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5656,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5671,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5686,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5701,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5716,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5731,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5746,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5761,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5776,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5791,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5806,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5821,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5836,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5851,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5866,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5881,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5896,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5911,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5926,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5941,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5956,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5971,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -5986,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6001,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6016,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6031,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6046,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6061,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6076,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6091,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6106,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6121,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6136,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6151,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6166,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6181,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6196,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6211,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6226,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6241,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6256,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6271,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6286,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6301,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6316,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6331,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6346,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6361,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6376,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6391,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -6406,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -6421,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -6436,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -6451,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -6466,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6481,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6496,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -6511,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -6526,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -6541,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -6556,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -6571,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -6586,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -6601,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -6616,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -6631,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -6646,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -6661,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -6676,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -6691,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -6706,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -6721,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -6736,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -6751,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -6766,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -6781,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -6796,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -6811,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -6824,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -6837,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -6850,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -6863,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -6876,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -6889,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -6902,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -6915,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -6928,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -6941,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -6954,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -6967,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -6980,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -6993,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -7006,297 +7007,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P303">
         <v>1</v>
       </c>
@@ -7327,9 +7328,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -7337,7 +7338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -7405,27 +7406,710 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="23" customWidth="1"/>
+    <col min="4" max="5" width="48.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.15234375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.69140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.84375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.69140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.3828125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.69140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.3828125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.3046875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.69140625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.84375" style="17"/>
+    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7477,7 +8161,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="85.3" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="83.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -7501,7 +8185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>162</v>
       </c>
@@ -7527,7 +8211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>163</v>
       </c>
@@ -7553,7 +8237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>164</v>
       </c>
@@ -7579,7 +8263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -7605,7 +8289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -7631,7 +8315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -7657,7 +8341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -7683,7 +8367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -7709,7 +8393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>98</v>
       </c>
@@ -7735,7 +8419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -7761,7 +8445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
@@ -7787,7 +8471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
@@ -7813,7 +8497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
@@ -7839,7 +8523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>111</v>
       </c>
@@ -7865,7 +8549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -7891,7 +8575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>113</v>
       </c>
@@ -7917,7 +8601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>114</v>
       </c>
@@ -7943,7 +8627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>115</v>
       </c>
@@ -7969,7 +8653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>134</v>
       </c>
@@ -7995,7 +8679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>135</v>
       </c>
@@ -8021,7 +8705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>157</v>
       </c>
@@ -8055,685 +8739,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.69140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="41.15234375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="48.84375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="53.15234375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="37.15234375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="13.53515625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9.23046875" style="23"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="104.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
+      <c r="J1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"UI , Integration , Functional , Non-Functional "</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="51-59" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="274">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1698,12 +1699,167 @@
   <si>
     <t>SRS_001_TC_026</t>
   </si>
+  <si>
+    <t>Foodies_SRS_051_T001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New User account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New User with valid user account credientials </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>email : dina@gmail.com
+UserName : Dina
+Password : DDdd12@@
+Location : Alexandaria
+gender : female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+url: http://localhost:81/foodies/Fooides_FrontEnd_Register.php</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new user account Successfully </t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Dina Ibrahim</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_051_T002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete User Account by Admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with valid Admin account credientials </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName : DDdd
+Password : DDdd12@@
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">url:http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login".
+4- Press Delete User 
+5- write "Dina" in search 
+6- Click on "Delete" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete User Account Successfully </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_051_T003</t>
+  </si>
+  <si>
+    <t>Login as user with deleted account</t>
+  </si>
+  <si>
+    <t>1- Add New User with valid User account credientials
+2- delete this account by admin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName : Dina
+Password : DDdd12@@
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">url:http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click  on "Login" Button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup Message in red Color "Invalid username or password" </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_051_T004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1998,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1897,7 +2058,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1955,6 +2116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7408,8 +7572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8091,8 +8255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8741,19 +8905,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8808,13 +8975,203 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:28" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5">
       <formula1>"UI , Integration , Functional , Non-Functional "</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://localhost:81/foodies/Fooides_FrontEnd_Register.php"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -14,7 +14,6 @@
     <sheet name="51-59" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="278">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -360,9 +359,6 @@
     <t>User redirected to "Create Account "Page.</t>
   </si>
   <si>
-    <t xml:space="preserve">Integration </t>
-  </si>
-  <si>
     <t xml:space="preserve">UI </t>
   </si>
   <si>
@@ -407,82 +403,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_Register.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>email : mariam@gmail.com
-UserName : Mariam
-Password : MMmm12@@
-Location : cairo
-gender : female
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>email : mariam@gmail.com
-UserName : Mariam
-Password : MMmm12@@
-Location : cairo
-gender : female
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
 </t>
     </r>
     <r>
@@ -1128,24 +1048,12 @@
 sotred alphabtically </t>
   </si>
   <si>
-    <t>List of Sorted Alphatically Restaurantraunts 
- Appeared on Home Page.</t>
-  </si>
-  <si>
     <t>Verify that the Displayed nearby Restaurantaurants in 
 home page are only 5</t>
   </si>
   <si>
-    <t>List of only 5 Restaurantraunts 
- Appeared on Home Page.</t>
-  </si>
-  <si>
     <t>Verify that Next 5 nearby Restaurantaurants is Displayed on
 home page in case of clicking on "Next" button</t>
-  </si>
-  <si>
-    <t>Another List of only 5 Restaurantraunts 
- Appeared on Home Page.</t>
   </si>
   <si>
     <t>Verify that Next 5 nearby Restaurantaurants that Displayed in
@@ -1153,19 +1061,8 @@
  Alphabtically</t>
   </si>
   <si>
-    <t>Another List of only 5  Alphatically Sorted Restaurantraunts Appeared on Home Page.</t>
-  </si>
-  <si>
-    <t>Verify that the "Previous Button" is dimmed in case of Displaying
- the first 5 nearby Restaurantraunts.</t>
-  </si>
-  <si>
     <t>Verify that Previous 5 nearby Restaurantaurants is Displayed on
 home page in case of clicking on "Previous" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List of Previous 5 Restaurantraunts 
- Appeared on Home Page.</t>
   </si>
   <si>
     <t>Verify that Previous 5 nearby Restaurantaurants that Displayed in
@@ -1173,21 +1070,7 @@
  Alphabtically</t>
   </si>
   <si>
-    <t>Another List of Previous 5  Alphatically Sorted Restaurantraunts Appeared on Home Page.</t>
-  </si>
-  <si>
-    <t>Verify that the "Next Button" is dimmed in case of Displaying
- the last 5 or less nearby Restaurantraunts.</t>
-  </si>
-  <si>
-    <t>Verify the Appearance of "Pop-up message" 
-in case of no nearby Restaurantraunts to the user's location.</t>
-  </si>
-  <si>
     <t>Pop-up message text is "There is no near Restaurantaurants from you :( "</t>
-  </si>
-  <si>
-    <t>Verify that the Menu of the desired Restaurantraunt appears in case of clicking on "Menu Button" on homePage</t>
   </si>
   <si>
     <t>Menu of desired Restaurant Appeared</t>
@@ -1854,12 +1737,131 @@
   <si>
     <t>Foodies_SRS_051_T004</t>
   </si>
+  <si>
+    <t>Foodies_SRS_013_T023</t>
+  </si>
+  <si>
+    <t>List of Sorted Alphatically Restaurants 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>List of only 5 Restaurants 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Another List of only 5 Restaurants 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Another List of only 5  Alphatically Sorted Restaurants Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that the "Previous Button" is dimmed in case of Displaying
+ the first 5 nearby Restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List of Previous 5 Restaurants 
+ Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Another List of Previous 5  Alphatically Sorted Restaurants Appeared on Home Page.</t>
+  </si>
+  <si>
+    <t>Verify that the "Next Button" is dimmed in case of Displaying
+ the last 5 or less nearby Restaurants.</t>
+  </si>
+  <si>
+    <t>Verify the Appearance of "Pop-up message" 
+in case of no nearby Restaurants to the user's location.</t>
+  </si>
+  <si>
+    <t>Verify that the Menu of the desired Restaurant appears in case of clicking on "Menu Button" on homePage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the displayed nearby restauraunts are with the
+ same location as the location of the user </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Click on "Offers &amp; Promotions” button .
+6- Click on "Menu" Button.
+7-  View The location of the restaurant.</t>
+  </si>
+  <si>
+    <t>Location of the restaurant is the
+ same as user's location</t>
+  </si>
+  <si>
+    <t>email : mariam@gmail.com
+UserName : Mariam
+Password : MMmm12@@
+Location : cairo
+gender : female
+url:"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+Broswer : chrome Version 74.0.3729.157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName : Mariam
+Password : MMmm12@@
+url:"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+Broswer : chrome Version 74.0.3729.157
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,8 +2005,31 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2017,8 +2042,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2052,13 +2087,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2120,10 +2172,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2399,6 +2462,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7573,7 +7637,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7591,7 +7655,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -7620,630 +7684,630 @@
     </row>
     <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="D5" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>178</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>238</v>
-      </c>
       <c r="H19" s="19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="19" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -8253,10 +8317,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8330,14 +8394,14 @@
         <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>76</v>
@@ -8345,135 +8409,153 @@
       <c r="G2" s="18" t="s">
         <v>77</v>
       </c>
+      <c r="H2" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:28" s="25" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="25" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:28" s="25" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="B6" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="C6" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>142</v>
+        <v>263</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>73</v>
@@ -8484,22 +8566,25 @@
         <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>144</v>
+        <v>264</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>73</v>
@@ -8510,22 +8595,25 @@
         <v>71</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>146</v>
+        <v>265</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>73</v>
@@ -8536,22 +8624,25 @@
         <v>72</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>73</v>
@@ -8559,25 +8650,28 @@
     </row>
     <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>149</v>
+        <v>267</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>73</v>
@@ -8585,25 +8679,28 @@
     </row>
     <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>151</v>
+        <v>268</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>73</v>
@@ -8611,25 +8708,28 @@
     </row>
     <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>73</v>
@@ -8637,25 +8737,28 @@
     </row>
     <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>73</v>
@@ -8663,25 +8766,28 @@
     </row>
     <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>73</v>
@@ -8689,25 +8795,28 @@
     </row>
     <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="F16" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>73</v>
@@ -8715,25 +8824,28 @@
     </row>
     <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="F17" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>73</v>
@@ -8741,25 +8853,28 @@
     </row>
     <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F18" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>73</v>
@@ -8767,25 +8882,28 @@
     </row>
     <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>131</v>
+      <c r="H19" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>73</v>
@@ -8793,25 +8911,28 @@
     </row>
     <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>132</v>
+      <c r="H20" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>73</v>
@@ -8819,25 +8940,28 @@
     </row>
     <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>133</v>
+      <c r="H21" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>73</v>
@@ -8845,25 +8969,28 @@
     </row>
     <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>73</v>
@@ -8871,25 +8998,60 @@
     </row>
     <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8908,7 +9070,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8977,190 +9139,190 @@
     </row>
     <row r="2" spans="1:28" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="287">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1856,12 +1856,196 @@
 Broswer : chrome Version 74.0.3729.157
 </t>
   </si>
+  <si>
+    <t>Foodies_SRS_013_T024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Substring of restaurant's name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "kf"</t>
+    </r>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Write Part of restaurant's name ( use test data)
+6- Click on "Search Button"</t>
+  </si>
+  <si>
+    <t>Restaurants that contains the substring in 
+it's name appeared</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T025</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the user can search for restaurant by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ of restaurant's name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that the user can search for restaurant by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Exact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ name of restaurant's</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Substring of restaurant's name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "kfc"</t>
+    </r>
+  </si>
+  <si>
+    <t>Restaurants with the exact name
+of the text entered in SearchBox appeared</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2027,6 +2211,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -8317,10 +8508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8329,7 +8520,7 @@
     <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
     <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="37.33203125" style="17" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" style="17" customWidth="1"/>
@@ -9051,6 +9242,64 @@
         <v>7</v>
       </c>
       <c r="I24" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="326">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1684,9 +1684,6 @@
     <t>Foodies_SRS_051_T003</t>
   </si>
   <si>
-    <t>Login as user with deleted account</t>
-  </si>
-  <si>
     <t>1- Add New User with valid User account credientials
 2- delete this account by admin</t>
   </si>
@@ -1735,9 +1732,6 @@
     <t xml:space="preserve">Popup Message in red Color "Invalid username or password" </t>
   </si>
   <si>
-    <t>Foodies_SRS_051_T004</t>
-  </si>
-  <si>
     <t>Foodies_SRS_013_T023</t>
   </si>
   <si>
@@ -2039,6 +2033,192 @@
   <si>
     <t>Restaurants with the exact name
 of the text entered in SearchBox appeared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with deleted account by Admin </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_T004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel Button Clear reasult of searching about user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Register with valid Admin account credientials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login".
+4- Press Delete User 
+5- write "Dina" in search 
+6- Click on "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>cancel button will clear result of searching about users</t>
+  </si>
+  <si>
+    <t>Cancel Button doesn't work</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_053_T005</t>
+  </si>
+  <si>
+    <t>verify when admin clicks on submit button to 
+add new restaurant with valid data, system 
+shall display message says “restaurant added 
+successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login".
+4- Press "Add Restaurant" 
+5-Press "Submit" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when admin clicks on submit button to 
+add new restaurant with valid data, system 
+shall display message says “restaurant added 
+successfully</t>
+  </si>
+  <si>
+    <t>Message doesn't display</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_054_T006</t>
+  </si>
+  <si>
+    <t>Message Displayed "user deleted successfully" 
+after the admin delete the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system shall display message says “user deleted successfully”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't recive any message to know this user deleted successuffely or not </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_055_T007</t>
+  </si>
+  <si>
+    <t>Verify "menu" button redirect user to
+ “restaurant’s menu” page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2-  Enter Valid data in all fields ( use testData).
+3- Click on "Login" Button 
+4- press "Ok" on Popup message 
+5- go to search and write "KFC" then press search
+6- press "Menu" Button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "menu" button redirect user to
+“restaurant’s menu” page</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_056_T008</t>
+  </si>
+  <si>
+    <t>Verify order button will display Popup message 
+“phone number of restaurant” and has confirm
+ and cancel buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2-  Enter Valid data in all fields ( use testData).
+3- Click on "Login" Button 
+4- press "Ok" on Popup message 
+5- go to search and write "KFC" then press search
+6- press "Menu" Button
+7- press "Order" Button
+</t>
+  </si>
+  <si>
+    <t>order button  display Popup message “phone number of restaurant” and has confirm and cancel buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel Button doesn't found </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_057_T009</t>
+  </si>
+  <si>
+    <t>Verify order button will display Popup message 
+“phone number of restaurant and congratulation 
+you have one order free” If this was his fifth order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2-  Enter Valid data in all fields ( use testData).
+3- Click on "Login" Button 
+4- press "Ok" on Popup message 
+5- go to search and write "KFC" then press search
+6- press "Menu" Button
+7- press "Order" Button then Press"OK"
+8- press "Order" Button then Press"OK"
+9- press "Order" Button then Press"OK"
+10- press "Order" Button then Press"OK"
+11- press "Order" Button then Press"OK"
+12- press "Order" Button then Press"OK"
+</t>
+  </si>
+  <si>
+    <t>order button will display Popup message 
+“phone number of restaurant and congratulation 
+you have one order free” If this was his fifth order</t>
+  </si>
+  <si>
+    <t>shall be get this message in 6th order 
+but I get it on 7th order</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_058_T010</t>
+  </si>
+  <si>
+    <t>Verify click on cancel button on order 
+message the order will be canceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> click on cancel button on order 
+message the order will be canceled</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_059_T011</t>
+  </si>
+  <si>
+    <t>Verify Logout button shall redirect the user
+ to the login page</t>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2-  Enter Valid data in all fields ( use testData).
+3- Click on "Login" Button 
+4- press "Ok" on Popup message 
+5- press on "Logout" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logout button shall redirect the user
+ to the login page</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_059_T012</t>
+  </si>
+  <si>
+    <t>Verify Logout button shall redirect the admin
+ to the login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New User with valid admin account credientials </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logout button shall redirect the admin
+ to the login page</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2400,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2241,6 +2421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2301,7 +2487,7 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2371,6 +2557,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2653,7 +2854,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7827,8 +8027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8510,7 +8710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -8621,7 +8821,7 @@
         <v>153</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>81</v>
@@ -8650,7 +8850,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>81</v>
@@ -8708,13 +8908,13 @@
         <v>85</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>8</v>
@@ -8743,7 +8943,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>8</v>
@@ -8772,7 +8972,7 @@
         <v>92</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>8</v>
@@ -8801,7 +9001,7 @@
         <v>92</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>8</v>
@@ -8818,7 +9018,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>85</v>
@@ -8859,7 +9059,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>8</v>
@@ -8888,7 +9088,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>8</v>
@@ -8905,7 +9105,7 @@
         <v>90</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>85</v>
@@ -8934,7 +9134,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>85</v>
@@ -9166,7 +9366,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>85</v>
@@ -9187,7 +9387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>144</v>
       </c>
@@ -9216,27 +9416,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>7</v>
@@ -9247,25 +9447,25 @@
     </row>
     <row r="25" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>8</v>
@@ -9276,25 +9476,25 @@
     </row>
     <row r="26" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>7</v>
@@ -9316,25 +9516,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9451,20 +9652,20 @@
       <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>246</v>
@@ -9473,110 +9674,288 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="C5" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J5" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="119.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J7" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="I8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J9" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J10" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J11" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="I12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="I13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" t="s">
-        <v>247</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B5 B7:B8">
       <formula1>"UI , Integration , Functional , Non-Functional "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -330,32 +330,6 @@
 "Create Account Page " in case of clicking on "Register-here" button in Login-Page</t>
   </si>
   <si>
-    <r>
-      <t>1-  Navigate to Login page using URL in testData.
-2- Click  on "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Register Here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">" Button.
- </t>
-    </r>
-  </si>
-  <si>
     <t>User redirected to "Create Account "Page.</t>
   </si>
   <si>
@@ -389,85 +363,6 @@
   <si>
     <t xml:space="preserve">Login with valid user 
  credientials </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_Register.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
@@ -553,42 +448,6 @@
     <t>Next button is not-clickable.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
 2- Enter Valid data in all fields ( use testData).
 3- Click on "Login"button.
@@ -600,52 +459,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Foodies_SRS_013_T015</t>
   </si>
   <si>
@@ -668,144 +481,6 @@
   </si>
   <si>
     <t>Verify that the HomePage conatins "offers and promotions button"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.159</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.162</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>Verify that the HomePage conatins Navigation Bar That includes
@@ -823,151 +498,10 @@
     <t>HomePage Appeared with "Search-Box"</t>
   </si>
   <si>
-    <t>HomePage Appeared With"Search-Button"</t>
-  </si>
-  <si>
     <t>HomePage Appeared With
 "offers and promotions button"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.164</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>HomePage Appeared With Navigation bar
 that contains "Account Button".</t>
   </si>
@@ -984,52 +518,6 @@
   </si>
   <si>
     <t>Foodies_SRS_013_T021</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.166</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>1-  Navigate to Login page using URL in testData.
@@ -1039,40 +527,6 @@
 5- Click on "Menu Button".</t>
   </si>
   <si>
-    <t>Pop-up message text is "can we access your location to know 
-the neaRestaurant Restaurantaurants to you so you
- can get food FASTER"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the Displayed nearby Restaurantaurants in home page is 
-sotred alphabtically </t>
-  </si>
-  <si>
-    <t>Verify that the Displayed nearby Restaurantaurants in 
-home page are only 5</t>
-  </si>
-  <si>
-    <t>Verify that Next 5 nearby Restaurantaurants is Displayed on
-home page in case of clicking on "Next" button</t>
-  </si>
-  <si>
-    <t>Verify that Next 5 nearby Restaurantaurants that Displayed in
-home page in case of clicking on "Next" button is sorted
- Alphabtically</t>
-  </si>
-  <si>
-    <t>Verify that Previous 5 nearby Restaurantaurants is Displayed on
-home page in case of clicking on "Previous" button</t>
-  </si>
-  <si>
-    <t>Verify that Previous 5 nearby Restaurantaurants that Displayed in
-home page in case of clicking on "Previous" button is sorted
- Alphabtically</t>
-  </si>
-  <si>
-    <t>Pop-up message text is "There is no near Restaurantaurants from you :( "</t>
-  </si>
-  <si>
     <t>Menu of desired Restaurant Appeared</t>
   </si>
   <si>
@@ -1081,52 +535,6 @@
   <si>
     <t>Verify the success of redirection to “Offers &amp; Promotions Page”
 in case of clicking on " Offers &amp; Promotions button ".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.167</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>1-  Navigate to Login page using URL in testData.
@@ -1782,6 +1190,153 @@
  same location as the location of the user </t>
   </si>
   <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Click on "Offers &amp; Promotions” button .
+6- Click on "Menu" Button.
+7-  View The location of the restaurant.</t>
+  </si>
+  <si>
+    <t>Location of the restaurant is the
+ same as user's location</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T024</t>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Write Part of restaurant's name ( use test data)
+6- Click on "Search Button"</t>
+  </si>
+  <si>
+    <t>Restaurants that contains the substring in 
+it's name appeared</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013_T025</t>
+  </si>
+  <si>
+    <t>Verify that the user can search for restaurant by substring
+ of restaurant's name</t>
+  </si>
+  <si>
+    <t>Restaurants with the exact name
+of the text entered in SearchBox appeared</t>
+  </si>
+  <si>
+    <t>Verify that the user can search for restaurant by Exact
+ name of restaurant's</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_Register.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-  Navigate to Login page using URL in testData.
+2- Click  on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register Here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" Button.
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 UserName : Mariam
@@ -1792,8 +1347,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
 </t>
@@ -1802,8 +1357,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Broswer</t>
     </r>
@@ -1811,10 +1366,46 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.168</t>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.158</t>
     </r>
     <r>
       <rPr>
@@ -1828,224 +1419,631 @@
     </r>
   </si>
   <si>
-    <t>1-  Navigate to Login page using URL in testData.
-2- Enter Valid data in all fields ( use testData).
-3- Click on "Login"button.
-4- Click on on pop-up message to enable accessing user's location.
-5- Click on "Offers &amp; Promotions” button .
-6- Click on "Menu" Button.
-7-  View The location of the restaurant.</t>
-  </si>
-  <si>
-    <t>Location of the restaurant is the
- same as user's location</t>
-  </si>
-  <si>
-    <t>email : mariam@gmail.com
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.166</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.167</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Substring of restaurant's name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "kf"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Substring of restaurant's name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "kfc"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>email : mariam@gmail.com
 UserName : Mariam
 Password : MMmm12@@
 Location : cairo
 gender : female
-url:"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-Broswer : chrome Version 74.0.3729.157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserName : Mariam
-Password : MMmm12@@
-url:"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-Broswer : chrome Version 74.0.3729.157
-</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_013_T024</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
 url:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
-</t>
+      <t>"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>Broswer</t>
+      <t xml:space="preserve">
+Broswer : chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserName : Mariam
+Password : MMmm12@@
+url:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.169
-</t>
+      <t>"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Substring of restaurant's name :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "kf"</t>
-    </r>
-  </si>
-  <si>
-    <t>1-  Navigate to Login page using URL in testData.
-2- Enter Valid data in all fields ( use testData).
-3- Click on "Login"button.
-4- Click on on pop-up message to enable accessing user's location.
-5- Write Part of restaurant's name ( use test data)
-6- Click on "Search Button"</t>
-  </si>
-  <si>
-    <t>Restaurants that contains the substring in 
-it's name appeared</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_013_T025</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that the user can search for restaurant by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>substring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- of restaurant's name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that the user can search for restaurant by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Exact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- name of restaurant's</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-UserName : Mariam
-Password : MMmm12@@
-url:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+Broswer : chrome Version 74.0.3729.157
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Broswer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : chrome Version 74.0.3729.169
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Substring of restaurant's name :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "kfc"</t>
-    </r>
-  </si>
-  <si>
-    <t>Restaurants with the exact name
-of the text entered in SearchBox appeared</t>
+  </si>
+  <si>
+    <t>Pop-up message text is "can we access your location to know 
+the neaRestaurant Restaurants to you so you
+ can get food FASTER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the Displayed nearby Restaurants in home page is 
+sotred alphabtically </t>
+  </si>
+  <si>
+    <t>Verify that the Displayed nearby Restaurants in 
+home page are only 5</t>
+  </si>
+  <si>
+    <t>Verify that Next 5 nearby Restaurants is Displayed on
+home page in case of clicking on "Next" button</t>
+  </si>
+  <si>
+    <t>Verify that Next 5 nearby Restaurants that Displayed in
+home page in case of clicking on "Next" button is sorted
+ Alphabtically</t>
+  </si>
+  <si>
+    <t>Verify that Previous 5 nearby Restaurants is Displayed on
+home page in case of clicking on "Previous" button</t>
+  </si>
+  <si>
+    <t>Verify that Previous 5 nearby Restaurants that Displayed in
+home page in case of clicking on "Previous" button is sorted
+ Alphabtically</t>
+  </si>
+  <si>
+    <t>Pop-up message text is "There is no near Restaurants from you :( "</t>
+  </si>
+  <si>
+    <t>HomePage Appeared With
+"Search-Button"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,13 +2155,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2205,22 +2196,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2241,6 +2253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2298,10 +2316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2345,7 +2363,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2354,7 +2372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2363,13 +2381,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7846,7 +7882,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -7875,630 +7911,630 @@
     </row>
     <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="19" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="19" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8510,8 +8546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8529,34 +8565,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="27" t="s">
         <v>74</v>
       </c>
       <c r="K1" s="15"/>
@@ -8580,728 +8616,753 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="83.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:28" ht="69.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:28" s="25" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:28" s="25" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:28" s="25" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="G10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="C15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I16" s="28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="25" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="27" t="s">
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I25" s="28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="25" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="25" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="J26" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -9388,190 +9449,190 @@
     </row>
     <row r="2" spans="1:28" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I14" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="289">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2037,6 +2037,17 @@
   <si>
     <t>HomePage Appeared With
 "Search-Button"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Login with valid user 
+ credientials .
+2- There'a a restaurant that conatin
+the substring already exit in database. </t>
+  </si>
+  <si>
+    <t>1- Login with valid user 
+credientials.
+2- No restaurants for user's location in database.</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2311,6 +2322,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF9900"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF9900"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2319,7 +2463,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2381,31 +2525,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2689,7 +2887,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8546,823 +8743,823 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="32.109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:28" s="43" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
     </row>
     <row r="2" spans="1:28" ht="69.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:28" s="25" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:28" s="50" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:28" s="25" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:28" s="50" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:28" s="25" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:28" s="50" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="E16" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="G16" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I25" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="28" t="s">
+      <c r="E26" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="328">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2049,12 +2049,178 @@
 credientials.
 2- No restaurants for user's location in database.</t>
   </si>
+  <si>
+    <t>SRS033_TC012</t>
+  </si>
+  <si>
+    <t>validate that when user click on "confirm order" button, loyalty points will increase by one for each order, unless it’s a free order</t>
+  </si>
+  <si>
+    <t>1- Navigate to User homepage url:"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"
+2- Click on "Menu" button next to the restaurant name
+3- Click on "Order" Button and press "Ok" when the pop-up message appears
+4- Click on the "User Account Page" button in the navbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- "Loyalty points" bar increases by 1 (20%)</t>
+  </si>
+  <si>
+    <t>SRS033_TC013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- "Loyalty points" doesn't change</t>
+  </si>
+  <si>
+    <r>
+      <t>validate that when user click on "confirm order" button, loyalty points will increase by one for each order,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>unless it’s a free order</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS034_TC014</t>
+  </si>
+  <si>
+    <t>Validate that the Admin can “delete user"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin(username): DDdd 
+Admin(password): DDdd12@@
+Regular User (UserName): Mariam
+Regular User (Password) : MMmm12@@
+</t>
+  </si>
+  <si>
+    <t>1- Navigate to admin account page
+2- Click on "Delete User" Button
+3- Search for a user 
+4- Click on "delete"</t>
+  </si>
+  <si>
+    <t>- Admin is redirected to "Delete User" Page
+- User appears in search results before deletion
+- User no longer appear in the search results</t>
+  </si>
+  <si>
+    <t>SRS035_TC015</t>
+  </si>
+  <si>
+    <t>Validate that the user has his own account page which contains Picture, User ID, email, loyalty points and free orders.</t>
+  </si>
+  <si>
+    <t>1- Logged-in user
+2- Browser: Chrome</t>
+  </si>
+  <si>
+    <t>User account page contains the following:
+Picture, User ID, email, loyalty points and free orders.</t>
+  </si>
+  <si>
+    <t>SRS036_TC016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the Login page is the first page of the application. </t>
+  </si>
+  <si>
+    <t>Browser: Chrome</t>
+  </si>
+  <si>
+    <t>1- Navigate to url: "http://localhost:81/foodies/"</t>
+  </si>
+  <si>
+    <t>User is redirected to Login page</t>
+  </si>
+  <si>
+    <t>SRS037_TC017</t>
+  </si>
+  <si>
+    <t>SRS037_TC018</t>
+  </si>
+  <si>
+    <t>Admin Valid Credentials
+username: DDdd 
+password: DDdd12@@</t>
+  </si>
+  <si>
+    <t>Validate that "Delete User" page contains Search bar for User ID, Search button, Clear button, and Delete button.</t>
+  </si>
+  <si>
+    <t>1- Navigate to admin account page
+2- Click on "Delete User" Button</t>
+  </si>
+  <si>
+    <t>Validate that "Delete User" page controlled by Admin only (Happy Scenario)</t>
+  </si>
+  <si>
+    <t>SRS037_TC019</t>
+  </si>
+  <si>
+    <t>1- Logged-in user (NOT ADMIN)
+2- Browser: Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular User Valid Credentials
+UserName: Mariam
+Password : MMmm12@@
+</t>
+  </si>
+  <si>
+    <t>1- Navigate to admin account page "http://localhost:81/foodies/Foodies_FrontEnd_AdminProfile.php"
+2- Click on "Delete User" Button (if Applicable)</t>
+  </si>
+  <si>
+    <t>SRS037_TC020</t>
+  </si>
+  <si>
+    <t>Validate that "Delete User" page controlled by Admin only (accessing page without logging-in)</t>
+  </si>
+  <si>
+    <t>Validate that "Delete User" page controlled by Admin only (Accessing page with regular user credentials)</t>
+  </si>
+  <si>
+    <t>1- No user is logged-in
+2- Browser: Chrome</t>
+  </si>
+  <si>
+    <t>- System user is redirected to log-in page (First page of application)</t>
+  </si>
+  <si>
+    <t>1- Admin is redirected to "Admin Account" page
+2- Admin is redirected to "Delete User" Page</t>
+  </si>
+  <si>
+    <t>- User is redirected to homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Delete User" page contains Search bar for User ID, Search button, Clear button, and Delete button.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2239,6 +2405,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2746,13 +2927,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2851,13 +3032,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2887,6 +3068,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3812,26 +3994,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +4063,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3910,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3939,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3968,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -3997,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -4026,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -4055,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -4084,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -4113,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -4143,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -4205,146 +4387,282 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+    <row r="13" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>292</v>
+      </c>
       <c r="H13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="H14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+    <row r="15" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="H15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+    <row r="16" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="H16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>309</v>
+      </c>
       <c r="H17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="H18" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>325</v>
+      </c>
       <c r="H19" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>323</v>
+      </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="H20" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>326</v>
+      </c>
       <c r="H21" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4359,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4374,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4389,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4404,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4419,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4434,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4449,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4464,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4479,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4494,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4509,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4524,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4539,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4554,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4569,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4584,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4599,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4614,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4629,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4644,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4659,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4674,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4689,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4704,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4719,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4734,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4749,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4764,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4779,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4794,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4809,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4824,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4839,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4854,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4869,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4884,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4899,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4914,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4929,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4944,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4959,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4974,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4989,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5004,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5019,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5034,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5049,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5064,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5079,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5094,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5109,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5124,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5139,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5154,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5169,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5184,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5199,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5214,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5229,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5244,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5259,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5274,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5289,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -5304,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5319,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5334,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5349,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -5364,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -5379,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -5394,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -5409,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -5424,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -5439,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -5454,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -5469,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -5484,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -5499,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -5514,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -5529,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -5544,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -5559,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -5574,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -5589,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -5604,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -5619,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5634,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5649,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5664,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5679,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5694,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5709,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5724,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5739,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5754,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5769,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5784,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5799,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5814,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5829,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5844,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5859,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5874,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5889,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5904,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5919,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5934,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5949,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5964,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5979,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5994,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -6009,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -6024,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -6039,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -6054,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -6069,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -6084,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -6099,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -6114,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -6129,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -6144,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -6159,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -6174,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -6189,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -6204,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -6219,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -6234,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -6249,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -6264,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -6279,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -6294,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -6309,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -6324,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -6339,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -6354,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -6369,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -6384,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -6399,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -6414,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -6429,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -6444,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -6459,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -6474,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -6489,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -6504,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -6519,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -6534,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -6549,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -6564,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -6579,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -6594,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -6609,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -6624,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -6639,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6654,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6669,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6684,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6699,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6714,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6729,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6744,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6759,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6774,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6789,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6804,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6819,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6834,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6849,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6864,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6879,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6894,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6909,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6924,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6939,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6954,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6969,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6984,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6999,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -7014,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -7029,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -7044,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -7059,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -7074,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -7089,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -7104,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -7119,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -7134,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -7149,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -7164,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -7179,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -7194,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -7209,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -7224,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -7239,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -7254,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -7269,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -7284,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -7299,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -7314,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -7329,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -7344,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -7359,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -7374,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -7389,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -7404,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -7419,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -7434,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -7449,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -7464,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -7477,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -7490,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -7503,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -7516,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -7529,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -7542,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -7555,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -7568,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -7581,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -7594,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -7607,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -7620,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -7633,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -7646,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -7659,297 +7977,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P303">
         <v>1</v>
       </c>
@@ -7977,12 +8295,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -7990,54 +8308,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <f>SUMIF(Sheet1!H:H,"Passed",Sheet1!P:P)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9">
         <f>B3/B2</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <f>SUMIF(Sheet1!H:H,"Failed",Sheet1!P:P)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9">
         <f>B4/B2</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5">
         <f>SUMIF(Sheet1!H:H,"Blocked",Sheet1!P:P)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9">
         <f>B5/B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -8064,20 +8382,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="48.88671875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="23"/>
+    <col min="1" max="1" width="16.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="48.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.28515625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>132</v>
       </c>
@@ -8106,7 +8424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>133</v>
       </c>
@@ -8133,7 +8451,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>140</v>
       </c>
@@ -8162,7 +8480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>147</v>
       </c>
@@ -8191,7 +8509,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>153</v>
       </c>
@@ -8220,7 +8538,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>157</v>
       </c>
@@ -8249,7 +8567,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>161</v>
       </c>
@@ -8278,7 +8596,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>164</v>
       </c>
@@ -8307,7 +8625,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>167</v>
       </c>
@@ -8336,7 +8654,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>170</v>
       </c>
@@ -8365,7 +8683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>175</v>
       </c>
@@ -8394,7 +8712,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>178</v>
       </c>
@@ -8423,7 +8741,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>180</v>
       </c>
@@ -8452,7 +8770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>185</v>
       </c>
@@ -8481,7 +8799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>188</v>
       </c>
@@ -8510,7 +8828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>192</v>
       </c>
@@ -8539,7 +8857,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>195</v>
       </c>
@@ -8568,7 +8886,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>198</v>
       </c>
@@ -8597,7 +8915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>201</v>
       </c>
@@ -8626,7 +8944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>204</v>
       </c>
@@ -8655,7 +8973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>209</v>
       </c>
@@ -8682,7 +9000,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>213</v>
       </c>
@@ -8691,7 +9009,7 @@
       </c>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>214</v>
       </c>
@@ -8700,7 +9018,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>215</v>
       </c>
@@ -8709,7 +9027,7 @@
       </c>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>216</v>
       </c>
@@ -8718,7 +9036,7 @@
       </c>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>217</v>
       </c>
@@ -8726,7 +9044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>218</v>
       </c>
@@ -8743,25 +9061,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="1" width="32.140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="43" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="43" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -8813,7 +9131,7 @@
       <c r="AA1" s="41"/>
       <c r="AB1" s="41"/>
     </row>
-    <row r="2" spans="1:28" ht="69.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>68</v>
       </c>
@@ -8841,7 +9159,7 @@
       </c>
       <c r="J2" s="44"/>
     </row>
-    <row r="3" spans="1:28" s="50" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="50" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>127</v>
       </c>
@@ -8871,7 +9189,7 @@
       </c>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:28" s="50" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="50" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>128</v>
       </c>
@@ -8901,7 +9219,7 @@
       </c>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="114" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>129</v>
       </c>
@@ -8931,7 +9249,7 @@
       </c>
       <c r="J5" s="44"/>
     </row>
-    <row r="6" spans="1:28" s="50" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="50" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>69</v>
       </c>
@@ -8961,7 +9279,7 @@
       </c>
       <c r="J6" s="48"/>
     </row>
-    <row r="7" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>130</v>
       </c>
@@ -8991,7 +9309,7 @@
       </c>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>70</v>
       </c>
@@ -9021,7 +9339,7 @@
       </c>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>71</v>
       </c>
@@ -9051,7 +9369,7 @@
       </c>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>72</v>
       </c>
@@ -9081,7 +9399,7 @@
       </c>
       <c r="J10" s="44"/>
     </row>
-    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>92</v>
       </c>
@@ -9111,7 +9429,7 @@
       </c>
       <c r="J11" s="44"/>
     </row>
-    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>93</v>
       </c>
@@ -9141,7 +9459,7 @@
       </c>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>94</v>
       </c>
@@ -9171,7 +9489,7 @@
       </c>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>95</v>
       </c>
@@ -9201,7 +9519,7 @@
       </c>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>96</v>
       </c>
@@ -9231,7 +9549,7 @@
       </c>
       <c r="J15" s="44"/>
     </row>
-    <row r="16" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>103</v>
       </c>
@@ -9261,7 +9579,7 @@
       </c>
       <c r="J16" s="44"/>
     </row>
-    <row r="17" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>104</v>
       </c>
@@ -9291,7 +9609,7 @@
       </c>
       <c r="J17" s="44"/>
     </row>
-    <row r="18" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>105</v>
       </c>
@@ -9321,7 +9639,7 @@
       </c>
       <c r="J18" s="44"/>
     </row>
-    <row r="19" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>106</v>
       </c>
@@ -9351,7 +9669,7 @@
       </c>
       <c r="J19" s="44"/>
     </row>
-    <row r="20" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>107</v>
       </c>
@@ -9381,7 +9699,7 @@
       </c>
       <c r="J20" s="44"/>
     </row>
-    <row r="21" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>119</v>
       </c>
@@ -9411,7 +9729,7 @@
       </c>
       <c r="J21" s="44"/>
     </row>
-    <row r="22" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
@@ -9441,7 +9759,7 @@
       </c>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>123</v>
       </c>
@@ -9471,7 +9789,7 @@
       </c>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>239</v>
       </c>
@@ -9501,7 +9819,7 @@
       </c>
       <c r="J24" s="44"/>
     </row>
-    <row r="25" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>253</v>
       </c>
@@ -9531,7 +9849,7 @@
       </c>
       <c r="J25" s="44"/>
     </row>
-    <row r="26" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>256</v>
       </c>
@@ -9580,19 +9898,19 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9644,7 +9962,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="129" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>219</v>
       </c>
@@ -9673,7 +9991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>226</v>
       </c>
@@ -9702,7 +10020,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>232</v>
       </c>
@@ -9731,7 +10049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>238</v>
       </c>
@@ -9742,92 +10060,92 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>225</v>
       </c>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="321">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2060,9 +2060,6 @@
     <t>cancel button will clear result of searching about users</t>
   </si>
   <si>
-    <t>Cancel Button doesn't work</t>
-  </si>
-  <si>
     <t>Foodies_SRS_053_T005</t>
   </si>
   <si>
@@ -2086,9 +2083,6 @@
 successfully</t>
   </si>
   <si>
-    <t>Message doesn't display</t>
-  </si>
-  <si>
     <t>Foodies_SRS_054_T006</t>
   </si>
   <si>
@@ -2097,9 +2091,6 @@
   </si>
   <si>
     <t xml:space="preserve">system shall display message says “user deleted successfully”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't recive any message to know this user deleted successuffely or not </t>
   </si>
   <si>
     <t>Foodies_SRS_055_T007</t>
@@ -2141,9 +2132,6 @@
   </si>
   <si>
     <t>order button  display Popup message “phone number of restaurant” and has confirm and cancel buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel Button doesn't found </t>
   </si>
   <si>
     <t>Foodies_SRS_057_T009</t>
@@ -2172,10 +2160,6 @@
     <t>order button will display Popup message 
 “phone number of restaurant and congratulation 
 you have one order free” If this was his fifth order</t>
-  </si>
-  <si>
-    <t>shall be get this message in 6th order 
-but I get it on 7th order</t>
   </si>
   <si>
     <t>Foodies_SRS_058_T010</t>
@@ -8027,7 +8011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -9518,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9702,19 +9686,17 @@
       <c r="I5" t="s">
         <v>247</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>291</v>
-      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:28" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>288</v>
@@ -9723,10 +9705,10 @@
         <v>251</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>294</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>295</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>8</v>
@@ -9734,19 +9716,16 @@
       <c r="I6" t="s">
         <v>247</v>
       </c>
-      <c r="J6" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>250</v>
@@ -9758,7 +9737,7 @@
         <v>252</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>8</v>
@@ -9766,19 +9745,17 @@
       <c r="I7" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>300</v>
-      </c>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>243</v>
@@ -9787,10 +9764,10 @@
         <v>256</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>246</v>
@@ -9801,13 +9778,13 @@
     </row>
     <row r="9" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>243</v>
@@ -9816,10 +9793,10 @@
         <v>256</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>8</v>
@@ -9827,19 +9804,17 @@
       <c r="I9" t="s">
         <v>247</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>309</v>
-      </c>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:28" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>243</v>
@@ -9848,10 +9823,10 @@
         <v>256</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>8</v>
@@ -9859,19 +9834,17 @@
       <c r="I10" t="s">
         <v>247</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>314</v>
-      </c>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>243</v>
@@ -9880,10 +9853,10 @@
         <v>256</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>8</v>
@@ -9891,19 +9864,17 @@
       <c r="I11" t="s">
         <v>247</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>309</v>
-      </c>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>243</v>
@@ -9912,10 +9883,10 @@
         <v>256</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>246</v>
@@ -9926,25 +9897,25 @@
     </row>
     <row r="13" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>251</v>
       </c>
       <c r="F13" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>320</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>325</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>246</v>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="1-12" sheetId="4" r:id="rId3"/>
-    <sheet name="13-25" sheetId="3" r:id="rId4"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="1-12" sheetId="4" r:id="rId2"/>
+    <sheet name="13-25" sheetId="3" r:id="rId3"/>
+    <sheet name="26-37" sheetId="1" r:id="rId4"/>
     <sheet name="51-59" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="315">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1563,24 +1563,6 @@
 3- Password
 4- Login Button
 5- Register here Button</t>
-  </si>
-  <si>
-    <t>SRS_001_TC_021</t>
-  </si>
-  <si>
-    <t>SRS_001_TC_022</t>
-  </si>
-  <si>
-    <t>SRS_001_TC_023</t>
-  </si>
-  <si>
-    <t>SRS_001_TC_024</t>
-  </si>
-  <si>
-    <t>SRS_001_TC_025</t>
-  </si>
-  <si>
-    <t>SRS_001_TC_026</t>
   </si>
   <si>
     <t>Foodies_SRS_051_T001</t>
@@ -2838,6 +2820,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3761,28 +3744,1573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF('26-37'!H:H,"Passed",'26-37'!P:P)</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3/B2</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF('26-37'!H:H,"Failed",'26-37'!P:P)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <f>B4/B2</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF('26-37'!H:H,"Blocked",'26-37'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <f>B5/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>B2-B3-B4-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <f>B6/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.69140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="41.07421875" style="23" customWidth="1"/>
+    <col min="4" max="5" width="48.84375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="53.07421875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="37.07421875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.53515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="104.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.07421875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.69140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.84375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.69140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="47.4609375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.69140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.3046875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.69140625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.84375" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" ht="71.150000000000006" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="25" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="25" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="25" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A19" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A23" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A24" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="155.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="155.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"UI , Integration , Functional , Non-Functional "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.07421875" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.3046875" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +5360,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -3861,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3890,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3919,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -3948,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3977,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -4006,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -4035,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -4064,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -4094,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -4124,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -4156,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4172,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4188,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4204,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4220,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4235,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4250,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4265,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4280,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4295,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4310,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4325,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4340,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4355,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4370,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4385,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4400,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4415,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4430,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4445,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4460,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4475,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4490,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4505,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4520,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4535,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4550,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4565,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4580,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4595,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4610,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4625,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4640,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4655,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4670,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4685,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4700,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4715,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4730,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4745,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4760,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4775,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4790,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4805,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4820,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4835,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4850,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4865,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4880,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4895,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4910,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4925,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4940,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4955,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4970,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4985,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5000,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5015,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5030,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5045,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5060,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5075,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5090,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5105,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5120,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5135,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5150,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5165,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5180,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5195,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5210,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5225,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5240,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -5255,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5270,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5285,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5300,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -5315,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -5330,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -5345,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -5360,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -5375,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -5390,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -5405,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -5420,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -5435,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -5450,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -5465,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -5480,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -5495,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -5510,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -5525,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -5540,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -5555,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -5570,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5585,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5600,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5615,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5630,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5645,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5660,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5675,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5690,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5705,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5720,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5735,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5750,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5765,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5780,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5795,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5810,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5825,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5840,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5855,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5870,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5885,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5900,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5915,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5930,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5945,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -5960,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -5975,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -5990,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -6005,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -6020,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -6035,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -6050,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -6065,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -6080,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -6095,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -6110,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -6125,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -6140,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -6155,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -6170,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -6185,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -6200,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -6215,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -6230,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -6245,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -6260,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -6275,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -6290,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -6305,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -6320,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -6335,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -6350,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -6365,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -6380,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -6395,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -6410,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -6425,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -6440,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -6455,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -6470,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -6485,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -6500,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -6515,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -6530,7 +8058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -6545,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -6560,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -6575,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -6590,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6605,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6620,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6635,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6650,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6665,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6680,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6695,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6710,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6725,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6740,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6755,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6770,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6785,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6800,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6815,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6830,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6845,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6860,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6875,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6890,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6905,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6920,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6935,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6950,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6965,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6980,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6995,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -7010,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -7025,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -7040,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -7055,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -7070,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -7085,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -7100,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -7115,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -7130,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -7145,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -7160,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -7175,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -7190,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -7205,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -7220,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -7235,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -7250,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -7265,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -7280,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -7295,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -7310,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -7325,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -7340,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -7355,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -7370,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -7385,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -7400,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -7415,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -7428,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -7441,7 +8969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -7454,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -7467,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -7480,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -7493,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -7506,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -7519,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -7532,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -7545,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -7558,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -7571,7 +9099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -7584,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -7597,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -7610,297 +9138,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P303">
         <v>1</v>
       </c>
@@ -7923,796 +9451,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <f>SUMIF(Sheet1!H:H,"Passed",Sheet1!P:P)</f>
-        <v>6</v>
-      </c>
-      <c r="C3" s="9">
-        <f>B3/B2</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <f>SUMIF(Sheet1!H:H,"Failed",Sheet1!P:P)</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="9">
-        <f>B4/B2</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <f>SUMIF(Sheet1!H:H,"Blocked",Sheet1!P:P)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <f>B5/B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <f>B2-B3-B4-B5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <f>B6/B2</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="48.88671875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="23"/>
+    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" customWidth="1"/>
+    <col min="3" max="3" width="43.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.765625" customWidth="1"/>
+    <col min="5" max="5" width="31.4609375" customWidth="1"/>
+    <col min="6" max="6" width="37.53515625" customWidth="1"/>
+    <col min="7" max="7" width="16.84375" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="29.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8764,1164 +9524,357 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="83.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="127.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>86</v>
+        <v>236</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="25" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="I3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="25" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="25" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="27" t="s">
+      <c r="C6" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>137</v>
+      <c r="C7" s="30" t="s">
+        <v>290</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>138</v>
+      <c r="C8" s="30" t="s">
+        <v>293</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="138" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"UI , Integration , Functional , Non-Functional "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-    </row>
-    <row r="2" spans="1:28" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:28" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:28" ht="138" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:28" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="226.3" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="328">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2185,6 +2185,57 @@
   <si>
     <t xml:space="preserve"> Logout button shall redirect the admin
  to the login page</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_021</t>
+  </si>
+  <si>
+    <t>Validate that admin user can add restaurant's name in English</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_022</t>
+  </si>
+  <si>
+    <t>Validate that admin user can add restaurant's name in Franco</t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url 
+" http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Enter Valid UserID
+2- Enter Valid Password
+3-Click button add restaurant
+4- Enter Restaurant name field 
+</t>
+  </si>
+  <si>
+    <t>1- UserID "admin"
+2- Password "Admin@m123*"
+3- Restaurant name "wel3teen"</t>
+  </si>
+  <si>
+    <t>1- UserID "admin"
+2- Password "Admin@m123*"
+3- Restaurant name "Desoky and Soda"</t>
+  </si>
+  <si>
+    <t>the system accept 
+Restaurant's name field in english</t>
+  </si>
+  <si>
+    <t>the system accept 
+Restaurant's name field in Franco</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_023</t>
+  </si>
+  <si>
+    <t>SRS_001_TC_024</t>
+  </si>
+  <si>
+    <t>Validate the navigation</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2871,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3830,8 +3880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3839,7 +3890,8 @@
     <col min="1" max="1" width="16.69140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="10.69140625" style="23" customWidth="1"/>
     <col min="3" max="3" width="41.07421875" style="23" customWidth="1"/>
-    <col min="4" max="5" width="48.84375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="50.07421875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="48.84375" style="23" customWidth="1"/>
     <col min="6" max="6" width="53.07421875" style="23" customWidth="1"/>
     <col min="7" max="7" width="37.07421875" style="23" customWidth="1"/>
     <col min="8" max="8" width="13.53515625" style="23" customWidth="1"/>
@@ -3847,7 +3899,7 @@
     <col min="10" max="16384" width="9.23046875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>154</v>
       </c>
@@ -4452,20 +4504,83 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="19"/>
-      <c r="H23" s="19"/>
+    <row r="22" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A23" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
+      <c r="A24" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>327</v>
+      </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
+      <c r="A25" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>163</v>
+      </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
     <sheet name="1-12" sheetId="4" r:id="rId2"/>
     <sheet name="13-25" sheetId="3" r:id="rId3"/>
     <sheet name="26-37" sheetId="1" r:id="rId4"/>
-    <sheet name="51-59" sheetId="5" r:id="rId5"/>
+    <sheet name="38-50" sheetId="6" r:id="rId5"/>
+    <sheet name="51-59" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="464">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3214,12 +3215,754 @@
       <t xml:space="preserve"> "kfc"</t>
     </r>
   </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>SRS038_TC001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate that “All fields of  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add Restaurants page” are mandatory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserName : DDdd
+Password : DDdd12@@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin Add resturant page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AddMenu.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Click on "Submit" button in page</t>
+    </r>
+  </si>
+  <si>
+    <t>Popup message displayed in all fields says "please fill out this fileld"</t>
+  </si>
+  <si>
+    <t>Aya Hamdy.</t>
+  </si>
+  <si>
+    <t>SRS039_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the user
+ can make order by clicking 
+"order" button </t>
+  </si>
+  <si>
+    <r>
+      <t>UserName : Mariam
+Password : MMmm12@@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- after login the home page with nearst location is displayed
+2- choose any restaurant you want 
+3- click "Menu"
+4- go to Admin View Menu page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_ViewMenu.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+5- Click on "Order" button in page</t>
+    </r>
+  </si>
+  <si>
+    <t>Popup message displayed in all fields with "Resturant phone"</t>
+  </si>
+  <si>
+    <t>SRS040_TC003</t>
+  </si>
+  <si>
+    <t>Validate Add new resturant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Logged-in Admin
+2- Browser: Chrome </t>
+  </si>
+  <si>
+    <t>UserName : DDdd
+Password : DDdd12@@
+Resturant Name:Chicken Fila
+Resturant Phone: +2025646999
+location: cairo
+Restaurant promotion :
+onion rings for 2 SW
+item1: juicy juily 
+price:49
+Item2:original
+price:45
+Item3:maxicano
+price: 95
+Item4:american
+price:100
+Item5:Grilled
+price:85</t>
+  </si>
+  <si>
+    <t>Message displayed says 
+"Restaurant inserted 
+sucessfully"</t>
+  </si>
+  <si>
+    <t>SRS040_TC004</t>
+  </si>
+  <si>
+    <t>Validate Add resturant
+ already exists</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin Add resturant page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AddMenu.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"
+2- add valid data 
+3- Click on "Submit" button </t>
+    </r>
+  </si>
+  <si>
+    <t>meassage displayed says "this restaurant already added before"</t>
+  </si>
+  <si>
+    <t>Add resturant already added before</t>
+  </si>
+  <si>
+    <t>SRS041_TC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the redirection of
+ “Login here” button to
+ the login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Registered user
+2- Browser: Chrome </t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to create Account page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Fooides_FrontEnd_Register.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Click on "Login here" button</t>
+    </r>
+  </si>
+  <si>
+    <t>the button will redirect 
+to the login page</t>
+  </si>
+  <si>
+    <t>SRS042_TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the redirection of
+ “Register” button to
+ the login page if entered valid data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Browser: Chrome </t>
+  </si>
+  <si>
+    <r>
+      <t>Email:engayahamdy33@yahoo.com
+UserName : AyaHamdy
+Password : Aya@1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to create Account page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Fooides_FrontEnd_Register.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Enter valid data
+3- Click on "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>SRS043_TC007</t>
+  </si>
+  <si>
+    <t>Validate showing restaurants that
+ have offers and promotions
+ by click on offers and promotions
+ button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName : AyaHamdy
+Password : Aya@1234
+</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Home page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_Homepage.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Click on "Offers and pormotions" button</t>
+    </r>
+  </si>
+  <si>
+    <t>restaurants that have offers
+ and promotions are displayed</t>
+  </si>
+  <si>
+    <t>SRS044_TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the redirection of
+ “login” button to
+ the Admin home page if entered valid data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Registered Admin
+2- Browser: Chrome </t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to login page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_LoginPage.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Enter valid data
+3- Click on "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <t>the button will redirect 
+to the Admin home page</t>
+  </si>
+  <si>
+    <t>SRS045_TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the red text message
+ that display next to user id field
+ if in entered invaid data  </t>
+  </si>
+  <si>
+    <t>UserID: Aya</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to create Account page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Fooides_FrontEnd_Register.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Enter invalid userId and valid Email and Password
+3- Click on "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> red text message
+ is displaied next to user id field says "Invalid username or password" 
+  </t>
+  </si>
+  <si>
+    <t>popup message is displayed with error
+ instead of red text message</t>
+  </si>
+  <si>
+    <t>SRS046_TC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate writing incorrect password
+ in the password field in login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Registered Admin / User
+2- Browser: Chrome </t>
+  </si>
+  <si>
+    <t>password:123456</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to login page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_LoginPage.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Enter invalid password
+3- Click on "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> red text message
+ is displaied next to password field says "Invalid username or password" 
+  </t>
+  </si>
+  <si>
+    <t>the message is displayed above the filed
+ not next to it.</t>
+  </si>
+  <si>
+    <t>SRS047_TC011</t>
+  </si>
+  <si>
+    <t>Validate that “add restaurant"
+ button will redirect the admin to “add new restaurant” page</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin profile page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AdminProfile.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Click on  “Add Restaurant" button</t>
+    </r>
+  </si>
+  <si>
+    <t>the button will redirect 
+to  “add new restaurant” page</t>
+  </si>
+  <si>
+    <t>SRS048_TC012</t>
+  </si>
+  <si>
+    <t>Validate that “delete user" button
+ will redirect the admin to
+ “delete user” page</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin profile page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AdminProfile.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Click on  “Delete User" button</t>
+    </r>
+  </si>
+  <si>
+    <t>the button will redirect 
+to  “delete user” page</t>
+  </si>
+  <si>
+    <t>SRS049_TC013</t>
+  </si>
+  <si>
+    <t>Validate that the Admin account page
+ contains picture, admin id,
+ delete user button and add
+ restaurant button</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin profile page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AdminProfile.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Check that the page contains picture. admin id,
+ delete user button and add
+ restaurant button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">the Admin profile page contains picture. admin id,
+ delete user button and add
+ restaurant button </t>
+  </si>
+  <si>
+    <t>SRS050_TC014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the admin can delete
+ user by search for user id and 
+click on search button </t>
+  </si>
+  <si>
+    <r>
+      <t>UserName : DDdd
+Password : DDdd12@@
+Userid: Mariam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin profile page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AdminProfile.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"
+2- Click on  “Delete User" button
+3- Enter Exist user id in search box 
+4- Click on "Search" button 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">the user id Entered in search box
+ will be displayed with delete button </t>
+  </si>
+  <si>
+    <t>SRS050_TC015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the admin can delete
+ any user Except himself by search for user id and 
+click on search button </t>
+  </si>
+  <si>
+    <r>
+      <t>UserName : DDdd
+Password : DDdd12@@
+Userid: DDdd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin profile page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AdminProfile.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"
+2- Click on  “Delete User" button
+3- Enter Exist Admin id in search box 
+4- Click on "Search" button 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Warning message is
+ diisplayed </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3453,8 +4196,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3480,6 +4230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3541,7 +4297,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3661,6 +4417,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3683,7 +4457,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3728,6 +4502,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3743,6 +4522,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3758,6 +4542,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3773,6 +4562,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3815,6 +4609,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CABC-4803-A164-8549F3946FC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3833,6 +4632,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3848,6 +4652,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3863,6 +4672,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3878,6 +4692,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-CABC-4803-A164-8549F3946FC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3920,6 +4739,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-CABC-4803-A164-8549F3946FC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4871,9 +5695,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -4881,7 +5705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -4889,7 +5713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +5726,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +5739,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -4928,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -4952,25 +5776,25 @@
   <dimension ref="A1:J281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="48.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="19"/>
+    <col min="1" max="1" width="31.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="35" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="35" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>154</v>
       </c>
@@ -4999,7 +5823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>301</v>
       </c>
@@ -5026,7 +5850,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>302</v>
       </c>
@@ -5055,7 +5879,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>303</v>
       </c>
@@ -5084,7 +5908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>304</v>
       </c>
@@ -5113,7 +5937,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>305</v>
       </c>
@@ -5142,7 +5966,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>306</v>
       </c>
@@ -5171,7 +5995,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>307</v>
       </c>
@@ -5200,7 +6024,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>308</v>
       </c>
@@ -5229,7 +6053,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>309</v>
       </c>
@@ -5258,7 +6082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>310</v>
       </c>
@@ -5287,7 +6111,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>311</v>
       </c>
@@ -5316,7 +6140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>312</v>
       </c>
@@ -5345,7 +6169,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>313</v>
       </c>
@@ -5374,7 +6198,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>314</v>
       </c>
@@ -5403,7 +6227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>315</v>
       </c>
@@ -5432,7 +6256,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>316</v>
       </c>
@@ -5461,7 +6285,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>317</v>
       </c>
@@ -5490,7 +6314,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>318</v>
       </c>
@@ -5519,7 +6343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>319</v>
       </c>
@@ -5548,7 +6372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>320</v>
       </c>
@@ -5575,7 +6399,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>321</v>
       </c>
@@ -5604,7 +6428,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>322</v>
       </c>
@@ -5633,7 +6457,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>323</v>
       </c>
@@ -5650,7 +6474,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>324</v>
       </c>
@@ -5665,7 +6489,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>325</v>
       </c>
@@ -5678,7 +6502,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>326</v>
       </c>
@@ -5692,7 +6516,7 @@
       <c r="I27" s="36"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="78.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>327</v>
       </c>
@@ -5720,7 +6544,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="156" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>328</v>
       </c>
@@ -5750,7 +6574,7 @@
       </c>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" ht="156" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>329</v>
       </c>
@@ -5780,7 +6604,7 @@
       </c>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>330</v>
       </c>
@@ -5810,7 +6634,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>331</v>
       </c>
@@ -5840,7 +6664,7 @@
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>332</v>
       </c>
@@ -5870,7 +6694,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>333</v>
       </c>
@@ -5900,7 +6724,7 @@
       </c>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>334</v>
       </c>
@@ -5930,7 +6754,7 @@
       </c>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>335</v>
       </c>
@@ -5960,7 +6784,7 @@
       </c>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>336</v>
       </c>
@@ -5990,7 +6814,7 @@
       </c>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>337</v>
       </c>
@@ -6020,7 +6844,7 @@
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>338</v>
       </c>
@@ -6050,7 +6874,7 @@
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>339</v>
       </c>
@@ -6080,7 +6904,7 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>340</v>
       </c>
@@ -6110,7 +6934,7 @@
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>341</v>
       </c>
@@ -6140,7 +6964,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>342</v>
       </c>
@@ -6170,7 +6994,7 @@
       </c>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>343</v>
       </c>
@@ -6200,7 +7024,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>344</v>
       </c>
@@ -6230,7 +7054,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>345</v>
       </c>
@@ -6260,7 +7084,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>346</v>
       </c>
@@ -6290,7 +7114,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>347</v>
       </c>
@@ -6320,7 +7144,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>348</v>
       </c>
@@ -6350,7 +7174,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>349</v>
       </c>
@@ -6380,7 +7204,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>350</v>
       </c>
@@ -6410,7 +7234,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>351</v>
       </c>
@@ -6440,7 +7264,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>352</v>
       </c>
@@ -6453,7 +7277,7 @@
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
     </row>
-    <row r="54" spans="1:10" ht="78.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>353</v>
       </c>
@@ -6480,7 +7304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>354</v>
       </c>
@@ -6507,7 +7331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>355</v>
       </c>
@@ -6534,7 +7358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>356</v>
       </c>
@@ -6561,7 +7385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>357</v>
       </c>
@@ -6588,7 +7412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>358</v>
       </c>
@@ -6615,7 +7439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>359</v>
       </c>
@@ -6642,7 +7466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>360</v>
       </c>
@@ -6669,7 +7493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>361</v>
       </c>
@@ -6696,7 +7520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>362</v>
       </c>
@@ -6723,7 +7547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="234" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>363</v>
       </c>
@@ -6752,7 +7576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -6765,7 +7589,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -6778,7 +7602,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -6791,7 +7615,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -6804,7 +7628,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -6817,7 +7641,7 @@
       </c>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -6830,7 +7654,7 @@
       </c>
       <c r="I70" s="44"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -6843,7 +7667,7 @@
       </c>
       <c r="I71" s="44"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -6856,7 +7680,7 @@
       </c>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -6869,7 +7693,7 @@
       </c>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -6882,7 +7706,7 @@
       </c>
       <c r="I74" s="44"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -6895,7 +7719,7 @@
       </c>
       <c r="I75" s="44"/>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -6908,7 +7732,7 @@
       </c>
       <c r="I76" s="44"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -6921,7 +7745,7 @@
       </c>
       <c r="I77" s="44"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -6934,7 +7758,7 @@
       </c>
       <c r="I78" s="44"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -6947,7 +7771,7 @@
       </c>
       <c r="I79" s="44"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -6960,7 +7784,7 @@
       </c>
       <c r="I80" s="44"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -6973,7 +7797,7 @@
       </c>
       <c r="I81" s="44"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -6986,7 +7810,7 @@
       </c>
       <c r="I82" s="44"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -6999,7 +7823,7 @@
       </c>
       <c r="I83" s="44"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -7012,7 +7836,7 @@
       </c>
       <c r="I84" s="44"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -7025,7 +7849,7 @@
       </c>
       <c r="I85" s="44"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7038,7 +7862,7 @@
       </c>
       <c r="I86" s="44"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -7051,7 +7875,7 @@
       </c>
       <c r="I87" s="44"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -7064,7 +7888,7 @@
       </c>
       <c r="I88" s="44"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -7077,7 +7901,7 @@
       </c>
       <c r="I89" s="44"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -7090,7 +7914,7 @@
       </c>
       <c r="I90" s="44"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -7103,7 +7927,7 @@
       </c>
       <c r="I91" s="44"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -7116,7 +7940,7 @@
       </c>
       <c r="I92" s="44"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -7129,7 +7953,7 @@
       </c>
       <c r="I93" s="44"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -7142,7 +7966,7 @@
       </c>
       <c r="I94" s="44"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -7155,7 +7979,7 @@
       </c>
       <c r="I95" s="44"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -7168,7 +7992,7 @@
       </c>
       <c r="I96" s="44"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -7181,7 +8005,7 @@
       </c>
       <c r="I97" s="44"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -7194,7 +8018,7 @@
       </c>
       <c r="I98" s="44"/>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -7207,7 +8031,7 @@
       </c>
       <c r="I99" s="44"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -7220,7 +8044,7 @@
       </c>
       <c r="I100" s="44"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -7233,7 +8057,7 @@
       </c>
       <c r="I101" s="44"/>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -7246,7 +8070,7 @@
       </c>
       <c r="I102" s="44"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -7259,7 +8083,7 @@
       </c>
       <c r="I103" s="44"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -7272,7 +8096,7 @@
       </c>
       <c r="I104" s="44"/>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -7285,7 +8109,7 @@
       </c>
       <c r="I105" s="44"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -7298,7 +8122,7 @@
       </c>
       <c r="I106" s="44"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -7311,7 +8135,7 @@
       </c>
       <c r="I107" s="44"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -7324,7 +8148,7 @@
       </c>
       <c r="I108" s="44"/>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -7337,7 +8161,7 @@
       </c>
       <c r="I109" s="44"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -7350,7 +8174,7 @@
       </c>
       <c r="I110" s="44"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -7363,7 +8187,7 @@
       </c>
       <c r="I111" s="44"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -7376,7 +8200,7 @@
       </c>
       <c r="I112" s="44"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -7389,7 +8213,7 @@
       </c>
       <c r="I113" s="44"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -7402,7 +8226,7 @@
       </c>
       <c r="I114" s="44"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -7415,7 +8239,7 @@
       </c>
       <c r="I115" s="44"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -7428,7 +8252,7 @@
       </c>
       <c r="I116" s="44"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -7441,7 +8265,7 @@
       </c>
       <c r="I117" s="44"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -7454,7 +8278,7 @@
       </c>
       <c r="I118" s="44"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -7467,7 +8291,7 @@
       </c>
       <c r="I119" s="44"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
@@ -7480,7 +8304,7 @@
       </c>
       <c r="I120" s="44"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -7493,7 +8317,7 @@
       </c>
       <c r="I121" s="44"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -7506,7 +8330,7 @@
       </c>
       <c r="I122" s="44"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -7519,7 +8343,7 @@
       </c>
       <c r="I123" s="44"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -7532,7 +8356,7 @@
       </c>
       <c r="I124" s="44"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -7545,7 +8369,7 @@
       </c>
       <c r="I125" s="44"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -7558,7 +8382,7 @@
       </c>
       <c r="I126" s="44"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -7571,7 +8395,7 @@
       </c>
       <c r="I127" s="44"/>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -7584,7 +8408,7 @@
       </c>
       <c r="I128" s="44"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -7597,7 +8421,7 @@
       </c>
       <c r="I129" s="44"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -7610,7 +8434,7 @@
       </c>
       <c r="I130" s="44"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
       <c r="B131" s="29"/>
       <c r="C131" s="29"/>
@@ -7623,7 +8447,7 @@
       </c>
       <c r="I131" s="44"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -7636,7 +8460,7 @@
       </c>
       <c r="I132" s="44"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -7649,7 +8473,7 @@
       </c>
       <c r="I133" s="44"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -7662,7 +8486,7 @@
       </c>
       <c r="I134" s="44"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -7675,7 +8499,7 @@
       </c>
       <c r="I135" s="44"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -7688,7 +8512,7 @@
       </c>
       <c r="I136" s="44"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -7701,7 +8525,7 @@
       </c>
       <c r="I137" s="44"/>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -7714,7 +8538,7 @@
       </c>
       <c r="I138" s="44"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="29"/>
@@ -7727,7 +8551,7 @@
       </c>
       <c r="I139" s="44"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -7740,7 +8564,7 @@
       </c>
       <c r="I140" s="44"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -7753,7 +8577,7 @@
       </c>
       <c r="I141" s="44"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -7766,7 +8590,7 @@
       </c>
       <c r="I142" s="44"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -7779,7 +8603,7 @@
       </c>
       <c r="I143" s="44"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -7792,7 +8616,7 @@
       </c>
       <c r="I144" s="44"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -7805,7 +8629,7 @@
       </c>
       <c r="I145" s="44"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -7818,7 +8642,7 @@
       </c>
       <c r="I146" s="44"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -7831,7 +8655,7 @@
       </c>
       <c r="I147" s="44"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -7844,7 +8668,7 @@
       </c>
       <c r="I148" s="44"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -7857,7 +8681,7 @@
       </c>
       <c r="I149" s="44"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -7870,7 +8694,7 @@
       </c>
       <c r="I150" s="44"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="29"/>
@@ -7883,7 +8707,7 @@
       </c>
       <c r="I151" s="44"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="29"/>
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
@@ -7896,7 +8720,7 @@
       </c>
       <c r="I152" s="44"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
@@ -7909,7 +8733,7 @@
       </c>
       <c r="I153" s="44"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="29"/>
       <c r="B154" s="29"/>
       <c r="C154" s="29"/>
@@ -7922,7 +8746,7 @@
       </c>
       <c r="I154" s="44"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="29"/>
       <c r="B155" s="29"/>
       <c r="C155" s="29"/>
@@ -7935,7 +8759,7 @@
       </c>
       <c r="I155" s="44"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -7948,7 +8772,7 @@
       </c>
       <c r="I156" s="44"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -7961,7 +8785,7 @@
       </c>
       <c r="I157" s="44"/>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -7974,7 +8798,7 @@
       </c>
       <c r="I158" s="44"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="29"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -7987,7 +8811,7 @@
       </c>
       <c r="I159" s="44"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="29"/>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -8000,7 +8824,7 @@
       </c>
       <c r="I160" s="44"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
@@ -8013,7 +8837,7 @@
       </c>
       <c r="I161" s="44"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="29"/>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -8026,7 +8850,7 @@
       </c>
       <c r="I162" s="44"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -8039,7 +8863,7 @@
       </c>
       <c r="I163" s="44"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="29"/>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -8052,7 +8876,7 @@
       </c>
       <c r="I164" s="44"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -8065,7 +8889,7 @@
       </c>
       <c r="I165" s="44"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="29"/>
       <c r="B166" s="29"/>
       <c r="C166" s="29"/>
@@ -8078,7 +8902,7 @@
       </c>
       <c r="I166" s="44"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
       <c r="B167" s="29"/>
       <c r="C167" s="29"/>
@@ -8091,7 +8915,7 @@
       </c>
       <c r="I167" s="44"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="29"/>
       <c r="B168" s="29"/>
       <c r="C168" s="29"/>
@@ -8104,7 +8928,7 @@
       </c>
       <c r="I168" s="44"/>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -8117,7 +8941,7 @@
       </c>
       <c r="I169" s="44"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="29"/>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -8130,7 +8954,7 @@
       </c>
       <c r="I170" s="44"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="29"/>
       <c r="B171" s="29"/>
       <c r="C171" s="29"/>
@@ -8143,7 +8967,7 @@
       </c>
       <c r="I171" s="44"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -8156,7 +8980,7 @@
       </c>
       <c r="I172" s="44"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="29"/>
       <c r="B173" s="29"/>
       <c r="C173" s="29"/>
@@ -8169,7 +8993,7 @@
       </c>
       <c r="I173" s="44"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
       <c r="B174" s="29"/>
       <c r="C174" s="29"/>
@@ -8182,7 +9006,7 @@
       </c>
       <c r="I174" s="44"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
       <c r="C175" s="29"/>
@@ -8195,7 +9019,7 @@
       </c>
       <c r="I175" s="44"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -8208,7 +9032,7 @@
       </c>
       <c r="I176" s="44"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="29"/>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
@@ -8221,7 +9045,7 @@
       </c>
       <c r="I177" s="44"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="29"/>
       <c r="B178" s="29"/>
       <c r="C178" s="29"/>
@@ -8234,7 +9058,7 @@
       </c>
       <c r="I178" s="44"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="29"/>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -8247,7 +9071,7 @@
       </c>
       <c r="I179" s="44"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="29"/>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -8260,7 +9084,7 @@
       </c>
       <c r="I180" s="44"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
@@ -8273,7 +9097,7 @@
       </c>
       <c r="I181" s="44"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="29"/>
       <c r="B182" s="29"/>
       <c r="C182" s="29"/>
@@ -8286,7 +9110,7 @@
       </c>
       <c r="I182" s="44"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="29"/>
       <c r="B183" s="29"/>
       <c r="C183" s="29"/>
@@ -8299,7 +9123,7 @@
       </c>
       <c r="I183" s="44"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="29"/>
       <c r="B184" s="29"/>
       <c r="C184" s="29"/>
@@ -8312,7 +9136,7 @@
       </c>
       <c r="I184" s="44"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="29"/>
       <c r="B185" s="29"/>
       <c r="C185" s="29"/>
@@ -8325,7 +9149,7 @@
       </c>
       <c r="I185" s="44"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="29"/>
       <c r="B186" s="29"/>
       <c r="C186" s="29"/>
@@ -8338,7 +9162,7 @@
       </c>
       <c r="I186" s="44"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="29"/>
       <c r="B187" s="29"/>
       <c r="C187" s="29"/>
@@ -8351,7 +9175,7 @@
       </c>
       <c r="I187" s="44"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="29"/>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -8364,7 +9188,7 @@
       </c>
       <c r="I188" s="44"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="29"/>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -8377,7 +9201,7 @@
       </c>
       <c r="I189" s="44"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="29"/>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -8390,7 +9214,7 @@
       </c>
       <c r="I190" s="44"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="29"/>
       <c r="B191" s="29"/>
       <c r="C191" s="29"/>
@@ -8403,7 +9227,7 @@
       </c>
       <c r="I191" s="44"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="29"/>
@@ -8416,7 +9240,7 @@
       </c>
       <c r="I192" s="44"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
@@ -8429,7 +9253,7 @@
       </c>
       <c r="I193" s="44"/>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
@@ -8442,7 +9266,7 @@
       </c>
       <c r="I194" s="44"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
@@ -8455,7 +9279,7 @@
       </c>
       <c r="I195" s="44"/>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -8468,7 +9292,7 @@
       </c>
       <c r="I196" s="44"/>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -8481,7 +9305,7 @@
       </c>
       <c r="I197" s="44"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
@@ -8494,7 +9318,7 @@
       </c>
       <c r="I198" s="44"/>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
@@ -8507,7 +9331,7 @@
       </c>
       <c r="I199" s="44"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
@@ -8520,7 +9344,7 @@
       </c>
       <c r="I200" s="44"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
@@ -8533,7 +9357,7 @@
       </c>
       <c r="I201" s="44"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
@@ -8546,7 +9370,7 @@
       </c>
       <c r="I202" s="44"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
@@ -8559,7 +9383,7 @@
       </c>
       <c r="I203" s="44"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -8572,7 +9396,7 @@
       </c>
       <c r="I204" s="44"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -8585,7 +9409,7 @@
       </c>
       <c r="I205" s="44"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
@@ -8598,7 +9422,7 @@
       </c>
       <c r="I206" s="44"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -8611,7 +9435,7 @@
       </c>
       <c r="I207" s="44"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
@@ -8624,7 +9448,7 @@
       </c>
       <c r="I208" s="44"/>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
@@ -8637,7 +9461,7 @@
       </c>
       <c r="I209" s="44"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
@@ -8650,7 +9474,7 @@
       </c>
       <c r="I210" s="44"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
@@ -8663,7 +9487,7 @@
       </c>
       <c r="I211" s="44"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -8676,7 +9500,7 @@
       </c>
       <c r="I212" s="44"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
@@ -8689,7 +9513,7 @@
       </c>
       <c r="I213" s="44"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -8702,7 +9526,7 @@
       </c>
       <c r="I214" s="44"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
@@ -8715,7 +9539,7 @@
       </c>
       <c r="I215" s="44"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -8728,7 +9552,7 @@
       </c>
       <c r="I216" s="44"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
@@ -8741,7 +9565,7 @@
       </c>
       <c r="I217" s="44"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
@@ -8754,7 +9578,7 @@
       </c>
       <c r="I218" s="44"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
@@ -8767,7 +9591,7 @@
       </c>
       <c r="I219" s="44"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -8780,7 +9604,7 @@
       </c>
       <c r="I220" s="44"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
@@ -8793,7 +9617,7 @@
       </c>
       <c r="I221" s="44"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
@@ -8806,7 +9630,7 @@
       </c>
       <c r="I222" s="44"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
@@ -8819,7 +9643,7 @@
       </c>
       <c r="I223" s="44"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
@@ -8832,7 +9656,7 @@
       </c>
       <c r="I224" s="44"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -8845,7 +9669,7 @@
       </c>
       <c r="I225" s="44"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -8858,7 +9682,7 @@
       </c>
       <c r="I226" s="44"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -8871,7 +9695,7 @@
       </c>
       <c r="I227" s="44"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -8884,7 +9708,7 @@
       </c>
       <c r="I228" s="44"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
@@ -8897,7 +9721,7 @@
       </c>
       <c r="I229" s="44"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -8910,7 +9734,7 @@
       </c>
       <c r="I230" s="44"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -8923,7 +9747,7 @@
       </c>
       <c r="I231" s="44"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -8936,7 +9760,7 @@
       </c>
       <c r="I232" s="44"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -8949,7 +9773,7 @@
       </c>
       <c r="I233" s="44"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>
@@ -8962,7 +9786,7 @@
       </c>
       <c r="I234" s="44"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="29"/>
@@ -8975,7 +9799,7 @@
       </c>
       <c r="I235" s="44"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -8988,7 +9812,7 @@
       </c>
       <c r="I236" s="44"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
@@ -9001,7 +9825,7 @@
       </c>
       <c r="I237" s="44"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
@@ -9014,7 +9838,7 @@
       </c>
       <c r="I238" s="44"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
@@ -9027,7 +9851,7 @@
       </c>
       <c r="I239" s="44"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -9040,7 +9864,7 @@
       </c>
       <c r="I240" s="44"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -9053,7 +9877,7 @@
       </c>
       <c r="I241" s="44"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
@@ -9066,7 +9890,7 @@
       </c>
       <c r="I242" s="44"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
@@ -9079,7 +9903,7 @@
       </c>
       <c r="I243" s="44"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -9092,7 +9916,7 @@
       </c>
       <c r="I244" s="44"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -9105,7 +9929,7 @@
       </c>
       <c r="I245" s="44"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="29"/>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -9118,7 +9942,7 @@
       </c>
       <c r="I246" s="44"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -9131,7 +9955,7 @@
       </c>
       <c r="I247" s="44"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
       <c r="B248" s="29"/>
       <c r="C248" s="29"/>
@@ -9144,7 +9968,7 @@
       </c>
       <c r="I248" s="44"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="29"/>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
@@ -9157,7 +9981,7 @@
       </c>
       <c r="I249" s="44"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
@@ -9170,7 +9994,7 @@
       </c>
       <c r="I250" s="44"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
@@ -9183,7 +10007,7 @@
       </c>
       <c r="I251" s="44"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
@@ -9196,7 +10020,7 @@
       </c>
       <c r="I252" s="44"/>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -9209,7 +10033,7 @@
       </c>
       <c r="I253" s="44"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
@@ -9222,7 +10046,7 @@
       </c>
       <c r="I254" s="44"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
@@ -9235,7 +10059,7 @@
       </c>
       <c r="I255" s="44"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
@@ -9248,7 +10072,7 @@
       </c>
       <c r="I256" s="44"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
@@ -9261,7 +10085,7 @@
       </c>
       <c r="I257" s="44"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
@@ -9274,7 +10098,7 @@
       </c>
       <c r="I258" s="44"/>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -9287,7 +10111,7 @@
       </c>
       <c r="I259" s="44"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="29"/>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -9300,7 +10124,7 @@
       </c>
       <c r="I260" s="44"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
@@ -9313,7 +10137,7 @@
       </c>
       <c r="I261" s="44"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="29"/>
       <c r="B262" s="29"/>
       <c r="C262" s="29"/>
@@ -9326,7 +10150,7 @@
       </c>
       <c r="I262" s="44"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="29"/>
       <c r="B263" s="29"/>
       <c r="C263" s="29"/>
@@ -9339,7 +10163,7 @@
       </c>
       <c r="I263" s="44"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="29"/>
       <c r="B264" s="29"/>
       <c r="C264" s="29"/>
@@ -9352,7 +10176,7 @@
       </c>
       <c r="I264" s="44"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="29"/>
       <c r="B265" s="29"/>
       <c r="C265" s="29"/>
@@ -9365,7 +10189,7 @@
       </c>
       <c r="I265" s="44"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="29"/>
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
@@ -9378,7 +10202,7 @@
       </c>
       <c r="I266" s="44"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="29"/>
@@ -9391,7 +10215,7 @@
       </c>
       <c r="I267" s="44"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="29"/>
       <c r="B268" s="29"/>
       <c r="C268" s="29"/>
@@ -9404,7 +10228,7 @@
       </c>
       <c r="I268" s="44"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="29"/>
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
@@ -9417,7 +10241,7 @@
       </c>
       <c r="I269" s="44"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="29"/>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
@@ -9430,7 +10254,7 @@
       </c>
       <c r="I270" s="44"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="29"/>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
@@ -9443,7 +10267,7 @@
       </c>
       <c r="I271" s="44"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
@@ -9456,7 +10280,7 @@
       </c>
       <c r="I272" s="44"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="29"/>
       <c r="B273" s="29"/>
       <c r="C273" s="29"/>
@@ -9469,7 +10293,7 @@
       </c>
       <c r="I273" s="44"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="29"/>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -9482,7 +10306,7 @@
       </c>
       <c r="I274" s="44"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="29"/>
       <c r="B275" s="29"/>
       <c r="C275" s="29"/>
@@ -9495,7 +10319,7 @@
       </c>
       <c r="I275" s="44"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -9508,7 +10332,7 @@
       </c>
       <c r="I276" s="44"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
       <c r="B277" s="29"/>
       <c r="C277" s="29"/>
@@ -9521,7 +10345,7 @@
       </c>
       <c r="I277" s="44"/>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="29"/>
       <c r="B278" s="29"/>
       <c r="C278" s="29"/>
@@ -9534,7 +10358,7 @@
       </c>
       <c r="I278" s="44"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="29"/>
       <c r="B279" s="29"/>
       <c r="C279" s="29"/>
@@ -9547,7 +10371,7 @@
       </c>
       <c r="I279" s="44"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="29"/>
       <c r="B280" s="29"/>
       <c r="C280" s="29"/>
@@ -9560,7 +10384,7 @@
       </c>
       <c r="I280" s="44"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="29"/>
       <c r="B281" s="29"/>
       <c r="C281" s="29"/>
@@ -9600,25 +10424,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:J26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9670,7 +10494,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="69.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -9697,7 +10521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>149</v>
       </c>
@@ -9726,7 +10550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>150</v>
       </c>
@@ -9755,7 +10579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="114" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>151</v>
       </c>
@@ -9784,7 +10608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>69</v>
       </c>
@@ -9813,7 +10637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="114" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>152</v>
       </c>
@@ -9842,7 +10666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -9871,7 +10695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -9900,7 +10724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -9929,7 +10753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>95</v>
       </c>
@@ -9958,7 +10782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>96</v>
       </c>
@@ -9987,7 +10811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>97</v>
       </c>
@@ -10016,7 +10840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>98</v>
       </c>
@@ -10045,7 +10869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>99</v>
       </c>
@@ -10074,7 +10898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>108</v>
       </c>
@@ -10103,7 +10927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>109</v>
       </c>
@@ -10132,7 +10956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>110</v>
       </c>
@@ -10161,7 +10985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>111</v>
       </c>
@@ -10190,7 +11014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>112</v>
       </c>
@@ -10219,7 +11043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>131</v>
       </c>
@@ -10248,7 +11072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>132</v>
       </c>
@@ -10277,7 +11101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>144</v>
       </c>
@@ -10306,7 +11130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>230</v>
       </c>
@@ -10335,7 +11159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>247</v>
       </c>
@@ -10364,7 +11188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>251</v>
       </c>
@@ -10408,26 +11232,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A1:I229"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10477,7 +11301,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -10506,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -10535,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -10564,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -10593,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -10622,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -10651,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -10680,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -10709,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -10739,7 +11563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -10769,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -10801,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -10817,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -10833,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -10849,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -10865,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -10880,7 +11704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -10895,7 +11719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -10910,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -10925,7 +11749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -10940,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -10955,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -10970,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -10985,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -11000,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -11015,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -11030,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -11045,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -11060,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -11075,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -11090,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -11105,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -11120,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -11135,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -11150,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -11165,7 +11989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -11180,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -11195,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -11210,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -11225,7 +12049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -11240,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -11255,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -11270,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -11285,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -11300,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -11315,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -11330,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -11345,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -11360,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -11375,7 +12199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -11390,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -11405,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -11420,7 +12244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -11435,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -11450,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -11465,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -11480,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -11495,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -11510,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -11525,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -11540,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -11555,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -11570,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -11585,7 +12409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -11600,7 +12424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -11615,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -11630,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -11645,7 +12469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -11660,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -11675,7 +12499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -11690,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -11705,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -11720,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -11735,7 +12559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -11750,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -11765,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -11780,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -11795,7 +12619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -11810,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -11825,7 +12649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -11840,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -11855,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -11870,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -11885,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -11900,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -11915,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -11930,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -11945,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -11960,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -11975,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -11990,7 +12814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -12005,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -12020,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -12035,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -12050,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -12065,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -12080,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -12095,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -12110,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -12125,7 +12949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -12140,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -12155,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -12170,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -12185,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -12200,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -12215,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -12230,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -12245,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -12260,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -12275,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -12290,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -12305,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -12320,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -12335,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -12350,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -12365,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -12380,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -12395,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -12410,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -12425,7 +13249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -12440,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -12455,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -12470,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -12485,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -12500,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -12515,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -12530,7 +13354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -12545,7 +13369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -12560,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -12575,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -12590,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -12605,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -12620,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -12635,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -12650,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -12665,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -12680,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -12695,7 +13519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -12710,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -12725,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -12740,7 +13564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -12755,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -12770,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -12785,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -12800,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -12815,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -12830,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -12845,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -12860,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -12875,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -12890,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -12905,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -12920,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -12935,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -12950,7 +13774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -12965,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -12980,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -12995,7 +13819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -13010,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -13025,7 +13849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -13040,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -13055,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -13070,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -13085,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -13100,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -13115,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -13130,7 +13954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -13145,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -13160,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -13175,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -13190,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -13205,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -13220,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -13235,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -13250,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -13265,7 +14089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -13280,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -13295,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -13310,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -13325,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -13340,7 +14164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -13355,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -13370,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -13385,7 +14209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -13400,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -13415,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -13430,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -13445,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -13460,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -13475,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -13490,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -13505,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -13520,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -13535,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -13550,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -13565,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -13580,7 +14404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -13595,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -13610,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -13625,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -13640,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -13655,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -13670,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -13685,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -13700,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -13715,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -13730,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -13745,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -13760,7 +14584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -13775,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -13790,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -13805,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -13820,7 +14644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -13835,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -13850,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -13865,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -13880,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -13895,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -13910,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -13925,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -13940,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -13955,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -13970,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -13985,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -14000,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -14015,7 +14839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -14030,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -14045,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -14060,7 +14884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -14073,7 +14897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -14086,7 +14910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -14099,7 +14923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -14112,7 +14936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -14125,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -14138,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -14151,7 +14975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -14164,7 +14988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -14177,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -14190,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -14203,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -14216,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -14229,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -14242,7 +15066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -14255,297 +15079,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P303">
         <v>1</v>
       </c>
@@ -14570,26 +15394,620 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14" style="11" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" style="11" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="11"/>
+    <col min="16" max="16" width="16.5703125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="46" customFormat="1" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+    </row>
+    <row r="2" spans="1:28" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="P4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Analysis!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +16059,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="124.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="129" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>212</v>
       </c>
@@ -14670,7 +16088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>219</v>
       </c>
@@ -14699,7 +16117,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>225</v>
       </c>
@@ -14728,7 +16146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>257</v>
       </c>
@@ -14758,7 +16176,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:28" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>262</v>
       </c>
@@ -14787,7 +16205,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>266</v>
       </c>
@@ -14817,7 +16235,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:28" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>269</v>
       </c>
@@ -14846,7 +16264,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>273</v>
       </c>
@@ -14876,7 +16294,7 @@
       </c>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:28" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>277</v>
       </c>
@@ -14906,7 +16324,7 @@
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:28" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>281</v>
       </c>
@@ -14936,7 +16354,7 @@
       </c>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>284</v>
       </c>
@@ -14965,7 +16383,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>288</v>
       </c>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -3961,8 +3961,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4203,8 +4203,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4236,6 +4242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4297,7 +4309,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4435,6 +4447,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4457,7 +4472,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4502,7 +4517,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4522,7 +4537,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4542,7 +4557,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4562,7 +4577,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4609,7 +4624,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-CABC-4803-A164-8549F3946FC7}"/>
             </c:ext>
@@ -4632,7 +4647,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4652,7 +4667,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4672,7 +4687,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4692,7 +4707,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-CABC-4803-A164-8549F3946FC7}"/>
               </c:ext>
@@ -4739,7 +4754,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-CABC-4803-A164-8549F3946FC7}"/>
             </c:ext>
@@ -5695,9 +5710,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -5705,7 +5720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5713,7 +5728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5739,7 +5754,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -5752,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -5775,26 +5790,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="19"/>
+    <col min="1" max="1" width="31.3828125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.15234375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="50.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="48.84375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="53.15234375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="37.15234375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.53515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.3046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="35" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="35" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
         <v>154</v>
       </c>
@@ -5823,7 +5838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="104.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>301</v>
       </c>
@@ -5850,7 +5865,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
         <v>302</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>303</v>
       </c>
@@ -5901,14 +5916,14 @@
       <c r="G4" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="51" t="s">
         <v>170</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
         <v>304</v>
       </c>
@@ -5937,7 +5952,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
         <v>305</v>
       </c>
@@ -5966,7 +5981,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A7" s="33" t="s">
         <v>306</v>
       </c>
@@ -5995,7 +6010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A8" s="33" t="s">
         <v>307</v>
       </c>
@@ -6024,7 +6039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
         <v>308</v>
       </c>
@@ -6053,7 +6068,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A10" s="33" t="s">
         <v>309</v>
       </c>
@@ -6082,7 +6097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A11" s="33" t="s">
         <v>310</v>
       </c>
@@ -6104,14 +6119,14 @@
       <c r="G11" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="51" t="s">
         <v>170</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
         <v>311</v>
       </c>
@@ -6133,14 +6148,14 @@
       <c r="G12" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="51" t="s">
         <v>170</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A13" s="33" t="s">
         <v>312</v>
       </c>
@@ -6169,7 +6184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
         <v>313</v>
       </c>
@@ -6198,7 +6213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
         <v>314</v>
       </c>
@@ -6227,7 +6242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="111" x14ac:dyDescent="0.4">
       <c r="A16" s="33" t="s">
         <v>315</v>
       </c>
@@ -6256,7 +6271,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A17" s="33" t="s">
         <v>316</v>
       </c>
@@ -6285,7 +6300,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A18" s="33" t="s">
         <v>317</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A19" s="33" t="s">
         <v>318</v>
       </c>
@@ -6336,14 +6351,14 @@
       <c r="G19" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="51" t="s">
         <v>170</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A20" s="33" t="s">
         <v>319</v>
       </c>
@@ -6372,7 +6387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A21" s="33" t="s">
         <v>320</v>
       </c>
@@ -6399,7 +6414,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="79.3" x14ac:dyDescent="0.4">
       <c r="A22" s="33" t="s">
         <v>321</v>
       </c>
@@ -6428,7 +6443,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="79.3" x14ac:dyDescent="0.4">
       <c r="A23" s="33" t="s">
         <v>322</v>
       </c>
@@ -6457,7 +6472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="33" t="s">
         <v>323</v>
       </c>
@@ -6474,7 +6489,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="s">
         <v>324</v>
       </c>
@@ -6489,7 +6504,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="16.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>325</v>
       </c>
@@ -6502,7 +6517,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33" t="s">
         <v>326</v>
       </c>
@@ -6516,7 +6531,7 @@
       <c r="I27" s="36"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="79.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="33" t="s">
         <v>327</v>
       </c>
@@ -6544,7 +6559,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="158.6" x14ac:dyDescent="0.4">
       <c r="A29" s="33" t="s">
         <v>328</v>
       </c>
@@ -6574,7 +6589,7 @@
       </c>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="158.6" x14ac:dyDescent="0.4">
       <c r="A30" s="33" t="s">
         <v>329</v>
       </c>
@@ -6604,7 +6619,7 @@
       </c>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A31" s="33" t="s">
         <v>330</v>
       </c>
@@ -6634,7 +6649,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A32" s="33" t="s">
         <v>331</v>
       </c>
@@ -6664,7 +6679,7 @@
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A33" s="33" t="s">
         <v>332</v>
       </c>
@@ -6694,7 +6709,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A34" s="33" t="s">
         <v>333</v>
       </c>
@@ -6724,7 +6739,7 @@
       </c>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A35" s="33" t="s">
         <v>334</v>
       </c>
@@ -6754,7 +6769,7 @@
       </c>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A36" s="33" t="s">
         <v>335</v>
       </c>
@@ -6784,7 +6799,7 @@
       </c>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A37" s="33" t="s">
         <v>336</v>
       </c>
@@ -6814,7 +6829,7 @@
       </c>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A38" s="33" t="s">
         <v>337</v>
       </c>
@@ -6844,7 +6859,7 @@
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A39" s="33" t="s">
         <v>338</v>
       </c>
@@ -6874,7 +6889,7 @@
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A40" s="33" t="s">
         <v>339</v>
       </c>
@@ -6904,7 +6919,7 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A41" s="33" t="s">
         <v>340</v>
       </c>
@@ -6934,7 +6949,7 @@
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A42" s="33" t="s">
         <v>341</v>
       </c>
@@ -6964,7 +6979,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A43" s="33" t="s">
         <v>342</v>
       </c>
@@ -6994,7 +7009,7 @@
       </c>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A44" s="33" t="s">
         <v>343</v>
       </c>
@@ -7024,7 +7039,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A45" s="33" t="s">
         <v>344</v>
       </c>
@@ -7054,7 +7069,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A46" s="33" t="s">
         <v>345</v>
       </c>
@@ -7084,7 +7099,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A47" s="33" t="s">
         <v>346</v>
       </c>
@@ -7114,7 +7129,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A48" s="33" t="s">
         <v>347</v>
       </c>
@@ -7144,7 +7159,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A49" s="33" t="s">
         <v>348</v>
       </c>
@@ -7174,7 +7189,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A50" s="33" t="s">
         <v>349</v>
       </c>
@@ -7204,7 +7219,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="174.45" x14ac:dyDescent="0.4">
       <c r="A51" s="33" t="s">
         <v>350</v>
       </c>
@@ -7234,7 +7249,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="174.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="33" t="s">
         <v>351</v>
       </c>
@@ -7264,7 +7279,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="33" t="s">
         <v>352</v>
       </c>
@@ -7277,7 +7292,7 @@
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
     </row>
-    <row r="54" spans="1:10" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="79.75" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A54" s="33" t="s">
         <v>353</v>
       </c>
@@ -7304,7 +7319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>354</v>
       </c>
@@ -7331,7 +7346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A56" s="33" t="s">
         <v>355</v>
       </c>
@@ -7358,7 +7373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A57" s="33" t="s">
         <v>356</v>
       </c>
@@ -7385,7 +7400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="63.45" x14ac:dyDescent="0.45">
       <c r="A58" s="33" t="s">
         <v>357</v>
       </c>
@@ -7412,7 +7427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="111" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>358</v>
       </c>
@@ -7439,7 +7454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="111" x14ac:dyDescent="0.45">
       <c r="A60" s="33" t="s">
         <v>359</v>
       </c>
@@ -7466,7 +7481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="111" x14ac:dyDescent="0.45">
       <c r="A61" s="33" t="s">
         <v>360</v>
       </c>
@@ -7493,7 +7508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="47.6" x14ac:dyDescent="0.4">
       <c r="A62" s="33" t="s">
         <v>361</v>
       </c>
@@ -7520,7 +7535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="47.6" x14ac:dyDescent="0.4">
       <c r="A63" s="33" t="s">
         <v>362</v>
       </c>
@@ -7547,7 +7562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="222" x14ac:dyDescent="0.4">
       <c r="A64" s="33" t="s">
         <v>363</v>
       </c>
@@ -7576,7 +7591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -7589,7 +7604,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -7602,7 +7617,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -7615,7 +7630,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -7628,7 +7643,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -7641,7 +7656,7 @@
       </c>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -7654,7 +7669,7 @@
       </c>
       <c r="I70" s="44"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -7667,7 +7682,7 @@
       </c>
       <c r="I71" s="44"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -7680,7 +7695,7 @@
       </c>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -7693,7 +7708,7 @@
       </c>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -7706,7 +7721,7 @@
       </c>
       <c r="I74" s="44"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -7719,7 +7734,7 @@
       </c>
       <c r="I75" s="44"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -7732,7 +7747,7 @@
       </c>
       <c r="I76" s="44"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -7745,7 +7760,7 @@
       </c>
       <c r="I77" s="44"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -7758,7 +7773,7 @@
       </c>
       <c r="I78" s="44"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -7771,7 +7786,7 @@
       </c>
       <c r="I79" s="44"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -7784,7 +7799,7 @@
       </c>
       <c r="I80" s="44"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -7797,7 +7812,7 @@
       </c>
       <c r="I81" s="44"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -7810,7 +7825,7 @@
       </c>
       <c r="I82" s="44"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -7823,7 +7838,7 @@
       </c>
       <c r="I83" s="44"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -7836,7 +7851,7 @@
       </c>
       <c r="I84" s="44"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -7849,7 +7864,7 @@
       </c>
       <c r="I85" s="44"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7862,7 +7877,7 @@
       </c>
       <c r="I86" s="44"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -7875,7 +7890,7 @@
       </c>
       <c r="I87" s="44"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -7888,7 +7903,7 @@
       </c>
       <c r="I88" s="44"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -7901,7 +7916,7 @@
       </c>
       <c r="I89" s="44"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -7914,7 +7929,7 @@
       </c>
       <c r="I90" s="44"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -7927,7 +7942,7 @@
       </c>
       <c r="I91" s="44"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -7940,7 +7955,7 @@
       </c>
       <c r="I92" s="44"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -7953,7 +7968,7 @@
       </c>
       <c r="I93" s="44"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -7966,7 +7981,7 @@
       </c>
       <c r="I94" s="44"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -7979,7 +7994,7 @@
       </c>
       <c r="I95" s="44"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -7992,7 +8007,7 @@
       </c>
       <c r="I96" s="44"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -8005,7 +8020,7 @@
       </c>
       <c r="I97" s="44"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -8018,7 +8033,7 @@
       </c>
       <c r="I98" s="44"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -8031,7 +8046,7 @@
       </c>
       <c r="I99" s="44"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -8044,7 +8059,7 @@
       </c>
       <c r="I100" s="44"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -8057,7 +8072,7 @@
       </c>
       <c r="I101" s="44"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -8070,7 +8085,7 @@
       </c>
       <c r="I102" s="44"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -8083,7 +8098,7 @@
       </c>
       <c r="I103" s="44"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -8096,7 +8111,7 @@
       </c>
       <c r="I104" s="44"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -8109,7 +8124,7 @@
       </c>
       <c r="I105" s="44"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -8122,7 +8137,7 @@
       </c>
       <c r="I106" s="44"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -8135,7 +8150,7 @@
       </c>
       <c r="I107" s="44"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -8148,7 +8163,7 @@
       </c>
       <c r="I108" s="44"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -8161,7 +8176,7 @@
       </c>
       <c r="I109" s="44"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -8174,7 +8189,7 @@
       </c>
       <c r="I110" s="44"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -8187,7 +8202,7 @@
       </c>
       <c r="I111" s="44"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -8200,7 +8215,7 @@
       </c>
       <c r="I112" s="44"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -8213,7 +8228,7 @@
       </c>
       <c r="I113" s="44"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -8226,7 +8241,7 @@
       </c>
       <c r="I114" s="44"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -8239,7 +8254,7 @@
       </c>
       <c r="I115" s="44"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -8252,7 +8267,7 @@
       </c>
       <c r="I116" s="44"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -8265,7 +8280,7 @@
       </c>
       <c r="I117" s="44"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -8278,7 +8293,7 @@
       </c>
       <c r="I118" s="44"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -8291,7 +8306,7 @@
       </c>
       <c r="I119" s="44"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
@@ -8304,7 +8319,7 @@
       </c>
       <c r="I120" s="44"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -8317,7 +8332,7 @@
       </c>
       <c r="I121" s="44"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -8330,7 +8345,7 @@
       </c>
       <c r="I122" s="44"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -8343,7 +8358,7 @@
       </c>
       <c r="I123" s="44"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -8356,7 +8371,7 @@
       </c>
       <c r="I124" s="44"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -8369,7 +8384,7 @@
       </c>
       <c r="I125" s="44"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -8382,7 +8397,7 @@
       </c>
       <c r="I126" s="44"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -8395,7 +8410,7 @@
       </c>
       <c r="I127" s="44"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A128" s="29"/>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -8408,7 +8423,7 @@
       </c>
       <c r="I128" s="44"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -8421,7 +8436,7 @@
       </c>
       <c r="I129" s="44"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -8434,7 +8449,7 @@
       </c>
       <c r="I130" s="44"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A131" s="29"/>
       <c r="B131" s="29"/>
       <c r="C131" s="29"/>
@@ -8447,7 +8462,7 @@
       </c>
       <c r="I131" s="44"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -8460,7 +8475,7 @@
       </c>
       <c r="I132" s="44"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -8473,7 +8488,7 @@
       </c>
       <c r="I133" s="44"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -8486,7 +8501,7 @@
       </c>
       <c r="I134" s="44"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -8499,7 +8514,7 @@
       </c>
       <c r="I135" s="44"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -8512,7 +8527,7 @@
       </c>
       <c r="I136" s="44"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -8525,7 +8540,7 @@
       </c>
       <c r="I137" s="44"/>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -8538,7 +8553,7 @@
       </c>
       <c r="I138" s="44"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="29"/>
@@ -8551,7 +8566,7 @@
       </c>
       <c r="I139" s="44"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -8564,7 +8579,7 @@
       </c>
       <c r="I140" s="44"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -8577,7 +8592,7 @@
       </c>
       <c r="I141" s="44"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -8590,7 +8605,7 @@
       </c>
       <c r="I142" s="44"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -8603,7 +8618,7 @@
       </c>
       <c r="I143" s="44"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -8616,7 +8631,7 @@
       </c>
       <c r="I144" s="44"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -8629,7 +8644,7 @@
       </c>
       <c r="I145" s="44"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -8642,7 +8657,7 @@
       </c>
       <c r="I146" s="44"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -8655,7 +8670,7 @@
       </c>
       <c r="I147" s="44"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -8668,7 +8683,7 @@
       </c>
       <c r="I148" s="44"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -8681,7 +8696,7 @@
       </c>
       <c r="I149" s="44"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -8694,7 +8709,7 @@
       </c>
       <c r="I150" s="44"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="29"/>
@@ -8707,7 +8722,7 @@
       </c>
       <c r="I151" s="44"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A152" s="29"/>
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
@@ -8720,7 +8735,7 @@
       </c>
       <c r="I152" s="44"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
@@ -8733,7 +8748,7 @@
       </c>
       <c r="I153" s="44"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A154" s="29"/>
       <c r="B154" s="29"/>
       <c r="C154" s="29"/>
@@ -8746,7 +8761,7 @@
       </c>
       <c r="I154" s="44"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A155" s="29"/>
       <c r="B155" s="29"/>
       <c r="C155" s="29"/>
@@ -8759,7 +8774,7 @@
       </c>
       <c r="I155" s="44"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A156" s="29"/>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -8772,7 +8787,7 @@
       </c>
       <c r="I156" s="44"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -8785,7 +8800,7 @@
       </c>
       <c r="I157" s="44"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -8798,7 +8813,7 @@
       </c>
       <c r="I158" s="44"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A159" s="29"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -8811,7 +8826,7 @@
       </c>
       <c r="I159" s="44"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A160" s="29"/>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -8824,7 +8839,7 @@
       </c>
       <c r="I160" s="44"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
@@ -8837,7 +8852,7 @@
       </c>
       <c r="I161" s="44"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A162" s="29"/>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -8850,7 +8865,7 @@
       </c>
       <c r="I162" s="44"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A163" s="29"/>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -8863,7 +8878,7 @@
       </c>
       <c r="I163" s="44"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A164" s="29"/>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -8876,7 +8891,7 @@
       </c>
       <c r="I164" s="44"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -8889,7 +8904,7 @@
       </c>
       <c r="I165" s="44"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A166" s="29"/>
       <c r="B166" s="29"/>
       <c r="C166" s="29"/>
@@ -8902,7 +8917,7 @@
       </c>
       <c r="I166" s="44"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A167" s="29"/>
       <c r="B167" s="29"/>
       <c r="C167" s="29"/>
@@ -8915,7 +8930,7 @@
       </c>
       <c r="I167" s="44"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A168" s="29"/>
       <c r="B168" s="29"/>
       <c r="C168" s="29"/>
@@ -8928,7 +8943,7 @@
       </c>
       <c r="I168" s="44"/>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A169" s="29"/>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -8941,7 +8956,7 @@
       </c>
       <c r="I169" s="44"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A170" s="29"/>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -8954,7 +8969,7 @@
       </c>
       <c r="I170" s="44"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A171" s="29"/>
       <c r="B171" s="29"/>
       <c r="C171" s="29"/>
@@ -8967,7 +8982,7 @@
       </c>
       <c r="I171" s="44"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -8980,7 +8995,7 @@
       </c>
       <c r="I172" s="44"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A173" s="29"/>
       <c r="B173" s="29"/>
       <c r="C173" s="29"/>
@@ -8993,7 +9008,7 @@
       </c>
       <c r="I173" s="44"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A174" s="29"/>
       <c r="B174" s="29"/>
       <c r="C174" s="29"/>
@@ -9006,7 +9021,7 @@
       </c>
       <c r="I174" s="44"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
       <c r="C175" s="29"/>
@@ -9019,7 +9034,7 @@
       </c>
       <c r="I175" s="44"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -9032,7 +9047,7 @@
       </c>
       <c r="I176" s="44"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A177" s="29"/>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
@@ -9045,7 +9060,7 @@
       </c>
       <c r="I177" s="44"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A178" s="29"/>
       <c r="B178" s="29"/>
       <c r="C178" s="29"/>
@@ -9058,7 +9073,7 @@
       </c>
       <c r="I178" s="44"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A179" s="29"/>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -9071,7 +9086,7 @@
       </c>
       <c r="I179" s="44"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A180" s="29"/>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -9084,7 +9099,7 @@
       </c>
       <c r="I180" s="44"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
@@ -9097,7 +9112,7 @@
       </c>
       <c r="I181" s="44"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A182" s="29"/>
       <c r="B182" s="29"/>
       <c r="C182" s="29"/>
@@ -9110,7 +9125,7 @@
       </c>
       <c r="I182" s="44"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A183" s="29"/>
       <c r="B183" s="29"/>
       <c r="C183" s="29"/>
@@ -9123,7 +9138,7 @@
       </c>
       <c r="I183" s="44"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A184" s="29"/>
       <c r="B184" s="29"/>
       <c r="C184" s="29"/>
@@ -9136,7 +9151,7 @@
       </c>
       <c r="I184" s="44"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A185" s="29"/>
       <c r="B185" s="29"/>
       <c r="C185" s="29"/>
@@ -9149,7 +9164,7 @@
       </c>
       <c r="I185" s="44"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A186" s="29"/>
       <c r="B186" s="29"/>
       <c r="C186" s="29"/>
@@ -9162,7 +9177,7 @@
       </c>
       <c r="I186" s="44"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A187" s="29"/>
       <c r="B187" s="29"/>
       <c r="C187" s="29"/>
@@ -9175,7 +9190,7 @@
       </c>
       <c r="I187" s="44"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A188" s="29"/>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -9188,7 +9203,7 @@
       </c>
       <c r="I188" s="44"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A189" s="29"/>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -9201,7 +9216,7 @@
       </c>
       <c r="I189" s="44"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A190" s="29"/>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -9214,7 +9229,7 @@
       </c>
       <c r="I190" s="44"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A191" s="29"/>
       <c r="B191" s="29"/>
       <c r="C191" s="29"/>
@@ -9227,7 +9242,7 @@
       </c>
       <c r="I191" s="44"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="29"/>
@@ -9240,7 +9255,7 @@
       </c>
       <c r="I192" s="44"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
@@ -9253,7 +9268,7 @@
       </c>
       <c r="I193" s="44"/>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
@@ -9266,7 +9281,7 @@
       </c>
       <c r="I194" s="44"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
@@ -9279,7 +9294,7 @@
       </c>
       <c r="I195" s="44"/>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -9292,7 +9307,7 @@
       </c>
       <c r="I196" s="44"/>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -9305,7 +9320,7 @@
       </c>
       <c r="I197" s="44"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
@@ -9318,7 +9333,7 @@
       </c>
       <c r="I198" s="44"/>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
@@ -9331,7 +9346,7 @@
       </c>
       <c r="I199" s="44"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
@@ -9344,7 +9359,7 @@
       </c>
       <c r="I200" s="44"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
@@ -9357,7 +9372,7 @@
       </c>
       <c r="I201" s="44"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
@@ -9370,7 +9385,7 @@
       </c>
       <c r="I202" s="44"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
@@ -9383,7 +9398,7 @@
       </c>
       <c r="I203" s="44"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -9396,7 +9411,7 @@
       </c>
       <c r="I204" s="44"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -9409,7 +9424,7 @@
       </c>
       <c r="I205" s="44"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
@@ -9422,7 +9437,7 @@
       </c>
       <c r="I206" s="44"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -9435,7 +9450,7 @@
       </c>
       <c r="I207" s="44"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
@@ -9448,7 +9463,7 @@
       </c>
       <c r="I208" s="44"/>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
@@ -9461,7 +9476,7 @@
       </c>
       <c r="I209" s="44"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
@@ -9474,7 +9489,7 @@
       </c>
       <c r="I210" s="44"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
@@ -9487,7 +9502,7 @@
       </c>
       <c r="I211" s="44"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -9500,7 +9515,7 @@
       </c>
       <c r="I212" s="44"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
@@ -9513,7 +9528,7 @@
       </c>
       <c r="I213" s="44"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -9526,7 +9541,7 @@
       </c>
       <c r="I214" s="44"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
@@ -9539,7 +9554,7 @@
       </c>
       <c r="I215" s="44"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -9552,7 +9567,7 @@
       </c>
       <c r="I216" s="44"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
@@ -9565,7 +9580,7 @@
       </c>
       <c r="I217" s="44"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
@@ -9578,7 +9593,7 @@
       </c>
       <c r="I218" s="44"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
@@ -9591,7 +9606,7 @@
       </c>
       <c r="I219" s="44"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -9604,7 +9619,7 @@
       </c>
       <c r="I220" s="44"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
@@ -9617,7 +9632,7 @@
       </c>
       <c r="I221" s="44"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
@@ -9630,7 +9645,7 @@
       </c>
       <c r="I222" s="44"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
@@ -9643,7 +9658,7 @@
       </c>
       <c r="I223" s="44"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
@@ -9656,7 +9671,7 @@
       </c>
       <c r="I224" s="44"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -9669,7 +9684,7 @@
       </c>
       <c r="I225" s="44"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -9682,7 +9697,7 @@
       </c>
       <c r="I226" s="44"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -9695,7 +9710,7 @@
       </c>
       <c r="I227" s="44"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -9708,7 +9723,7 @@
       </c>
       <c r="I228" s="44"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
@@ -9721,7 +9736,7 @@
       </c>
       <c r="I229" s="44"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -9734,7 +9749,7 @@
       </c>
       <c r="I230" s="44"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -9747,7 +9762,7 @@
       </c>
       <c r="I231" s="44"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -9760,7 +9775,7 @@
       </c>
       <c r="I232" s="44"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -9773,7 +9788,7 @@
       </c>
       <c r="I233" s="44"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>
@@ -9786,7 +9801,7 @@
       </c>
       <c r="I234" s="44"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="29"/>
@@ -9799,7 +9814,7 @@
       </c>
       <c r="I235" s="44"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -9812,7 +9827,7 @@
       </c>
       <c r="I236" s="44"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
@@ -9825,7 +9840,7 @@
       </c>
       <c r="I237" s="44"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
@@ -9838,7 +9853,7 @@
       </c>
       <c r="I238" s="44"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
@@ -9851,7 +9866,7 @@
       </c>
       <c r="I239" s="44"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -9864,7 +9879,7 @@
       </c>
       <c r="I240" s="44"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -9877,7 +9892,7 @@
       </c>
       <c r="I241" s="44"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
@@ -9890,7 +9905,7 @@
       </c>
       <c r="I242" s="44"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
@@ -9903,7 +9918,7 @@
       </c>
       <c r="I243" s="44"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -9916,7 +9931,7 @@
       </c>
       <c r="I244" s="44"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -9929,7 +9944,7 @@
       </c>
       <c r="I245" s="44"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A246" s="29"/>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -9942,7 +9957,7 @@
       </c>
       <c r="I246" s="44"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -9955,7 +9970,7 @@
       </c>
       <c r="I247" s="44"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A248" s="29"/>
       <c r="B248" s="29"/>
       <c r="C248" s="29"/>
@@ -9968,7 +9983,7 @@
       </c>
       <c r="I248" s="44"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A249" s="29"/>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
@@ -9981,7 +9996,7 @@
       </c>
       <c r="I249" s="44"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
@@ -9994,7 +10009,7 @@
       </c>
       <c r="I250" s="44"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
@@ -10007,7 +10022,7 @@
       </c>
       <c r="I251" s="44"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
@@ -10020,7 +10035,7 @@
       </c>
       <c r="I252" s="44"/>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -10033,7 +10048,7 @@
       </c>
       <c r="I253" s="44"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
@@ -10046,7 +10061,7 @@
       </c>
       <c r="I254" s="44"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
@@ -10059,7 +10074,7 @@
       </c>
       <c r="I255" s="44"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
@@ -10072,7 +10087,7 @@
       </c>
       <c r="I256" s="44"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
@@ -10085,7 +10100,7 @@
       </c>
       <c r="I257" s="44"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
@@ -10098,7 +10113,7 @@
       </c>
       <c r="I258" s="44"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -10111,7 +10126,7 @@
       </c>
       <c r="I259" s="44"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A260" s="29"/>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -10124,7 +10139,7 @@
       </c>
       <c r="I260" s="44"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
@@ -10137,7 +10152,7 @@
       </c>
       <c r="I261" s="44"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A262" s="29"/>
       <c r="B262" s="29"/>
       <c r="C262" s="29"/>
@@ -10150,7 +10165,7 @@
       </c>
       <c r="I262" s="44"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A263" s="29"/>
       <c r="B263" s="29"/>
       <c r="C263" s="29"/>
@@ -10163,7 +10178,7 @@
       </c>
       <c r="I263" s="44"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A264" s="29"/>
       <c r="B264" s="29"/>
       <c r="C264" s="29"/>
@@ -10176,7 +10191,7 @@
       </c>
       <c r="I264" s="44"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A265" s="29"/>
       <c r="B265" s="29"/>
       <c r="C265" s="29"/>
@@ -10189,7 +10204,7 @@
       </c>
       <c r="I265" s="44"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A266" s="29"/>
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
@@ -10202,7 +10217,7 @@
       </c>
       <c r="I266" s="44"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="29"/>
@@ -10215,7 +10230,7 @@
       </c>
       <c r="I267" s="44"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A268" s="29"/>
       <c r="B268" s="29"/>
       <c r="C268" s="29"/>
@@ -10228,7 +10243,7 @@
       </c>
       <c r="I268" s="44"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A269" s="29"/>
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
@@ -10241,7 +10256,7 @@
       </c>
       <c r="I269" s="44"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A270" s="29"/>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
@@ -10254,7 +10269,7 @@
       </c>
       <c r="I270" s="44"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A271" s="29"/>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
@@ -10267,7 +10282,7 @@
       </c>
       <c r="I271" s="44"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
@@ -10280,7 +10295,7 @@
       </c>
       <c r="I272" s="44"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A273" s="29"/>
       <c r="B273" s="29"/>
       <c r="C273" s="29"/>
@@ -10293,7 +10308,7 @@
       </c>
       <c r="I273" s="44"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A274" s="29"/>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -10306,7 +10321,7 @@
       </c>
       <c r="I274" s="44"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A275" s="29"/>
       <c r="B275" s="29"/>
       <c r="C275" s="29"/>
@@ -10319,7 +10334,7 @@
       </c>
       <c r="I275" s="44"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -10332,7 +10347,7 @@
       </c>
       <c r="I276" s="44"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A277" s="29"/>
       <c r="B277" s="29"/>
       <c r="C277" s="29"/>
@@ -10345,7 +10360,7 @@
       </c>
       <c r="I277" s="44"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A278" s="29"/>
       <c r="B278" s="29"/>
       <c r="C278" s="29"/>
@@ -10358,7 +10373,7 @@
       </c>
       <c r="I278" s="44"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A279" s="29"/>
       <c r="B279" s="29"/>
       <c r="C279" s="29"/>
@@ -10371,7 +10386,7 @@
       </c>
       <c r="I279" s="44"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A280" s="29"/>
       <c r="B280" s="29"/>
       <c r="C280" s="29"/>
@@ -10384,7 +10399,7 @@
       </c>
       <c r="I280" s="44"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A281" s="29"/>
       <c r="B281" s="29"/>
       <c r="C281" s="29"/>
@@ -10404,7 +10419,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -10428,21 +10443,21 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="32.15234375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.69140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.84375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.69140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="47.3828125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="42.69140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="27.3046875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="15.69140625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.84375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10494,7 +10509,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="72" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="71.150000000000006" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -10521,7 +10536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="21" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>149</v>
       </c>
@@ -10550,7 +10565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="21" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>150</v>
       </c>
@@ -10579,7 +10594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>151</v>
       </c>
@@ -10608,7 +10623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="21" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>69</v>
       </c>
@@ -10637,7 +10652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>152</v>
       </c>
@@ -10666,7 +10681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
@@ -10695,7 +10710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
@@ -10724,7 +10739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -10753,7 +10768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>95</v>
       </c>
@@ -10782,7 +10797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>96</v>
       </c>
@@ -10811,7 +10826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>97</v>
       </c>
@@ -10840,7 +10855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>98</v>
       </c>
@@ -10869,7 +10884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>99</v>
       </c>
@@ -10898,7 +10913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>108</v>
       </c>
@@ -10927,7 +10942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>109</v>
       </c>
@@ -10956,7 +10971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>110</v>
       </c>
@@ -10985,7 +11000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>111</v>
       </c>
@@ -11014,7 +11029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>112</v>
       </c>
@@ -11043,7 +11058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>131</v>
       </c>
@@ -11072,7 +11087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>132</v>
       </c>
@@ -11101,7 +11116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>144</v>
       </c>
@@ -11130,7 +11145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>230</v>
       </c>
@@ -11159,7 +11174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
         <v>247</v>
       </c>
@@ -11188,7 +11203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A26" s="17" t="s">
         <v>251</v>
       </c>
@@ -11237,21 +11252,21 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.15234375" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.3046875" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.84375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11301,7 +11316,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="75.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -11330,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -11359,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="90" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -11388,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -11417,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -11446,7 +11461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -11475,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -11504,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
@@ -11533,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -11563,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -11593,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="285" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -11625,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -11641,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -11657,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -11673,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -11689,7 +11704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -11704,7 +11719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -11719,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -11734,7 +11749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -11749,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -11764,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -11779,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -11794,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -11809,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -11824,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -11839,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -11854,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -11869,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -11884,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -11899,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -11914,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -11929,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -11944,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -11959,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -11974,7 +11989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -11989,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -12004,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -12019,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -12034,7 +12049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -12049,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -12064,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -12079,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -12094,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -12109,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -12124,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -12139,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -12154,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -12169,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -12184,7 +12199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -12199,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -12214,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -12229,7 +12244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -12244,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -12259,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -12274,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -12289,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -12304,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -12319,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -12334,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -12349,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -12364,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -12379,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -12394,7 +12409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -12409,7 +12424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -12424,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -12439,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -12454,7 +12469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -12469,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -12484,7 +12499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -12499,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -12514,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -12529,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -12544,7 +12559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -12559,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -12574,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -12589,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -12604,7 +12619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -12619,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -12634,7 +12649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -12649,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -12664,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -12679,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -12694,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -12709,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -12724,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -12739,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -12754,7 +12769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -12769,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -12784,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -12799,7 +12814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -12814,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -12829,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -12844,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -12859,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -12874,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -12889,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -12904,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -12919,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -12934,7 +12949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -12949,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -12964,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -12979,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -12994,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -13009,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -13024,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -13039,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -13054,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -13069,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -13084,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -13099,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -13114,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -13129,7 +13144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -13144,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -13159,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -13174,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -13189,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -13204,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -13219,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -13234,7 +13249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -13249,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -13264,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -13279,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -13294,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -13309,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -13324,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -13339,7 +13354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -13354,7 +13369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -13369,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -13384,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -13399,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -13414,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -13429,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -13444,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -13459,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -13474,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -13489,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -13504,7 +13519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -13519,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -13534,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -13549,7 +13564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -13564,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -13579,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -13594,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -13609,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -13624,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -13639,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -13654,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -13669,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -13684,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -13699,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -13714,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -13729,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -13744,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -13759,7 +13774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -13774,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -13789,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -13804,7 +13819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -13819,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -13834,7 +13849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -13849,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -13864,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -13879,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -13894,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -13909,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -13924,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -13939,7 +13954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -13954,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -13969,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -13984,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -13999,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -14014,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -14029,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -14044,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -14059,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -14074,7 +14089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -14089,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -14104,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -14119,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -14134,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -14149,7 +14164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -14164,7 +14179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -14179,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -14194,7 +14209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -14209,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -14224,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -14239,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -14254,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -14269,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -14284,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -14299,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -14314,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -14329,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -14344,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -14359,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -14374,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -14389,7 +14404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -14404,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -14419,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -14434,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -14449,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -14464,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -14479,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -14494,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -14509,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -14524,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -14539,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -14554,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -14569,7 +14584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -14584,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -14599,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -14614,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -14629,7 +14644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -14644,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -14659,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -14674,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -14689,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -14704,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -14719,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -14734,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -14749,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -14764,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -14779,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -14794,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -14809,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -14824,7 +14839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -14839,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -14854,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -14869,7 +14884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -14884,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -14897,7 +14912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -14910,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -14923,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -14936,7 +14951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -14949,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -14962,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -14975,7 +14990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -14988,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -15001,7 +15016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -15014,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -15027,7 +15042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -15040,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -15053,7 +15068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -15066,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -15079,297 +15094,297 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P303">
         <v>1</v>
       </c>
@@ -15396,26 +15411,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.15234375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.3828125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.3046875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.3828125" style="11" customWidth="1"/>
     <col min="6" max="6" width="26" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.3046875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.53515625" style="11" customWidth="1"/>
     <col min="9" max="9" width="14" style="11" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" style="11" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="11"/>
-    <col min="16" max="16" width="16.5703125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="37.3046875" style="11" customWidth="1"/>
+    <col min="11" max="15" width="9.15234375" style="11"/>
+    <col min="16" max="16" width="16.53515625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.15234375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="46" customFormat="1" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="46" customFormat="1" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15467,7 +15482,7 @@
       <c r="AA1" s="45"/>
       <c r="AB1" s="45"/>
     </row>
-    <row r="2" spans="1:28" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="120.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>388</v>
       </c>
@@ -15499,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="210" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>394</v>
       </c>
@@ -15531,7 +15546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>399</v>
       </c>
@@ -15563,7 +15578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>404</v>
       </c>
@@ -15598,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>409</v>
       </c>
@@ -15628,7 +15643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>414</v>
       </c>
@@ -15660,7 +15675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>419</v>
       </c>
@@ -15692,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>424</v>
       </c>
@@ -15724,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="165" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>429</v>
       </c>
@@ -15759,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>435</v>
       </c>
@@ -15794,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>442</v>
       </c>
@@ -15826,7 +15841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>446</v>
       </c>
@@ -15858,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="180" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>450</v>
       </c>
@@ -15890,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="195" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>454</v>
       </c>
@@ -15922,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>459</v>
       </c>
@@ -15954,19 +15969,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="12"/>
     </row>
   </sheetData>
@@ -15994,20 +16009,20 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" customWidth="1"/>
+    <col min="3" max="3" width="43.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69140625" customWidth="1"/>
+    <col min="5" max="5" width="31.3828125" customWidth="1"/>
+    <col min="6" max="6" width="37.53515625" customWidth="1"/>
+    <col min="7" max="7" width="16.84375" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="16" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="16" customFormat="1" ht="29.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16059,7 +16074,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="129" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="127.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>212</v>
       </c>
@@ -16088,7 +16103,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>219</v>
       </c>
@@ -16117,7 +16132,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>225</v>
       </c>
@@ -16146,7 +16161,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>257</v>
       </c>
@@ -16176,7 +16191,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>262</v>
       </c>
@@ -16205,7 +16220,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>266</v>
       </c>
@@ -16235,7 +16250,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:28" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>269</v>
       </c>
@@ -16264,7 +16279,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A9" s="17" t="s">
         <v>273</v>
       </c>
@@ -16294,7 +16309,7 @@
       </c>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:28" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="226.3" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>277</v>
       </c>
@@ -16324,7 +16339,7 @@
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:28" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>281</v>
       </c>
@@ -16354,7 +16369,7 @@
       </c>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>284</v>
       </c>
@@ -16383,7 +16398,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="113.15" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>288</v>
       </c>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -14,7 +14,7 @@
     <sheet name="38-50" sheetId="6" r:id="rId5"/>
     <sheet name="51-59" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2346,22 +2346,6 @@
       </rPr>
       <t>"
 2- Click on "Go to Restaurants with offers" button in homepage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Red message appears with "please write another ID"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>change the message</t>
     </r>
   </si>
   <si>
@@ -3956,6 +3940,10 @@
   <si>
     <t xml:space="preserve">Warning message is
  diisplayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red message appears with "please write another ID"
+</t>
   </si>
 </sst>
 </file>
@@ -5790,17 +5778,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.3828125" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.69140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="41.15234375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="50.15234375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="50.53515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="61.3046875" style="19" customWidth="1"/>
     <col min="5" max="5" width="48.84375" style="19" customWidth="1"/>
     <col min="6" max="6" width="53.15234375" style="19" customWidth="1"/>
     <col min="7" max="7" width="37.15234375" style="19" customWidth="1"/>
@@ -5914,7 +5902,7 @@
         <v>169</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>170</v>
@@ -6117,7 +6105,7 @@
         <v>185</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>170</v>
@@ -6146,7 +6134,7 @@
         <v>185</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>170</v>
@@ -6349,7 +6337,7 @@
         <v>191</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H19" s="51" t="s">
         <v>170</v>
@@ -6543,10 +6531,10 @@
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" s="38" t="s">
         <v>369</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>370</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>77</v>
@@ -6633,7 +6621,7 @@
         <v>85</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>88</v>
@@ -6693,7 +6681,7 @@
         <v>85</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F33" s="38" t="s">
         <v>91</v>
@@ -6723,7 +6711,7 @@
         <v>85</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F34" s="38" t="s">
         <v>92</v>
@@ -6753,7 +6741,7 @@
         <v>85</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>92</v>
@@ -6783,7 +6771,7 @@
         <v>85</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>93</v>
@@ -6813,7 +6801,7 @@
         <v>85</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>100</v>
@@ -6843,7 +6831,7 @@
         <v>85</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F38" s="38" t="s">
         <v>101</v>
@@ -6873,7 +6861,7 @@
         <v>85</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F39" s="38" t="s">
         <v>102</v>
@@ -6903,7 +6891,7 @@
         <v>85</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F40" s="38" t="s">
         <v>105</v>
@@ -6933,7 +6921,7 @@
         <v>85</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>105</v>
@@ -6963,7 +6951,7 @@
         <v>85</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F42" s="38" t="s">
         <v>105</v>
@@ -6993,7 +6981,7 @@
         <v>85</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>105</v>
@@ -7023,7 +7011,7 @@
         <v>85</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F44" s="38" t="s">
         <v>105</v>
@@ -7053,7 +7041,7 @@
         <v>85</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>105</v>
@@ -7083,7 +7071,7 @@
         <v>85</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F46" s="38" t="s">
         <v>105</v>
@@ -7113,7 +7101,7 @@
         <v>85</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F47" s="38" t="s">
         <v>105</v>
@@ -7143,7 +7131,7 @@
         <v>85</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>134</v>
@@ -7173,7 +7161,7 @@
         <v>85</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>147</v>
@@ -7203,7 +7191,7 @@
         <v>85</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F50" s="38" t="s">
         <v>243</v>
@@ -7227,13 +7215,13 @@
         <v>90</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>85</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F51" s="38" t="s">
         <v>249</v>
@@ -7257,13 +7245,13 @@
         <v>90</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F52" s="38" t="s">
         <v>249</v>
@@ -15459,7 +15447,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" s="45"/>
       <c r="L1" s="45"/>
@@ -15484,31 +15472,31 @@
     </row>
     <row r="2" spans="1:28" ht="120.45" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P2" s="11">
         <v>1</v>
@@ -15516,31 +15504,31 @@
     </row>
     <row r="3" spans="1:28" ht="210" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P3" s="11">
         <v>1</v>
@@ -15548,31 +15536,31 @@
     </row>
     <row r="4" spans="1:28" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>402</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>403</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P4" s="11">
         <v>1</v>
@@ -15580,34 +15568,34 @@
     </row>
     <row r="5" spans="1:28" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="48" t="s">
         <v>406</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>407</v>
       </c>
       <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P5" s="11">
         <v>1</v>
@@ -15615,29 +15603,29 @@
     </row>
     <row r="6" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>412</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>413</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P6" s="11">
         <v>1</v>
@@ -15645,31 +15633,31 @@
     </row>
     <row r="7" spans="1:28" ht="135" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>418</v>
-      </c>
       <c r="G7" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P7" s="11">
         <v>1</v>
@@ -15677,31 +15665,31 @@
     </row>
     <row r="8" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="48" t="s">
         <v>422</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>423</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P8" s="11">
         <v>1</v>
@@ -15709,31 +15697,31 @@
     </row>
     <row r="9" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="48" t="s">
         <v>427</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>428</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P9" s="11">
         <v>1</v>
@@ -15741,34 +15729,34 @@
     </row>
     <row r="10" spans="1:28" ht="165" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="48" t="s">
         <v>432</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>433</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P10" s="11">
         <v>1</v>
@@ -15776,34 +15764,34 @@
     </row>
     <row r="11" spans="1:28" ht="105" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="48" t="s">
         <v>439</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>440</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P11" s="11">
         <v>1</v>
@@ -15811,31 +15799,31 @@
     </row>
     <row r="12" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="48" t="s">
         <v>444</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>445</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P12" s="11">
         <v>1</v>
@@ -15843,31 +15831,31 @@
     </row>
     <row r="13" spans="1:28" ht="120" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P13" s="11">
         <v>1</v>
@@ -15875,31 +15863,31 @@
     </row>
     <row r="14" spans="1:28" ht="180" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C14" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P14" s="11">
         <v>1</v>
@@ -15907,31 +15895,31 @@
     </row>
     <row r="15" spans="1:28" ht="195" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E15" s="47" t="s">
+      <c r="F15" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="48" t="s">
         <v>457</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>458</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P15" s="11">
         <v>1</v>
@@ -15939,31 +15927,31 @@
     </row>
     <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="47" t="s">
+      <c r="F16" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="48" t="s">
         <v>462</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>463</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P16" s="11">
         <v>1</v>

--- a/Testing/Foodies_TC_Report.xlsx
+++ b/Testing/Foodies_TC_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="465">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3944,6 +3944,9 @@
   <si>
     <t xml:space="preserve">Red message appears with "please write another ID"
 </t>
+  </si>
+  <si>
+    <t>Modified Status</t>
   </si>
 </sst>
 </file>
@@ -5776,11 +5779,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J281"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5793,11 +5796,12 @@
     <col min="6" max="6" width="53.15234375" style="19" customWidth="1"/>
     <col min="7" max="7" width="37.15234375" style="19" customWidth="1"/>
     <col min="8" max="8" width="13.53515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.3046875" style="19"/>
+    <col min="9" max="9" width="18.765625" customWidth="1"/>
+    <col min="10" max="10" width="17.3046875" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.3046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="35" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
         <v>154</v>
       </c>
@@ -5823,10 +5827,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="104.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="104.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>301</v>
       </c>
@@ -5849,11 +5856,11 @@
       <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
         <v>302</v>
       </c>
@@ -5878,11 +5885,11 @@
       <c r="H3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>303</v>
       </c>
@@ -5908,10 +5915,13 @@
         <v>170</v>
       </c>
       <c r="I4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
         <v>304</v>
       </c>
@@ -5936,11 +5946,11 @@
       <c r="H5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="J5" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
         <v>305</v>
       </c>
@@ -5965,11 +5975,11 @@
       <c r="H6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="J6" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A7" s="33" t="s">
         <v>306</v>
       </c>
@@ -5994,11 +6004,11 @@
       <c r="H7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="J7" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A8" s="33" t="s">
         <v>307</v>
       </c>
@@ -6023,11 +6033,11 @@
       <c r="H8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="J8" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
         <v>308</v>
       </c>
@@ -6052,11 +6062,11 @@
       <c r="H9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="J9" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A10" s="33" t="s">
         <v>309</v>
       </c>
@@ -6081,11 +6091,11 @@
       <c r="H10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="J10" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A11" s="33" t="s">
         <v>310</v>
       </c>
@@ -6110,11 +6120,11 @@
       <c r="H11" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="J11" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
         <v>311</v>
       </c>
@@ -6139,11 +6149,11 @@
       <c r="H12" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="J12" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A13" s="33" t="s">
         <v>312</v>
       </c>
@@ -6168,11 +6178,11 @@
       <c r="H13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="J13" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
         <v>313</v>
       </c>
@@ -6197,11 +6207,11 @@
       <c r="H14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="J14" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
         <v>314</v>
       </c>
@@ -6226,11 +6236,11 @@
       <c r="H15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="J15" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="111" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="111" x14ac:dyDescent="0.4">
       <c r="A16" s="33" t="s">
         <v>315</v>
       </c>
@@ -6255,11 +6265,11 @@
       <c r="H16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="J16" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A17" s="33" t="s">
         <v>316</v>
       </c>
@@ -6284,11 +6294,11 @@
       <c r="H17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="J17" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A18" s="33" t="s">
         <v>317</v>
       </c>
@@ -6313,11 +6323,11 @@
       <c r="H18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="J18" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A19" s="33" t="s">
         <v>318</v>
       </c>
@@ -6342,11 +6352,11 @@
       <c r="H19" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="J19" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A20" s="33" t="s">
         <v>319</v>
       </c>
@@ -6371,11 +6381,11 @@
       <c r="H20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="J20" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A21" s="33" t="s">
         <v>320</v>
       </c>
@@ -6398,11 +6408,11 @@
       <c r="H21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="J21" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="79.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="79.3" x14ac:dyDescent="0.4">
       <c r="A22" s="33" t="s">
         <v>321</v>
       </c>
@@ -6427,11 +6437,11 @@
       <c r="H22" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="J22" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="79.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="79.3" x14ac:dyDescent="0.4">
       <c r="A23" s="33" t="s">
         <v>322</v>
       </c>
@@ -6456,11 +6466,11 @@
       <c r="H23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A24" s="33" t="s">
         <v>323</v>
       </c>
@@ -6475,9 +6485,9 @@
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="s">
         <v>324</v>
       </c>
@@ -6490,9 +6500,9 @@
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>325</v>
       </c>
@@ -6503,9 +6513,9 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="33" t="s">
         <v>326</v>
       </c>
@@ -6516,10 +6526,10 @@
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" ht="79.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="36"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="79.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="33" t="s">
         <v>327</v>
       </c>
@@ -6542,12 +6552,12 @@
       <c r="H28" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="J28" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="158.6" x14ac:dyDescent="0.4">
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="158.6" x14ac:dyDescent="0.4">
       <c r="A29" s="33" t="s">
         <v>328</v>
       </c>
@@ -6572,12 +6582,12 @@
       <c r="H29" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="J29" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" ht="158.6" x14ac:dyDescent="0.4">
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="158.6" x14ac:dyDescent="0.4">
       <c r="A30" s="33" t="s">
         <v>329</v>
       </c>
@@ -6602,12 +6612,12 @@
       <c r="H30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="J30" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A31" s="33" t="s">
         <v>330</v>
       </c>
@@ -6632,12 +6642,12 @@
       <c r="H31" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="J31" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A32" s="33" t="s">
         <v>331</v>
       </c>
@@ -6662,12 +6672,12 @@
       <c r="H32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="J32" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A33" s="33" t="s">
         <v>332</v>
       </c>
@@ -6692,12 +6702,12 @@
       <c r="H33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="J33" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A34" s="33" t="s">
         <v>333</v>
       </c>
@@ -6722,12 +6732,12 @@
       <c r="H34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="J34" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A35" s="33" t="s">
         <v>334</v>
       </c>
@@ -6752,12 +6762,12 @@
       <c r="H35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="J35" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A36" s="33" t="s">
         <v>335</v>
       </c>
@@ -6782,12 +6792,12 @@
       <c r="H36" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="J36" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A37" s="33" t="s">
         <v>336</v>
       </c>
@@ -6812,12 +6822,12 @@
       <c r="H37" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="J37" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A38" s="33" t="s">
         <v>337</v>
       </c>
@@ -6842,12 +6852,12 @@
       <c r="H38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="J38" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A39" s="33" t="s">
         <v>338</v>
       </c>
@@ -6872,12 +6882,12 @@
       <c r="H39" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="J39" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A40" s="33" t="s">
         <v>339</v>
       </c>
@@ -6902,12 +6912,12 @@
       <c r="H40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="J40" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A41" s="33" t="s">
         <v>340</v>
       </c>
@@ -6932,12 +6942,12 @@
       <c r="H41" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="37" t="s">
+      <c r="J41" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A42" s="33" t="s">
         <v>341</v>
       </c>
@@ -6962,12 +6972,12 @@
       <c r="H42" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="J42" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K42" s="17"/>
+    </row>
+    <row r="43" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A43" s="33" t="s">
         <v>342</v>
       </c>
@@ -6992,12 +7002,12 @@
       <c r="H43" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="J43" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K43" s="17"/>
+    </row>
+    <row r="44" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A44" s="33" t="s">
         <v>343</v>
       </c>
@@ -7022,12 +7032,12 @@
       <c r="H44" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="J44" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A45" s="33" t="s">
         <v>344</v>
       </c>
@@ -7052,12 +7062,12 @@
       <c r="H45" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="J45" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A46" s="33" t="s">
         <v>345</v>
       </c>
@@ -7082,12 +7092,12 @@
       <c r="H46" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="37" t="s">
+      <c r="J46" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A47" s="33" t="s">
         <v>346</v>
       </c>
@@ -7112,12 +7122,12 @@
       <c r="H47" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="J47" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A48" s="33" t="s">
         <v>347</v>
       </c>
@@ -7142,12 +7152,12 @@
       <c r="H48" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="J48" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A49" s="33" t="s">
         <v>348</v>
       </c>
@@ -7172,12 +7182,12 @@
       <c r="H49" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="37" t="s">
+      <c r="J49" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:10" ht="142.75" x14ac:dyDescent="0.4">
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="1:11" ht="142.75" x14ac:dyDescent="0.4">
       <c r="A50" s="33" t="s">
         <v>349</v>
       </c>
@@ -7202,12 +7212,12 @@
       <c r="H50" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="37" t="s">
+      <c r="J50" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:10" ht="174.45" x14ac:dyDescent="0.4">
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="1:11" ht="174.45" x14ac:dyDescent="0.4">
       <c r="A51" s="33" t="s">
         <v>350</v>
       </c>
@@ -7232,12 +7242,12 @@
       <c r="H51" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="J51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:10" ht="174.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="1:11" ht="174.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="33" t="s">
         <v>351</v>
       </c>
@@ -7262,12 +7272,12 @@
       <c r="H52" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="37" t="s">
+      <c r="J52" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:10" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="33" t="s">
         <v>352</v>
       </c>
@@ -7278,9 +7288,9 @@
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" ht="79.75" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:11" ht="79.75" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A54" s="33" t="s">
         <v>353</v>
       </c>
@@ -7303,11 +7313,11 @@
       <c r="H54" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="J54" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="79.3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>354</v>
       </c>
@@ -7330,11 +7340,11 @@
       <c r="H55" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="30" t="s">
+      <c r="J55" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="79.3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A56" s="33" t="s">
         <v>355</v>
       </c>
@@ -7357,11 +7367,11 @@
       <c r="H56" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="30" t="s">
+      <c r="J56" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="79.3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A57" s="33" t="s">
         <v>356</v>
       </c>
@@ -7384,11 +7394,11 @@
       <c r="H57" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="J57" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="63.45" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="63.45" x14ac:dyDescent="0.45">
       <c r="A58" s="33" t="s">
         <v>357</v>
       </c>
@@ -7411,11 +7421,11 @@
       <c r="H58" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="J58" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="111" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="111" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>358</v>
       </c>
@@ -7438,11 +7448,11 @@
       <c r="H59" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="J59" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="111" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="111" x14ac:dyDescent="0.45">
       <c r="A60" s="33" t="s">
         <v>359</v>
       </c>
@@ -7465,11 +7475,11 @@
       <c r="H60" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="J60" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="111" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="111" x14ac:dyDescent="0.45">
       <c r="A61" s="33" t="s">
         <v>360</v>
       </c>
@@ -7492,11 +7502,11 @@
       <c r="H61" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="J61" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="47.6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="47.6" x14ac:dyDescent="0.4">
       <c r="A62" s="33" t="s">
         <v>361</v>
       </c>
@@ -7519,11 +7529,11 @@
       <c r="H62" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="J62" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="47.6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="47.6" x14ac:dyDescent="0.4">
       <c r="A63" s="33" t="s">
         <v>362</v>
       </c>
@@ -7546,11 +7556,11 @@
       <c r="H63" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I63" s="30" t="s">
+      <c r="J63" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="222" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="222" x14ac:dyDescent="0.4">
       <c r="A64" s="33" t="s">
         <v>363</v>
       </c>
@@ -7575,11 +7585,11 @@
       <c r="H64" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="J64" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -7590,9 +7600,9 @@
       <c r="H65" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -7603,9 +7613,9 @@
       <c r="H66" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -7616,9 +7626,9 @@
       <c r="H67" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="J67" s="30"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -7629,9 +7639,9 @@
       <c r="H68" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -7642,9 +7652,9 @@
       <c r="H69" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="44"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J69" s="44"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -7655,9 +7665,9 @@
       <c r="H70" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="44"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J70" s="44"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -7668,9 +7678,9 @@
       <c r="H71" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="44"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J71" s="44"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -7681,9 +7691,9 @@
       <c r="H72" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="44"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J72" s="44"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -7694,9 +7704,9 @@
       <c r="H73" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="44"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J73" s="44"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -7707,9 +7717,9 @@
       <c r="H74" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="44"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -7720,9 +7730,9 @@
       <c r="H75" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="44"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J75" s="44"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -7733,9 +7743,9 @@
       <c r="H76" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="44"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J76" s="44"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -7746,9 +7756,9 @@
       <c r="H77" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="44"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J77" s="44"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -7759,9 +7769,9 @@
       <c r="H78" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="44"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J78" s="44"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -7772,9 +7782,9 @@
       <c r="H79" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="44"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J79" s="44"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -7785,9 +7795,9 @@
       <c r="H80" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="44"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J80" s="44"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -7798,9 +7808,9 @@
       <c r="H81" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="44"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J81" s="44"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -7811,9 +7821,9 @@
       <c r="H82" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I82" s="44"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J82" s="44"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -7824,9 +7834,9 @@
       <c r="H83" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="44"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J83" s="44"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -7837,9 +7847,9 @@
       <c r="H84" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="44"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J84" s="44"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -7850,9 +7860,9 @@
       <c r="H85" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="44"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J85" s="44"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7863,9 +7873,9 @@
       <c r="H86" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I86" s="44"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J86" s="44"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -7876,9 +7886,9 @@
       <c r="H87" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I87" s="44"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J87" s="44"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -7889,9 +7899,9 @@
       <c r="H88" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="44"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J88" s="44"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -7902,9 +7912,9 @@
       <c r="H89" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="44"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J89" s="44"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -7915,9 +7925,9 @@
       <c r="H90" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="44"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J90" s="44"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -7928,9 +7938,9 @@
       <c r="H91" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="44"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J91" s="44"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -7941,9 +7951,9 @@
       <c r="H92" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I92" s="44"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -7954,9 +7964,9 @@
       <c r="H93" s="30" t="s">
         <v>10</v>
       </c>
-      <